--- a/data/nzd0209/nzd0209.xlsx
+++ b/data/nzd0209/nzd0209.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF299"/>
+  <dimension ref="A1:AF303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28480,6 +28480,390 @@
         </is>
       </c>
     </row>
+    <row r="300">
+      <c r="A300" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-23 21:53:43+00:00</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>340.81</v>
+      </c>
+      <c r="C300" t="n">
+        <v>330.4466666666667</v>
+      </c>
+      <c r="D300" t="n">
+        <v>329.7042857142857</v>
+      </c>
+      <c r="E300" t="n">
+        <v>324.6266666666667</v>
+      </c>
+      <c r="F300" t="n">
+        <v>317.7766666666667</v>
+      </c>
+      <c r="G300" t="n">
+        <v>323.9742857142857</v>
+      </c>
+      <c r="H300" t="n">
+        <v>308.8342857142857</v>
+      </c>
+      <c r="I300" t="n">
+        <v>292.2842857142857</v>
+      </c>
+      <c r="J300" t="n">
+        <v>273.69</v>
+      </c>
+      <c r="K300" t="n">
+        <v>299.18</v>
+      </c>
+      <c r="L300" t="n">
+        <v>312.02</v>
+      </c>
+      <c r="M300" t="n">
+        <v>316.4177777777778</v>
+      </c>
+      <c r="N300" t="n">
+        <v>322.9147058823529</v>
+      </c>
+      <c r="O300" t="n">
+        <v>331.73</v>
+      </c>
+      <c r="P300" t="n">
+        <v>339.5077777777778</v>
+      </c>
+      <c r="Q300" t="n">
+        <v>335.3666666666667</v>
+      </c>
+      <c r="R300" t="n">
+        <v>329.8866666666667</v>
+      </c>
+      <c r="S300" t="n">
+        <v>327.1066666666667</v>
+      </c>
+      <c r="T300" t="n">
+        <v>328.8642857142857</v>
+      </c>
+      <c r="U300" t="n">
+        <v>330.2742857142857</v>
+      </c>
+      <c r="V300" t="n">
+        <v>333.8842857142857</v>
+      </c>
+      <c r="W300" t="n">
+        <v>330.3166666666667</v>
+      </c>
+      <c r="X300" t="n">
+        <v>327.1366666666667</v>
+      </c>
+      <c r="Y300" t="n">
+        <v>328.3466666666667</v>
+      </c>
+      <c r="Z300" t="n">
+        <v>328.9766666666667</v>
+      </c>
+      <c r="AA300" t="n">
+        <v>330.2766666666667</v>
+      </c>
+      <c r="AB300" t="n">
+        <v>328.2966666666667</v>
+      </c>
+      <c r="AC300" t="n">
+        <v>330.7666666666667</v>
+      </c>
+      <c r="AD300" t="n">
+        <v>323.8566666666667</v>
+      </c>
+      <c r="AE300" t="n">
+        <v>316.1266666666667</v>
+      </c>
+      <c r="AF300" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-31 21:53:47+00:00</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>334.03</v>
+      </c>
+      <c r="C301" t="n">
+        <v>327.2733333333333</v>
+      </c>
+      <c r="D301" t="n">
+        <v>319.2971428571428</v>
+      </c>
+      <c r="E301" t="n">
+        <v>317.4133333333333</v>
+      </c>
+      <c r="F301" t="n">
+        <v>315.2133333333333</v>
+      </c>
+      <c r="G301" t="n">
+        <v>315.6871428571428</v>
+      </c>
+      <c r="H301" t="n">
+        <v>302.9571428571429</v>
+      </c>
+      <c r="I301" t="n">
+        <v>280.9071428571428</v>
+      </c>
+      <c r="J301" t="n">
+        <v>240.78</v>
+      </c>
+      <c r="K301" t="n">
+        <v>299.97</v>
+      </c>
+      <c r="L301" t="n">
+        <v>311.38</v>
+      </c>
+      <c r="M301" t="n">
+        <v>314.2288888888889</v>
+      </c>
+      <c r="N301" t="n">
+        <v>317.5141176470589</v>
+      </c>
+      <c r="O301" t="n">
+        <v>327.58</v>
+      </c>
+      <c r="P301" t="n">
+        <v>335.6188888888889</v>
+      </c>
+      <c r="Q301" t="n">
+        <v>328.0833333333333</v>
+      </c>
+      <c r="R301" t="n">
+        <v>326.3933333333333</v>
+      </c>
+      <c r="S301" t="n">
+        <v>323.7733333333333</v>
+      </c>
+      <c r="T301" t="n">
+        <v>323.7471428571428</v>
+      </c>
+      <c r="U301" t="n">
+        <v>327.6071428571428</v>
+      </c>
+      <c r="V301" t="n">
+        <v>327.0871428571429</v>
+      </c>
+      <c r="W301" t="n">
+        <v>326.7133333333333</v>
+      </c>
+      <c r="X301" t="n">
+        <v>323.1833333333333</v>
+      </c>
+      <c r="Y301" t="n">
+        <v>324.1733333333333</v>
+      </c>
+      <c r="Z301" t="n">
+        <v>328.9533333333333</v>
+      </c>
+      <c r="AA301" t="n">
+        <v>327.5833333333333</v>
+      </c>
+      <c r="AB301" t="n">
+        <v>325.0833333333333</v>
+      </c>
+      <c r="AC301" t="n">
+        <v>324.5633333333333</v>
+      </c>
+      <c r="AD301" t="n">
+        <v>319.2233333333333</v>
+      </c>
+      <c r="AE301" t="n">
+        <v>305.8433333333333</v>
+      </c>
+      <c r="AF301" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-08 21:53:45+00:00</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>338.13</v>
+      </c>
+      <c r="C302" t="n">
+        <v>333.8133333333333</v>
+      </c>
+      <c r="D302" t="n">
+        <v>330.2242857142857</v>
+      </c>
+      <c r="E302" t="n">
+        <v>325.5033333333333</v>
+      </c>
+      <c r="F302" t="n">
+        <v>319.0033333333333</v>
+      </c>
+      <c r="G302" t="inlineStr"/>
+      <c r="H302" t="inlineStr"/>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="inlineStr"/>
+      <c r="M302" t="inlineStr"/>
+      <c r="N302" t="inlineStr"/>
+      <c r="O302" t="inlineStr"/>
+      <c r="P302" t="inlineStr"/>
+      <c r="Q302" t="inlineStr"/>
+      <c r="R302" t="n">
+        <v>330.0333333333333</v>
+      </c>
+      <c r="S302" t="n">
+        <v>327.6033333333333</v>
+      </c>
+      <c r="T302" t="n">
+        <v>327.3342857142857</v>
+      </c>
+      <c r="U302" t="n">
+        <v>331.8742857142857</v>
+      </c>
+      <c r="V302" t="n">
+        <v>337.1242857142857</v>
+      </c>
+      <c r="W302" t="n">
+        <v>330.2533333333333</v>
+      </c>
+      <c r="X302" t="n">
+        <v>327.6433333333333</v>
+      </c>
+      <c r="Y302" t="n">
+        <v>330.1533333333333</v>
+      </c>
+      <c r="Z302" t="n">
+        <v>329.4433333333333</v>
+      </c>
+      <c r="AA302" t="n">
+        <v>330.1033333333333</v>
+      </c>
+      <c r="AB302" t="n">
+        <v>328.9733333333333</v>
+      </c>
+      <c r="AC302" t="n">
+        <v>328.8533333333333</v>
+      </c>
+      <c r="AD302" t="n">
+        <v>321.0633333333333</v>
+      </c>
+      <c r="AE302" t="n">
+        <v>312.8933333333333</v>
+      </c>
+      <c r="AF302" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-25 21:53:31+00:00</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>344.73</v>
+      </c>
+      <c r="C303" t="n">
+        <v>342.1466666666667</v>
+      </c>
+      <c r="D303" t="n">
+        <v>335.7542857142857</v>
+      </c>
+      <c r="E303" t="n">
+        <v>329.7866666666667</v>
+      </c>
+      <c r="F303" t="n">
+        <v>326.8366666666667</v>
+      </c>
+      <c r="G303" t="n">
+        <v>324.6642857142857</v>
+      </c>
+      <c r="H303" t="n">
+        <v>311.8842857142857</v>
+      </c>
+      <c r="I303" t="n">
+        <v>305.9742857142857</v>
+      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>314.66</v>
+      </c>
+      <c r="L303" t="n">
+        <v>321.45</v>
+      </c>
+      <c r="M303" t="n">
+        <v>315.0744444444445</v>
+      </c>
+      <c r="N303" t="n">
+        <v>328.3823529411765</v>
+      </c>
+      <c r="O303" t="n">
+        <v>332.51</v>
+      </c>
+      <c r="P303" t="n">
+        <v>348.5044444444445</v>
+      </c>
+      <c r="Q303" t="n">
+        <v>332.1166666666667</v>
+      </c>
+      <c r="R303" t="n">
+        <v>331.8466666666667</v>
+      </c>
+      <c r="S303" t="n">
+        <v>328.8066666666667</v>
+      </c>
+      <c r="T303" t="n">
+        <v>326.0842857142857</v>
+      </c>
+      <c r="U303" t="n">
+        <v>332.2742857142857</v>
+      </c>
+      <c r="V303" t="n">
+        <v>335.4942857142857</v>
+      </c>
+      <c r="W303" t="n">
+        <v>331.4266666666667</v>
+      </c>
+      <c r="X303" t="n">
+        <v>331.7466666666667</v>
+      </c>
+      <c r="Y303" t="n">
+        <v>332.1566666666667</v>
+      </c>
+      <c r="Z303" t="n">
+        <v>332.4766666666667</v>
+      </c>
+      <c r="AA303" t="n">
+        <v>328.4066666666667</v>
+      </c>
+      <c r="AB303" t="n">
+        <v>329.8966666666667</v>
+      </c>
+      <c r="AC303" t="n">
+        <v>332.0166666666667</v>
+      </c>
+      <c r="AD303" t="n">
+        <v>323.4766666666667</v>
+      </c>
+      <c r="AE303" t="n">
+        <v>313.8166666666667</v>
+      </c>
+      <c r="AF303" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -28491,7 +28875,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B301"/>
+  <dimension ref="A1:B305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31509,6 +31893,46 @@
       </c>
       <c r="B301" t="n">
         <v>-0.32</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>2024-12-23 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>2024-12-31 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>2025-01-08 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>-0.29</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>2025-02-25 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>-0.43</v>
       </c>
     </row>
   </sheetData>
@@ -31677,28 +32101,28 @@
         <v>0.0306</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.310969449485622</v>
+        <v>-2.300105030229199</v>
       </c>
       <c r="J2" t="n">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K2" t="n">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5303763941140192</v>
+        <v>0.5373674709655953</v>
       </c>
       <c r="M2" t="n">
-        <v>11.99959468250933</v>
+        <v>11.86878004418695</v>
       </c>
       <c r="N2" t="n">
-        <v>236.4138325587693</v>
+        <v>232.9510711209576</v>
       </c>
       <c r="O2" t="n">
-        <v>15.37575469883574</v>
+        <v>15.26273471960243</v>
       </c>
       <c r="P2" t="n">
-        <v>395.2313047255611</v>
+        <v>395.1233136429228</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -31754,28 +32178,28 @@
         <v>0.0347</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.014437406519962</v>
+        <v>-2.009023667266476</v>
       </c>
       <c r="J3" t="n">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K3" t="n">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5231661530495763</v>
+        <v>0.5308610798808144</v>
       </c>
       <c r="M3" t="n">
-        <v>10.97866037579829</v>
+        <v>10.87289346183892</v>
       </c>
       <c r="N3" t="n">
-        <v>189.6561192008132</v>
+        <v>187.100529499703</v>
       </c>
       <c r="O3" t="n">
-        <v>13.7715692352329</v>
+        <v>13.67846955984853</v>
       </c>
       <c r="P3" t="n">
-        <v>383.2296870176941</v>
+        <v>383.1764810188186</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -31831,28 +32255,28 @@
         <v>0.0392</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.494479158886422</v>
+        <v>-1.493483179899357</v>
       </c>
       <c r="J4" t="n">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K4" t="n">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4116135273014698</v>
+        <v>0.4205957159787745</v>
       </c>
       <c r="M4" t="n">
-        <v>9.71482039907136</v>
+        <v>9.630146067316737</v>
       </c>
       <c r="N4" t="n">
-        <v>160.9753518663984</v>
+        <v>158.7967822529483</v>
       </c>
       <c r="O4" t="n">
-        <v>12.68760623074339</v>
+        <v>12.60145952867954</v>
       </c>
       <c r="P4" t="n">
-        <v>366.5951802843301</v>
+        <v>366.5849695461432</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -31908,28 +32332,28 @@
         <v>0.0351</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.091036593957483</v>
+        <v>-1.093409408843716</v>
       </c>
       <c r="J5" t="n">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K5" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2217600428152483</v>
+        <v>0.229640539524144</v>
       </c>
       <c r="M5" t="n">
-        <v>10.62741437502579</v>
+        <v>10.50218888676014</v>
       </c>
       <c r="N5" t="n">
-        <v>206.2749638119937</v>
+        <v>203.0466151206306</v>
       </c>
       <c r="O5" t="n">
-        <v>14.36227571842268</v>
+        <v>14.249442624911</v>
       </c>
       <c r="P5" t="n">
-        <v>352.7954191734214</v>
+        <v>352.8186504427166</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -31985,28 +32409,28 @@
         <v>0.034</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.6918757127721943</v>
+        <v>-0.7130429270734741</v>
       </c>
       <c r="J6" t="n">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K6" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1355262831511471</v>
+        <v>0.1474217726018265</v>
       </c>
       <c r="M6" t="n">
-        <v>9.191127512837157</v>
+        <v>9.148233050228745</v>
       </c>
       <c r="N6" t="n">
-        <v>150.1644639247249</v>
+        <v>148.4010085675065</v>
       </c>
       <c r="O6" t="n">
-        <v>12.25416108612601</v>
+        <v>12.18199526216894</v>
       </c>
       <c r="P6" t="n">
-        <v>342.9475457669975</v>
+        <v>343.1565456114874</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -32062,28 +32486,28 @@
         <v>0.0375</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.4820965264573268</v>
+        <v>-0.4981499203639287</v>
       </c>
       <c r="J7" t="n">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K7" t="n">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L7" t="n">
-        <v>0.09549468291933161</v>
+        <v>0.103815147431051</v>
       </c>
       <c r="M7" t="n">
-        <v>8.133620481452018</v>
+        <v>8.093674484138619</v>
       </c>
       <c r="N7" t="n">
-        <v>110.347387961253</v>
+        <v>109.5282438412023</v>
       </c>
       <c r="O7" t="n">
-        <v>10.50463649829222</v>
+        <v>10.46557422415045</v>
       </c>
       <c r="P7" t="n">
-        <v>339.3828554804221</v>
+        <v>339.5387589148807</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -32139,28 +32563,28 @@
         <v>0.0363</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2747681791293581</v>
+        <v>-0.2909357224351123</v>
       </c>
       <c r="J8" t="n">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K8" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02636590599324451</v>
+        <v>0.0302964658565531</v>
       </c>
       <c r="M8" t="n">
-        <v>8.683362217804781</v>
+        <v>8.640834376954992</v>
       </c>
       <c r="N8" t="n">
-        <v>141.640752812177</v>
+        <v>140.4246604537705</v>
       </c>
       <c r="O8" t="n">
-        <v>11.90129206482124</v>
+        <v>11.85009115803632</v>
       </c>
       <c r="P8" t="n">
-        <v>320.6964805833014</v>
+        <v>320.8506145198919</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -32216,28 +32640,28 @@
         <v>0.0362</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.6961883206467007</v>
+        <v>-0.7047555885711841</v>
       </c>
       <c r="J9" t="n">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K9" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1200166624614101</v>
+        <v>0.1257393604110773</v>
       </c>
       <c r="M9" t="n">
-        <v>10.10190817189373</v>
+        <v>10.09261900001637</v>
       </c>
       <c r="N9" t="n">
-        <v>178.8927782415662</v>
+        <v>178.0109395325908</v>
       </c>
       <c r="O9" t="n">
-        <v>13.3750804947696</v>
+        <v>13.34207403414442</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6455119799496</v>
+        <v>313.7249742819201</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -32293,28 +32717,28 @@
         <v>0.0436</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.9451620753407144</v>
+        <v>-1.002828862044038</v>
       </c>
       <c r="J10" t="n">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K10" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1516562736697339</v>
+        <v>0.1655550420811306</v>
       </c>
       <c r="M10" t="n">
-        <v>11.2757620987343</v>
+        <v>11.46963188788753</v>
       </c>
       <c r="N10" t="n">
-        <v>252.5733879207097</v>
+        <v>259.9500957032147</v>
       </c>
       <c r="O10" t="n">
-        <v>15.89255762678587</v>
+        <v>16.12296795578329</v>
       </c>
       <c r="P10" t="n">
-        <v>310.4992584932075</v>
+        <v>311.0431768993768</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -32364,28 +32788,28 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>-0.5578198699677236</v>
+        <v>-0.5279557067445925</v>
       </c>
       <c r="J11" t="n">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K11" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05777879654553808</v>
+        <v>0.05369499606665029</v>
       </c>
       <c r="M11" t="n">
-        <v>11.36062361614658</v>
+        <v>11.30731341034795</v>
       </c>
       <c r="N11" t="n">
-        <v>251.8043551967808</v>
+        <v>250.1676834215252</v>
       </c>
       <c r="O11" t="n">
-        <v>15.86834443780386</v>
+        <v>15.81669002735797</v>
       </c>
       <c r="P11" t="n">
-        <v>309.5770273979942</v>
+        <v>309.2990557458139</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -32441,28 +32865,28 @@
         <v>0.0446</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.05016385092971936</v>
+        <v>-0.03353622435859487</v>
       </c>
       <c r="J12" t="n">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K12" t="n">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001006198834282435</v>
+        <v>0.0004629100882486137</v>
       </c>
       <c r="M12" t="n">
-        <v>8.631434213804445</v>
+        <v>8.584807620766098</v>
       </c>
       <c r="N12" t="n">
-        <v>129.1138025545706</v>
+        <v>128.1443996014691</v>
       </c>
       <c r="O12" t="n">
-        <v>11.36282546528682</v>
+        <v>11.32008832127511</v>
       </c>
       <c r="P12" t="n">
-        <v>310.383600493496</v>
+        <v>310.2277819172285</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -32518,28 +32942,28 @@
         <v>0.051</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3928511143092805</v>
+        <v>0.3824154343184641</v>
       </c>
       <c r="J13" t="n">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K13" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="L13" t="n">
-        <v>0.08092314839430181</v>
+        <v>0.07930935668624761</v>
       </c>
       <c r="M13" t="n">
-        <v>7.398351024600779</v>
+        <v>7.351024455534559</v>
       </c>
       <c r="N13" t="n">
-        <v>89.28079123433176</v>
+        <v>88.33919303238621</v>
       </c>
       <c r="O13" t="n">
-        <v>9.448851318246666</v>
+        <v>9.398893181241407</v>
       </c>
       <c r="P13" t="n">
-        <v>308.9329865474759</v>
+        <v>309.030493597947</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -32589,28 +33013,28 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>0.5642390977462561</v>
+        <v>0.5527898167154005</v>
       </c>
       <c r="J14" t="n">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K14" t="n">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L14" t="n">
-        <v>0.21394576190519</v>
+        <v>0.2112458623076212</v>
       </c>
       <c r="M14" t="n">
-        <v>6.019393243870823</v>
+        <v>6.004525398036875</v>
       </c>
       <c r="N14" t="n">
-        <v>60.2996908063969</v>
+        <v>60.03498050190012</v>
       </c>
       <c r="O14" t="n">
-        <v>7.76528755464966</v>
+        <v>7.748224345093534</v>
       </c>
       <c r="P14" t="n">
-        <v>312.9178466801984</v>
+        <v>313.022721492842</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -32666,28 +33090,28 @@
         <v>0.0405</v>
       </c>
       <c r="I15" t="n">
-        <v>0.760739769515357</v>
+        <v>0.7428906384268391</v>
       </c>
       <c r="J15" t="n">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K15" t="n">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3028077286689</v>
+        <v>0.2973627871406711</v>
       </c>
       <c r="M15" t="n">
-        <v>6.531887875399168</v>
+        <v>6.52374137254989</v>
       </c>
       <c r="N15" t="n">
-        <v>69.02756011865453</v>
+        <v>68.84545202495489</v>
       </c>
       <c r="O15" t="n">
-        <v>8.308282621496126</v>
+        <v>8.297315953063068</v>
       </c>
       <c r="P15" t="n">
-        <v>318.3144141011371</v>
+        <v>318.4796771628711</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -32743,28 +33167,28 @@
         <v>0.0471</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8670451279022084</v>
+        <v>0.8553909622527183</v>
       </c>
       <c r="J16" t="n">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K16" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="L16" t="n">
-        <v>0.4151702762560967</v>
+        <v>0.4134992143090147</v>
       </c>
       <c r="M16" t="n">
-        <v>5.638633363588091</v>
+        <v>5.639739739326949</v>
       </c>
       <c r="N16" t="n">
-        <v>52.91386098983689</v>
+        <v>52.87225101146068</v>
       </c>
       <c r="O16" t="n">
-        <v>7.274191432031253</v>
+        <v>7.271330759321892</v>
       </c>
       <c r="P16" t="n">
-        <v>323.7457244171936</v>
+        <v>323.855209465496</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -32820,28 +33244,28 @@
         <v>0.0308</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9287583859436853</v>
+        <v>0.9064926363420964</v>
       </c>
       <c r="J17" t="n">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K17" t="n">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3035670248366336</v>
+        <v>0.2975449723213464</v>
       </c>
       <c r="M17" t="n">
-        <v>8.073567596042816</v>
+        <v>8.076049387933342</v>
       </c>
       <c r="N17" t="n">
-        <v>98.89979403029655</v>
+        <v>98.78003810176381</v>
       </c>
       <c r="O17" t="n">
-        <v>9.944837556757603</v>
+        <v>9.938814723183233</v>
       </c>
       <c r="P17" t="n">
-        <v>317.2353767464218</v>
+        <v>317.4459321364772</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -32897,28 +33321,28 @@
         <v>0.0319</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9558579474430197</v>
+        <v>0.9311793786417252</v>
       </c>
       <c r="J18" t="n">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K18" t="n">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3192385073528141</v>
+        <v>0.3141540493653578</v>
       </c>
       <c r="M18" t="n">
-        <v>8.027188101427992</v>
+        <v>8.01614686587436</v>
       </c>
       <c r="N18" t="n">
-        <v>97.72410289052223</v>
+        <v>97.21433296054315</v>
       </c>
       <c r="O18" t="n">
-        <v>9.885550206767565</v>
+        <v>9.859732905132022</v>
       </c>
       <c r="P18" t="n">
-        <v>312.9782235017809</v>
+        <v>313.2124957005491</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -32974,28 +33398,28 @@
         <v>0.0353</v>
       </c>
       <c r="I19" t="n">
-        <v>1.047373638934701</v>
+        <v>1.01505310725777</v>
       </c>
       <c r="J19" t="n">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K19" t="n">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3452420204863619</v>
+        <v>0.33618078878274</v>
       </c>
       <c r="M19" t="n">
-        <v>8.099013809204198</v>
+        <v>8.129906548070947</v>
       </c>
       <c r="N19" t="n">
-        <v>104.4179901274884</v>
+        <v>104.4317991985694</v>
       </c>
       <c r="O19" t="n">
-        <v>10.21851212885166</v>
+        <v>10.21918779544487</v>
       </c>
       <c r="P19" t="n">
-        <v>310.4888303023382</v>
+        <v>310.7991042172592</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -33051,28 +33475,28 @@
         <v>0.0365</v>
       </c>
       <c r="I20" t="n">
-        <v>1.016121055462014</v>
+        <v>0.9848452696287485</v>
       </c>
       <c r="J20" t="n">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K20" t="n">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="L20" t="n">
-        <v>0.4349036011518488</v>
+        <v>0.4237444915491506</v>
       </c>
       <c r="M20" t="n">
-        <v>6.516385347546106</v>
+        <v>6.560434126504314</v>
       </c>
       <c r="N20" t="n">
-        <v>66.06460404084773</v>
+        <v>66.46446282017202</v>
       </c>
       <c r="O20" t="n">
-        <v>8.128013535966074</v>
+        <v>8.152573999674704</v>
       </c>
       <c r="P20" t="n">
-        <v>310.3694942163267</v>
+        <v>310.6738963294511</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -33128,28 +33552,28 @@
         <v>0.0375</v>
       </c>
       <c r="I21" t="n">
-        <v>1.062845801600907</v>
+        <v>1.037095939876117</v>
       </c>
       <c r="J21" t="n">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K21" t="n">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="L21" t="n">
-        <v>0.4605370853439965</v>
+        <v>0.4540565978230571</v>
       </c>
       <c r="M21" t="n">
-        <v>6.326682631209628</v>
+        <v>6.345886120412792</v>
       </c>
       <c r="N21" t="n">
-        <v>65.04558795836419</v>
+        <v>65.05462710667342</v>
       </c>
       <c r="O21" t="n">
-        <v>8.065084497906032</v>
+        <v>8.065644866138939</v>
       </c>
       <c r="P21" t="n">
-        <v>311.5264016420967</v>
+        <v>311.7762968780623</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -33205,28 +33629,28 @@
         <v>0.0363</v>
       </c>
       <c r="I22" t="n">
-        <v>1.029221457596788</v>
+        <v>1.015845209897176</v>
       </c>
       <c r="J22" t="n">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K22" t="n">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L22" t="n">
-        <v>0.4169550800147044</v>
+        <v>0.4180590991475684</v>
       </c>
       <c r="M22" t="n">
-        <v>6.543566476508152</v>
+        <v>6.522145598213366</v>
       </c>
       <c r="N22" t="n">
-        <v>72.87632006571221</v>
+        <v>72.29927305405241</v>
       </c>
       <c r="O22" t="n">
-        <v>8.53676285635909</v>
+        <v>8.502897920947447</v>
       </c>
       <c r="P22" t="n">
-        <v>311.42075277278</v>
+        <v>311.5506292327211</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -33282,28 +33706,28 @@
         <v>0.032</v>
       </c>
       <c r="I23" t="n">
-        <v>1.062875739488815</v>
+        <v>1.047428538736469</v>
       </c>
       <c r="J23" t="n">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K23" t="n">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="L23" t="n">
-        <v>0.4184333735544682</v>
+        <v>0.4194052193834269</v>
       </c>
       <c r="M23" t="n">
-        <v>6.944649930320483</v>
+        <v>6.922661067713026</v>
       </c>
       <c r="N23" t="n">
-        <v>76.92006135470042</v>
+        <v>76.1858697744847</v>
       </c>
       <c r="O23" t="n">
-        <v>8.770408277537621</v>
+        <v>8.728451739826754</v>
       </c>
       <c r="P23" t="n">
-        <v>307.3958474745727</v>
+        <v>307.5453494025598</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -33359,28 +33783,28 @@
         <v>0.031</v>
       </c>
       <c r="I24" t="n">
-        <v>1.128022451016336</v>
+        <v>1.109371462562314</v>
       </c>
       <c r="J24" t="n">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K24" t="n">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="L24" t="n">
-        <v>0.4489205395563781</v>
+        <v>0.4483081131527432</v>
       </c>
       <c r="M24" t="n">
-        <v>6.869099028826987</v>
+        <v>6.862385353998949</v>
       </c>
       <c r="N24" t="n">
-        <v>75.9723112893503</v>
+        <v>75.45393588852315</v>
       </c>
       <c r="O24" t="n">
-        <v>8.716209685944362</v>
+        <v>8.686422502303417</v>
       </c>
       <c r="P24" t="n">
-        <v>304.3903811459307</v>
+        <v>304.571812597557</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -33436,28 +33860,28 @@
         <v>0.0313</v>
       </c>
       <c r="I25" t="n">
-        <v>1.056790351155277</v>
+        <v>1.044877587568932</v>
       </c>
       <c r="J25" t="n">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K25" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L25" t="n">
-        <v>0.4129832272033606</v>
+        <v>0.4161527304889925</v>
       </c>
       <c r="M25" t="n">
-        <v>6.93049567425934</v>
+        <v>6.878248648401857</v>
       </c>
       <c r="N25" t="n">
-        <v>76.7418587065049</v>
+        <v>75.92618794352906</v>
       </c>
       <c r="O25" t="n">
-        <v>8.760243073482886</v>
+        <v>8.713563446921647</v>
       </c>
       <c r="P25" t="n">
-        <v>305.3422493924776</v>
+        <v>305.4577788362944</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -33513,28 +33937,28 @@
         <v>0.0318</v>
       </c>
       <c r="I26" t="n">
-        <v>1.048773623196055</v>
+        <v>1.037533171709774</v>
       </c>
       <c r="J26" t="n">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K26" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="L26" t="n">
-        <v>0.3843191213814077</v>
+        <v>0.3876815015844567</v>
       </c>
       <c r="M26" t="n">
-        <v>7.41942570690514</v>
+        <v>7.362190637311231</v>
       </c>
       <c r="N26" t="n">
-        <v>86.56798502876107</v>
+        <v>85.52830354831458</v>
       </c>
       <c r="O26" t="n">
-        <v>9.304191798794836</v>
+        <v>9.248151358423724</v>
       </c>
       <c r="P26" t="n">
-        <v>306.7238660761939</v>
+        <v>306.832549069541</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -33590,28 +34014,28 @@
         <v>0.0315</v>
       </c>
       <c r="I27" t="n">
-        <v>1.022155072310901</v>
+        <v>1.017384727172879</v>
       </c>
       <c r="J27" t="n">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K27" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="L27" t="n">
-        <v>0.3762584630486498</v>
+        <v>0.3828736967310657</v>
       </c>
       <c r="M27" t="n">
-        <v>7.224261869946406</v>
+        <v>7.141465880019243</v>
       </c>
       <c r="N27" t="n">
-        <v>85.12517385305291</v>
+        <v>83.96212696261249</v>
       </c>
       <c r="O27" t="n">
-        <v>9.226330465198659</v>
+        <v>9.163085013390004</v>
       </c>
       <c r="P27" t="n">
-        <v>304.5145565631166</v>
+        <v>304.5607390079829</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -33667,28 +34091,28 @@
         <v>0.0315</v>
       </c>
       <c r="I28" t="n">
-        <v>0.9024403980142045</v>
+        <v>0.9029105295434707</v>
       </c>
       <c r="J28" t="n">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K28" t="n">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="L28" t="n">
-        <v>0.3013043461815447</v>
+        <v>0.3092451778659918</v>
       </c>
       <c r="M28" t="n">
-        <v>7.642009192815723</v>
+        <v>7.555872395835991</v>
       </c>
       <c r="N28" t="n">
-        <v>94.61269597987464</v>
+        <v>93.32023067251922</v>
       </c>
       <c r="O28" t="n">
-        <v>9.726905776241212</v>
+        <v>9.660239679869191</v>
       </c>
       <c r="P28" t="n">
-        <v>304.9161517109896</v>
+        <v>304.9115478667483</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -33744,28 +34168,28 @@
         <v>0.0316</v>
       </c>
       <c r="I29" t="n">
-        <v>0.7991399599469691</v>
+        <v>0.8055801802677666</v>
       </c>
       <c r="J29" t="n">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K29" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="L29" t="n">
-        <v>0.2363920252715166</v>
+        <v>0.2458577596380638</v>
       </c>
       <c r="M29" t="n">
-        <v>8.188928568660588</v>
+        <v>8.117767959088837</v>
       </c>
       <c r="N29" t="n">
-        <v>103.4283340200731</v>
+        <v>102.1227909719161</v>
       </c>
       <c r="O29" t="n">
-        <v>10.16997217400682</v>
+        <v>10.10558216887657</v>
       </c>
       <c r="P29" t="n">
-        <v>306.6544163292367</v>
+        <v>306.5925636226695</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -33821,28 +34245,28 @@
         <v>0.0311</v>
       </c>
       <c r="I30" t="n">
-        <v>0.847219030381512</v>
+        <v>0.8503480725266297</v>
       </c>
       <c r="J30" t="n">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K30" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="L30" t="n">
-        <v>0.2548730413474909</v>
+        <v>0.2632561520980676</v>
       </c>
       <c r="M30" t="n">
-        <v>8.045735846213038</v>
+        <v>7.955720214765653</v>
       </c>
       <c r="N30" t="n">
-        <v>104.8355496376547</v>
+        <v>103.4058569938577</v>
       </c>
       <c r="O30" t="n">
-        <v>10.23892326554187</v>
+        <v>10.1688670457361</v>
       </c>
       <c r="P30" t="n">
-        <v>299.3215730411459</v>
+        <v>299.2913161485957</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -33898,28 +34322,28 @@
         <v>0.0306</v>
       </c>
       <c r="I31" t="n">
-        <v>0.7410616084128376</v>
+        <v>0.7370603056519721</v>
       </c>
       <c r="J31" t="n">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K31" t="n">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L31" t="n">
-        <v>0.1790617271604685</v>
+        <v>0.1829793390823475</v>
       </c>
       <c r="M31" t="n">
-        <v>8.661401921271429</v>
+        <v>8.572706920356348</v>
       </c>
       <c r="N31" t="n">
-        <v>125.0406726674172</v>
+        <v>123.4076003976789</v>
       </c>
       <c r="O31" t="n">
-        <v>11.1821586765444</v>
+        <v>11.10889735291847</v>
       </c>
       <c r="P31" t="n">
-        <v>294.4827497296005</v>
+        <v>294.5213594552447</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -33956,7 +34380,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF299"/>
+  <dimension ref="A1:AF303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77374,6 +77798,606 @@
         </is>
       </c>
     </row>
+    <row r="300">
+      <c r="A300" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-23 21:53:43+00:00</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>-37.57046726943108,178.2946771326031</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>-37.571143697861594,178.29436092509354</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>-37.57183634721687,178.29415144361485</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>-37.57252167783966,178.29389386941253</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>-37.573204012396204,178.29361663223565</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>-37.573940265931256,178.29347609040747</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>-37.574688069929145,178.29328546069897</t>
+        </is>
+      </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>-37.57540506834463,178.2930880149037</t>
+        </is>
+      </c>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>-37.57612117720016,178.2928675093297</t>
+        </is>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>-37.576830664496306,178.29314474169294</t>
+        </is>
+      </c>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>-37.57755303144791,178.2932904982228</t>
+        </is>
+      </c>
+      <c r="M300" t="inlineStr">
+        <is>
+          <t>-37.57827181912609,178.29339106849847</t>
+        </is>
+      </c>
+      <c r="N300" t="inlineStr">
+        <is>
+          <t>-37.57897719268842,178.29351467521283</t>
+        </is>
+      </c>
+      <c r="O300" t="inlineStr">
+        <is>
+          <t>-37.57968560362057,178.29366457485233</t>
+        </is>
+      </c>
+      <c r="P300" t="inlineStr">
+        <is>
+          <t>-37.58040349985076,178.29384084588224</t>
+        </is>
+      </c>
+      <c r="Q300" t="inlineStr">
+        <is>
+          <t>-37.58111416340171,178.2940553448037</t>
+        </is>
+      </c>
+      <c r="R300" t="inlineStr">
+        <is>
+          <t>-37.581812493832295,178.29425158519544</t>
+        </is>
+      </c>
+      <c r="S300" t="inlineStr">
+        <is>
+          <t>-37.582503086299845,178.29447673359743</t>
+        </is>
+      </c>
+      <c r="T300" t="inlineStr">
+        <is>
+          <t>-37.58318067829413,178.2947504663337</t>
+        </is>
+      </c>
+      <c r="U300" t="inlineStr">
+        <is>
+          <t>-37.58386541369294,178.29502270636428</t>
+        </is>
+      </c>
+      <c r="V300" t="inlineStr">
+        <is>
+          <t>-37.58453741668307,178.29536344313036</t>
+        </is>
+      </c>
+      <c r="W300" t="inlineStr">
+        <is>
+          <t>-37.58521216238311,178.2956857271678</t>
+        </is>
+      </c>
+      <c r="X300" t="inlineStr">
+        <is>
+          <t>-37.58587824561678,178.2960085300206</t>
+        </is>
+      </c>
+      <c r="Y300" t="inlineStr">
+        <is>
+          <t>-37.586527465624584,178.29637616586828</t>
+        </is>
+      </c>
+      <c r="Z300" t="inlineStr">
+        <is>
+          <t>-37.587187508689055,178.29674303227225</t>
+        </is>
+      </c>
+      <c r="AA300" t="inlineStr">
+        <is>
+          <t>-37.587822281101715,178.2971745149184</t>
+        </is>
+      </c>
+      <c r="AB300" t="inlineStr">
+        <is>
+          <t>-37.58846297606607,178.2975685658629</t>
+        </is>
+      </c>
+      <c r="AC300" t="inlineStr">
+        <is>
+          <t>-37.5890979936694,178.29801588543353</t>
+        </is>
+      </c>
+      <c r="AD300" t="inlineStr">
+        <is>
+          <t>-37.5897421893745,178.29848319733154</t>
+        </is>
+      </c>
+      <c r="AE300" t="inlineStr">
+        <is>
+          <t>-37.590345356533156,178.29900686544067</t>
+        </is>
+      </c>
+      <c r="AF300" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-31 21:53:47+00:00</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>-37.570455833798974,178.29460192138268</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>-37.571138345440765,178.29432572266802</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>-37.571818793504534,178.2940359940165</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>-37.57250951104665,178.2938138489715</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>-37.57319968876989,178.29358819587347</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>-37.573933953828764,178.29338283016608</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>-37.57468923962765,178.29321909853317</t>
+        </is>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>-37.57540763847282,178.2929595569206</t>
+        </is>
+      </c>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>-37.57612861080605,178.29249592264085</t>
+        </is>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>-37.576830441723104,178.29315366008635</t>
+        </is>
+      </c>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>-37.577553407176055,178.29328328500057</t>
+        </is>
+      </c>
+      <c r="M301" t="inlineStr">
+        <is>
+          <t>-37.57827364804203,178.29336645228906</t>
+        </is>
+      </c>
+      <c r="N301" t="inlineStr">
+        <is>
+          <t>-37.57898170520403,178.29345393972272</t>
+        </is>
+      </c>
+      <c r="O301" t="inlineStr">
+        <is>
+          <t>-37.57968983049836,178.29361800207326</t>
+        </is>
+      </c>
+      <c r="P301" t="inlineStr">
+        <is>
+          <t>-37.580411446819596,178.2937980701399</t>
+        </is>
+      </c>
+      <c r="Q301" t="inlineStr">
+        <is>
+          <t>-37.58113502017937,178.29397736322096</t>
+        </is>
+      </c>
+      <c r="R301" t="inlineStr">
+        <is>
+          <t>-37.581822497508234,178.29421418227318</t>
+        </is>
+      </c>
+      <c r="S301" t="inlineStr">
+        <is>
+          <t>-37.58251263185118,178.29444104348906</t>
+        </is>
+      </c>
+      <c r="T301" t="inlineStr">
+        <is>
+          <t>-37.58319533218637,178.29469567647973</t>
+        </is>
+      </c>
+      <c r="U301" t="inlineStr">
+        <is>
+          <t>-37.583873617442705,178.29499439761233</t>
+        </is>
+      </c>
+      <c r="V301" t="inlineStr">
+        <is>
+          <t>-37.58456169622412,178.29529298579857</t>
+        </is>
+      </c>
+      <c r="W301" t="inlineStr">
+        <is>
+          <t>-37.58522604570445,178.29564895251602</t>
+        </is>
+      </c>
+      <c r="X301" t="inlineStr">
+        <is>
+          <t>-37.58589347754088,178.2959681830678</t>
+        </is>
+      </c>
+      <c r="Y301" t="inlineStr">
+        <is>
+          <t>-37.58654355293661,178.2963335779033</t>
+        </is>
+      </c>
+      <c r="Z301" t="inlineStr">
+        <is>
+          <t>-37.58718760537037,178.29674279836445</t>
+        </is>
+      </c>
+      <c r="AA301" t="inlineStr">
+        <is>
+          <t>-37.58783419939666,178.2971480319085</t>
+        </is>
+      </c>
+      <c r="AB301" t="inlineStr">
+        <is>
+          <t>-37.588477195494775,178.2975369695957</t>
+        </is>
+      </c>
+      <c r="AC301" t="inlineStr">
+        <is>
+          <t>-37.589128468433366,178.29795719985736</t>
+        </is>
+      </c>
+      <c r="AD301" t="inlineStr">
+        <is>
+          <t>-37.58976864437654,178.29844277078274</t>
+        </is>
+      </c>
+      <c r="AE301" t="inlineStr">
+        <is>
+          <t>-37.590407286582035,178.29892062232943</t>
+        </is>
+      </c>
+      <c r="AF301" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-08 21:53:45+00:00</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>-37.57046274915768,178.29464740309203</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>-37.57114937636333,178.29439827220884</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>-37.57183722429701,178.29415721213394</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>-37.572523156517214,178.29390359463386</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>-37.57320608143723,178.29363024027464</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr"/>
+      <c r="H302" t="inlineStr"/>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="inlineStr"/>
+      <c r="M302" t="inlineStr"/>
+      <c r="N302" t="inlineStr"/>
+      <c r="O302" t="inlineStr"/>
+      <c r="P302" t="inlineStr"/>
+      <c r="Q302" t="inlineStr"/>
+      <c r="R302" t="inlineStr">
+        <is>
+          <t>-37.581812073830385,178.2942531555469</t>
+        </is>
+      </c>
+      <c r="S302" t="inlineStr">
+        <is>
+          <t>-37.58250166401182,178.29448205142268</t>
+        </is>
+      </c>
+      <c r="T302" t="inlineStr">
+        <is>
+          <t>-37.583185059736785,178.29473408444525</t>
+        </is>
+      </c>
+      <c r="U302" t="inlineStr">
+        <is>
+          <t>-37.58386049231883,178.29503968857958</t>
+        </is>
+      </c>
+      <c r="V302" t="inlineStr">
+        <is>
+          <t>-37.58452584331942,178.29539702807034</t>
+        </is>
+      </c>
+      <c r="W302" t="inlineStr">
+        <is>
+          <t>-37.58521240640088,178.29568508080496</t>
+        </is>
+      </c>
+      <c r="X302" t="inlineStr">
+        <is>
+          <t>-37.58587629346371,178.296013700961</t>
+        </is>
+      </c>
+      <c r="Y302" t="inlineStr">
+        <is>
+          <t>-37.58652050130462,178.29639460250513</t>
+        </is>
+      </c>
+      <c r="Z302" t="inlineStr">
+        <is>
+          <t>-37.58718557506264,178.29674771042855</t>
+        </is>
+      </c>
+      <c r="AA302" t="inlineStr">
+        <is>
+          <t>-37.58782304812087,178.29717281056654</t>
+        </is>
+      </c>
+      <c r="AB302" t="inlineStr">
+        <is>
+          <t>-37.58845998172482,178.29757521943205</t>
+        </is>
+      </c>
+      <c r="AC302" t="inlineStr">
+        <is>
+          <t>-37.589107393196336,178.29799778467546</t>
+        </is>
+      </c>
+      <c r="AD302" t="inlineStr">
+        <is>
+          <t>-37.58975813850664,178.29845882507038</t>
+        </is>
+      </c>
+      <c r="AE302" t="inlineStr">
+        <is>
+          <t>-37.5903648288719,178.29897974849752</t>
+        </is>
+      </c>
+      <c r="AF302" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-25 21:53:31+00:00</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>-37.57047388116018,178.2947206175645</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>-37.57116343200774,178.29449071558224</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>-37.571846551688765,178.2942185581224</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>-37.57253038122252,178.29395111140383</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>-37.57321929402475,178.29371713945017</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>-37.573940791483025,178.29348385539603</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>-37.5746874628881,178.29331989998272</t>
+        </is>
+      </c>
+      <c r="I303" t="inlineStr">
+        <is>
+          <t>-37.57540197555017,178.29324258705097</t>
+        </is>
+      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>-37.57682629914665,178.2933194970233</t>
+        </is>
+      </c>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>-37.57754749527781,178.29339678052983</t>
+        </is>
+      </c>
+      <c r="M303" t="inlineStr">
+        <is>
+          <t>-37.57827294154263,178.2933759613935</t>
+        </is>
+      </c>
+      <c r="N303" t="inlineStr">
+        <is>
+          <t>-37.5789726241097,178.29357616484108</t>
+        </is>
+      </c>
+      <c r="O303" t="inlineStr">
+        <is>
+          <t>-37.57968480916923,178.2936733282895</t>
+        </is>
+      </c>
+      <c r="P303" t="inlineStr">
+        <is>
+          <t>-37.58038511504889,178.293939804465</t>
+        </is>
+      </c>
+      <c r="Q303" t="inlineStr">
+        <is>
+          <t>-37.5811234702078,178.294020547536</t>
+        </is>
+      </c>
+      <c r="R303" t="inlineStr">
+        <is>
+          <t>-37.58180688107793,178.29427257079954</t>
+        </is>
+      </c>
+      <c r="S303" t="inlineStr">
+        <is>
+          <t>-37.58249821806475,178.2944949355487</t>
+        </is>
+      </c>
+      <c r="T303" t="inlineStr">
+        <is>
+          <t>-37.5831886393452,178.29472070054783</t>
+        </is>
+      </c>
+      <c r="U303" t="inlineStr">
+        <is>
+          <t>-37.58385926197494,178.29504393413302</t>
+        </is>
+      </c>
+      <c r="V303" t="inlineStr">
+        <is>
+          <t>-37.5845316657226,178.29538013194454</t>
+        </is>
+      </c>
+      <c r="W303" t="inlineStr">
+        <is>
+          <t>-37.58520788565017,178.2956970555266</t>
+        </is>
+      </c>
+      <c r="X303" t="inlineStr">
+        <is>
+          <t>-37.5858604835848,178.29605557876346</t>
+        </is>
+      </c>
+      <c r="Y303" t="inlineStr">
+        <is>
+          <t>-37.58651277887295,178.29641504607778</t>
+        </is>
+      </c>
+      <c r="Z303" t="inlineStr">
+        <is>
+          <t>-37.58717300648687,178.29677811843823</t>
+        </is>
+      </c>
+      <c r="AA303" t="inlineStr">
+        <is>
+          <t>-37.587830556057064,178.29715612758204</t>
+        </is>
+      </c>
+      <c r="AB303" t="inlineStr">
+        <is>
+          <t>-37.58845589584976,178.2975842984393</t>
+        </is>
+      </c>
+      <c r="AC303" t="inlineStr">
+        <is>
+          <t>-37.58909185286214,178.29802771083908</t>
+        </is>
+      </c>
+      <c r="AD303" t="inlineStr">
+        <is>
+          <t>-37.58974435906576,178.29847988177397</t>
+        </is>
+      </c>
+      <c r="AE303" t="inlineStr">
+        <is>
+          <t>-37.59035926821486,178.29898749220334</t>
+        </is>
+      </c>
+      <c r="AF303" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0209/nzd0209.xlsx
+++ b/data/nzd0209/nzd0209.xlsx
@@ -31946,7 +31946,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W31"/>
+  <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32037,35 +32037,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -32124,27 +32129,28 @@
       <c r="P2" t="n">
         <v>395.1233136429228</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (178.29089651484233 -37.56989237311482, 178.30107755904334 -37.57144024161918)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>178.2908965148423</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-37.56989237311482</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>178.3010775590433</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-37.57144024161918</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>178.2959870369428</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-37.570666307367</v>
       </c>
     </row>
@@ -32201,27 +32207,28 @@
       <c r="P3" t="n">
         <v>383.1764810188186</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (178.2906952343792 -37.570586278942486, 178.30087634080516 -37.57213414835927)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>178.2906952343792</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-37.57058627894249</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>178.3008763408052</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-37.57213414835927</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>178.2957857875922</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-37.57136021365088</v>
       </c>
     </row>
@@ -32278,27 +32285,28 @@
       <c r="P4" t="n">
         <v>366.5849695461432</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (178.2904939539157 -37.571280178304924, 178.30067512256798 -37.57282804863469)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>178.2904939539157</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-37.57128017830492</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>178.300675122568</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-37.57282804863469</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>178.2955845382418</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-37.5720541134698</v>
       </c>
     </row>
@@ -32355,27 +32363,28 @@
       <c r="P5" t="n">
         <v>352.8186504427166</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (178.29029267345172 -37.5719740712021, 178.30047390433157 -37.57352194244541)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>178.2902926734517</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-37.5719740712021</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>178.3004739043316</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-37.57352194244541</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>178.2953832888916</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-37.57274800682376</v>
       </c>
     </row>
@@ -32432,27 +32441,28 @@
       <c r="P6" t="n">
         <v>343.1565456114874</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (178.29009139298722 -37.57266795763408, 178.3002726860961 -37.57421582979116)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>178.2900913929872</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-37.57266795763408</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>178.3002726860961</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-37.57421582979116</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>178.2951820395417</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-37.57344189371262</v>
       </c>
     </row>
@@ -32509,27 +32519,28 @@
       <c r="P7" t="n">
         <v>339.5387589148807</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (178.28983021666133 -37.57369344704098, 178.30015884967196 -37.57439237574499)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>178.2898302166613</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-37.57369344704098</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>178.300158849672</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-37.57439237574499</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>178.2949945331666</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-37.57404291139299</v>
       </c>
     </row>
@@ -32586,27 +32597,28 @@
       <c r="P8" t="n">
         <v>320.8506145198919</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (178.289798228077 -37.57474948509334, 178.3001617907547 -37.57456666476807)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>178.289798228077</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-37.57474948509334</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>178.3001617907547</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-37.57456666476807</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>178.2949800094158</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-37.57465807493071</v>
       </c>
     </row>
@@ -32663,27 +32675,28 @@
       <c r="P9" t="n">
         <v>313.7249742819201</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (178.28978785924932 -37.57547105181562, 178.30015075194507 -37.575263544307155)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>178.2897878592493</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-37.57547105181562</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>178.3001507519451</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-37.57526354430716</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>178.2949693055972</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-37.57536729806139</v>
       </c>
     </row>
@@ -32740,27 +32753,28 @@
       <c r="P10" t="n">
         <v>311.0431768993768</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (178.2897772700213 -37.57618296181849, 178.30014022734886 -37.575975449710356)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>178.2897772700213</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-37.57618296181849</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>178.3001402273489</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-37.57597544971036</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>178.2949587486851</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-37.57607920576442</v>
       </c>
     </row>
@@ -32811,27 +32825,28 @@
       <c r="P11" t="n">
         <v>309.2990557458139</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (178.28976725742936 -37.576914982268114, 178.30012844831458 -37.57665601074426)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>178.2897672574294</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-37.57691498226811</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>178.3001284483146</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-37.57665601074426</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>178.294947852872</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-37.57678549650619</v>
       </c>
     </row>
@@ -32888,27 +32903,28 @@
       <c r="P12" t="n">
         <v>310.2277819172285</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (178.28977381207562 -37.57773615875325, 178.30011799809188 -37.57719719593073)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>178.2897738120756</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-37.57773615875325</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>178.3001179980919</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-37.57719719593073</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>178.2949459050838</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-37.57746667734199</v>
       </c>
     </row>
@@ -32965,27 +32981,28 @@
       <c r="P13" t="n">
         <v>309.030493597947</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (178.2898326203382 -37.57853614792683, 178.30015406524217 -37.57776915009831)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>178.2898326203382</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-37.57853614792683</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>178.3001540652422</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-37.57776915009831</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>178.2949933427902</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-37.57815264901257</v>
       </c>
     </row>
@@ -33036,27 +33053,28 @@
       <c r="P14" t="n">
         <v>313.022721492842</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (178.28988312855307 -37.57924695305771, 178.30020463636794 -37.57847994906437)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>178.2898831285531</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-37.57924695305771</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>178.3002046363679</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-37.57847994906437</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>178.2950438824605</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-37.57886345106104</v>
       </c>
     </row>
@@ -33113,27 +33131,28 @@
       <c r="P15" t="n">
         <v>318.4796771628711</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (178.28994175899678 -37.58002342181512, 178.30024139695942 -37.57908851247811)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>178.2899417589968</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-37.58002342181512</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>178.3002413969594</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-37.57908851247811</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>178.2950915779781</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-37.57955596714662</v>
       </c>
     </row>
@@ -33190,27 +33209,28 @@
       <c r="P16" t="n">
         <v>323.855209465496</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (178.2901063969574 -37.58109722999258, 178.30020090342032 -37.57922172642837)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>178.2901063969574</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-37.58109722999258</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>178.3002009034203</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-37.57922172642837</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>178.2951536501889</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-37.58015947821048</v>
       </c>
     </row>
@@ -33267,27 +33287,28 @@
       <c r="P17" t="n">
         <v>317.4459321364772</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (178.29046457199382 -37.58207447938484, 178.30028979658215 -37.579446511394714)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>178.2904645719938</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-37.58207447938484</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>178.3002897965821</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-37.57944651139471</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>178.295377184288</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-37.58076049538978</v>
       </c>
     </row>
@@ -33344,27 +33365,28 @@
       <c r="P18" t="n">
         <v>313.2124957005491</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (178.2907194573669 -37.582757123768765, 178.3005447306331 -37.58012914549876)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>178.2907194573669</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-37.58275712376876</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>178.3005447306331</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-37.58012914549876</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>178.295632094</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-37.58144313463376</v>
       </c>
     </row>
@@ -33421,27 +33443,28 @@
       <c r="P19" t="n">
         <v>310.7991042172592</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (178.29097434273962 -37.583439761893516, 178.30079966468472 -37.58081177334335)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>178.2909743427396</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-37.58343976189352</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>178.3007996646847</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-37.58081177334335</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>178.2958870037122</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-37.58212576761844</v>
       </c>
     </row>
@@ -33498,27 +33521,28 @@
       <c r="P20" t="n">
         <v>310.6738963294511</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
         <is>
           <t>LINESTRING (178.29122922811197 -37.58412239375908, 178.301054598737 -37.58149439492846)</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>178.291229228112</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>-37.58412239375908</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>178.301054598737</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>-37.58149439492846</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>178.2961419134245</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>-37.58280839434377</v>
       </c>
     </row>
@@ -33575,27 +33599,28 @@
       <c r="P21" t="n">
         <v>311.7762968780623</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
         <is>
           <t>LINESTRING (178.29151715965236 -37.58488124176404, 178.30125672940454 -37.582058617675905)</t>
         </is>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>178.2915171596524</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>-37.58488124176404</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>178.3012567294045</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>-37.58205861767591</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>178.2963869445285</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>-37.58346992971997</v>
       </c>
     </row>
@@ -33652,27 +33677,28 @@
       <c r="P22" t="n">
         <v>311.5506292327211</v>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
         <is>
           <t>LINESTRING (178.29190243032002 -37.58573001262851, 178.301413694433 -37.582452295477914)</t>
         </is>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>178.29190243032</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>-37.58573001262851</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>178.301413694433</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>-37.58245229547791</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>178.2966580623765</v>
       </c>
-      <c r="W22" t="n">
+      <c r="X22" t="n">
         <v>-37.58409115405321</v>
       </c>
     </row>
@@ -33729,27 +33755,28 @@
       <c r="P23" t="n">
         <v>307.5453494025598</v>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
         <is>
           <t>LINESTRING (178.29231454251791 -37.586484799346586, 178.3016786187102 -37.58294948582164)</t>
         </is>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>178.2923145425179</v>
       </c>
-      <c r="S23" t="n">
+      <c r="T23" t="n">
         <v>-37.58648479934659</v>
       </c>
-      <c r="T23" t="n">
+      <c r="U23" t="n">
         <v>178.3016786187102</v>
       </c>
-      <c r="U23" t="n">
+      <c r="V23" t="n">
         <v>-37.58294948582164</v>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
         <v>178.2969965806141</v>
       </c>
-      <c r="W23" t="n">
+      <c r="X23" t="n">
         <v>-37.58471714258411</v>
       </c>
     </row>
@@ -33806,27 +33833,28 @@
       <c r="P24" t="n">
         <v>304.571812597557</v>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
         <is>
           <t>LINESTRING (178.29266977643132 -37.58713863816309, 178.30203388971427 -37.58360331317008)</t>
         </is>
       </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>178.2926697764313</v>
       </c>
-      <c r="S24" t="n">
+      <c r="T24" t="n">
         <v>-37.58713863816309</v>
       </c>
-      <c r="T24" t="n">
+      <c r="U24" t="n">
         <v>178.3020338897143</v>
       </c>
-      <c r="U24" t="n">
+      <c r="V24" t="n">
         <v>-37.58360331317008</v>
       </c>
-      <c r="V24" t="n">
+      <c r="W24" t="n">
         <v>178.2973518330728</v>
       </c>
-      <c r="W24" t="n">
+      <c r="X24" t="n">
         <v>-37.58537097566659</v>
       </c>
     </row>
@@ -33883,27 +33911,28 @@
       <c r="P25" t="n">
         <v>305.4577788362944</v>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
         <is>
           <t>LINESTRING (178.29302539839153 -37.58779312913264, 178.3023885448777 -37.58425611403766)</t>
         </is>
       </c>
-      <c r="R25" t="n">
+      <c r="S25" t="n">
         <v>178.2930253983915</v>
       </c>
-      <c r="S25" t="n">
+      <c r="T25" t="n">
         <v>-37.58779312913264</v>
       </c>
-      <c r="T25" t="n">
+      <c r="U25" t="n">
         <v>178.3023885448777</v>
       </c>
-      <c r="U25" t="n">
+      <c r="V25" t="n">
         <v>-37.58425611403766</v>
       </c>
-      <c r="V25" t="n">
+      <c r="W25" t="n">
         <v>178.2977069716346</v>
       </c>
-      <c r="W25" t="n">
+      <c r="X25" t="n">
         <v>-37.58602462158515</v>
       </c>
     </row>
@@ -33960,27 +33989,28 @@
       <c r="P26" t="n">
         <v>306.832549069541</v>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
         <is>
           <t>LINESTRING (178.29344510138682 -37.58855057672616, 178.30264253719412 -37.584748842158405)</t>
         </is>
       </c>
-      <c r="R26" t="n">
+      <c r="S26" t="n">
         <v>178.2934451013868</v>
       </c>
-      <c r="S26" t="n">
+      <c r="T26" t="n">
         <v>-37.58855057672616</v>
       </c>
-      <c r="T26" t="n">
+      <c r="U26" t="n">
         <v>178.3026425371941</v>
       </c>
-      <c r="U26" t="n">
+      <c r="V26" t="n">
         <v>-37.5847488421584</v>
       </c>
-      <c r="V26" t="n">
+      <c r="W26" t="n">
         <v>178.2980438192905</v>
       </c>
-      <c r="W26" t="n">
+      <c r="X26" t="n">
         <v>-37.58664970944228</v>
       </c>
     </row>
@@ -34037,27 +34067,28 @@
       <c r="P27" t="n">
         <v>304.5607390079829</v>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
         <is>
           <t>LINESTRING (178.29392690333964 -37.589283751651465, 178.30294792874008 -37.58522381579369)</t>
         </is>
       </c>
-      <c r="R27" t="n">
+      <c r="S27" t="n">
         <v>178.2939269033396</v>
       </c>
-      <c r="S27" t="n">
+      <c r="T27" t="n">
         <v>-37.58928375165146</v>
       </c>
-      <c r="T27" t="n">
+      <c r="U27" t="n">
         <v>178.3029479287401</v>
       </c>
-      <c r="U27" t="n">
+      <c r="V27" t="n">
         <v>-37.58522381579369</v>
       </c>
-      <c r="V27" t="n">
+      <c r="W27" t="n">
         <v>178.2984374160399</v>
       </c>
-      <c r="W27" t="n">
+      <c r="X27" t="n">
         <v>-37.58725378372257</v>
       </c>
     </row>
@@ -34114,27 +34145,28 @@
       <c r="P28" t="n">
         <v>304.9115478667483</v>
       </c>
-      <c r="Q28" t="inlineStr">
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
         <is>
           <t>LINESTRING (178.29434040360437 -37.58991569328835, 178.30336145803352 -37.58585574559514)</t>
         </is>
       </c>
-      <c r="R28" t="n">
+      <c r="S28" t="n">
         <v>178.2943404036044</v>
       </c>
-      <c r="S28" t="n">
+      <c r="T28" t="n">
         <v>-37.58991569328835</v>
       </c>
-      <c r="T28" t="n">
+      <c r="U28" t="n">
         <v>178.3033614580335</v>
       </c>
-      <c r="U28" t="n">
+      <c r="V28" t="n">
         <v>-37.58585574559514</v>
       </c>
-      <c r="V28" t="n">
+      <c r="W28" t="n">
         <v>178.298850930819</v>
       </c>
-      <c r="W28" t="n">
+      <c r="X28" t="n">
         <v>-37.58788571944174</v>
       </c>
     </row>
@@ -34191,27 +34223,28 @@
       <c r="P29" t="n">
         <v>306.5925636226695</v>
       </c>
-      <c r="Q29" t="inlineStr">
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr">
         <is>
           <t>LINESTRING (178.29488665392026 -37.590722896345945, 178.30356519302083 -37.58621606612307)</t>
         </is>
       </c>
-      <c r="R29" t="n">
+      <c r="S29" t="n">
         <v>178.2948866539203</v>
       </c>
-      <c r="S29" t="n">
+      <c r="T29" t="n">
         <v>-37.59072289634594</v>
       </c>
-      <c r="T29" t="n">
+      <c r="U29" t="n">
         <v>178.3035651930208</v>
       </c>
-      <c r="U29" t="n">
+      <c r="V29" t="n">
         <v>-37.58621606612307</v>
       </c>
-      <c r="V29" t="n">
+      <c r="W29" t="n">
         <v>178.2992259234705</v>
       </c>
-      <c r="W29" t="n">
+      <c r="X29" t="n">
         <v>-37.58846948123451</v>
       </c>
     </row>
@@ -34268,27 +34301,28 @@
       <c r="P30" t="n">
         <v>299.2913161485957</v>
       </c>
-      <c r="Q30" t="inlineStr">
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr">
         <is>
           <t>LINESTRING (178.29565742732618 -37.5915912894421, 178.30366028623075 -37.586354063093424)</t>
         </is>
       </c>
-      <c r="R30" t="n">
+      <c r="S30" t="n">
         <v>178.2956574273262</v>
       </c>
-      <c r="S30" t="n">
+      <c r="T30" t="n">
         <v>-37.5915912894421</v>
       </c>
-      <c r="T30" t="n">
+      <c r="U30" t="n">
         <v>178.3036602862308</v>
       </c>
-      <c r="U30" t="n">
+      <c r="V30" t="n">
         <v>-37.58635406309342</v>
       </c>
-      <c r="V30" t="n">
+      <c r="W30" t="n">
         <v>178.2996588567785</v>
       </c>
-      <c r="W30" t="n">
+      <c r="X30" t="n">
         <v>-37.58897267626776</v>
       </c>
     </row>
@@ -34345,27 +34379,28 @@
       <c r="P31" t="n">
         <v>294.5213594552447</v>
       </c>
-      <c r="Q31" t="inlineStr">
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
         <is>
           <t>LINESTRING (178.29635554328954 -37.592249164448035, 178.30404740873175 -37.58672553555689)</t>
         </is>
       </c>
-      <c r="R31" t="n">
+      <c r="S31" t="n">
         <v>178.2963555432895</v>
       </c>
-      <c r="S31" t="n">
+      <c r="T31" t="n">
         <v>-37.59224916444803</v>
       </c>
-      <c r="T31" t="n">
+      <c r="U31" t="n">
         <v>178.3040474087317</v>
       </c>
-      <c r="U31" t="n">
+      <c r="V31" t="n">
         <v>-37.58672553555689</v>
       </c>
-      <c r="V31" t="n">
+      <c r="W31" t="n">
         <v>178.3002014760106</v>
       </c>
-      <c r="W31" t="n">
+      <c r="X31" t="n">
         <v>-37.58948735000246</v>
       </c>
     </row>

--- a/data/nzd0209/nzd0209.xlsx
+++ b/data/nzd0209/nzd0209.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF303"/>
+  <dimension ref="A1:AF306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28794,7 +28794,9 @@
       <c r="I303" t="n">
         <v>305.9742857142857</v>
       </c>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>308.85</v>
+      </c>
       <c r="K303" t="n">
         <v>314.66</v>
       </c>
@@ -28859,6 +28861,288 @@
         <v>313.8166666666667</v>
       </c>
       <c r="AF303" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-21 21:53:32+00:00</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr"/>
+      <c r="C304" t="inlineStr"/>
+      <c r="D304" t="inlineStr"/>
+      <c r="E304" t="inlineStr"/>
+      <c r="F304" t="inlineStr"/>
+      <c r="G304" t="inlineStr"/>
+      <c r="H304" t="inlineStr"/>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
+      <c r="L304" t="inlineStr"/>
+      <c r="M304" t="n">
+        <v>320.5833333333333</v>
+      </c>
+      <c r="N304" t="n">
+        <v>329.1970588235294</v>
+      </c>
+      <c r="O304" t="n">
+        <v>333.89</v>
+      </c>
+      <c r="P304" t="n">
+        <v>341.0233333333333</v>
+      </c>
+      <c r="Q304" t="n">
+        <v>338.16</v>
+      </c>
+      <c r="R304" t="n">
+        <v>334.38</v>
+      </c>
+      <c r="S304" t="n">
+        <v>333.08</v>
+      </c>
+      <c r="T304" t="n">
+        <v>332.3471428571428</v>
+      </c>
+      <c r="U304" t="n">
+        <v>336.9771428571428</v>
+      </c>
+      <c r="V304" t="n">
+        <v>341.4871428571428</v>
+      </c>
+      <c r="W304" t="n">
+        <v>340.65</v>
+      </c>
+      <c r="X304" t="n">
+        <v>333.57</v>
+      </c>
+      <c r="Y304" t="n">
+        <v>333.62</v>
+      </c>
+      <c r="Z304" t="n">
+        <v>342.58</v>
+      </c>
+      <c r="AA304" t="n">
+        <v>343.1</v>
+      </c>
+      <c r="AB304" t="n">
+        <v>333.52</v>
+      </c>
+      <c r="AC304" t="n">
+        <v>333.21</v>
+      </c>
+      <c r="AD304" t="n">
+        <v>332.16</v>
+      </c>
+      <c r="AE304" t="n">
+        <v>323.17</v>
+      </c>
+      <c r="AF304" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-29 21:53:19+00:00</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>340.87</v>
+      </c>
+      <c r="C305" t="n">
+        <v>333.2</v>
+      </c>
+      <c r="D305" t="n">
+        <v>331.5442857142857</v>
+      </c>
+      <c r="E305" t="n">
+        <v>327.66</v>
+      </c>
+      <c r="F305" t="n">
+        <v>320.66</v>
+      </c>
+      <c r="G305" t="n">
+        <v>321.2342857142857</v>
+      </c>
+      <c r="H305" t="n">
+        <v>312.0942857142857</v>
+      </c>
+      <c r="I305" t="n">
+        <v>305.4342857142857</v>
+      </c>
+      <c r="J305" t="n">
+        <v>301.41</v>
+      </c>
+      <c r="K305" t="n">
+        <v>307.62</v>
+      </c>
+      <c r="L305" t="n">
+        <v>318.93</v>
+      </c>
+      <c r="M305" t="n">
+        <v>322.0533333333333</v>
+      </c>
+      <c r="N305" t="n">
+        <v>330.0617647058824</v>
+      </c>
+      <c r="O305" t="n">
+        <v>335.09</v>
+      </c>
+      <c r="P305" t="n">
+        <v>345.1233333333333</v>
+      </c>
+      <c r="Q305" t="n">
+        <v>341.41</v>
+      </c>
+      <c r="R305" t="n">
+        <v>336.69</v>
+      </c>
+      <c r="S305" t="n">
+        <v>333.52</v>
+      </c>
+      <c r="T305" t="n">
+        <v>338.3342857142857</v>
+      </c>
+      <c r="U305" t="n">
+        <v>342.7342857142857</v>
+      </c>
+      <c r="V305" t="n">
+        <v>345.9942857142857</v>
+      </c>
+      <c r="W305" t="n">
+        <v>340.13</v>
+      </c>
+      <c r="X305" t="n">
+        <v>338.39</v>
+      </c>
+      <c r="Y305" t="n">
+        <v>340.91</v>
+      </c>
+      <c r="Z305" t="n">
+        <v>345.94</v>
+      </c>
+      <c r="AA305" t="n">
+        <v>341.78</v>
+      </c>
+      <c r="AB305" t="n">
+        <v>336.59</v>
+      </c>
+      <c r="AC305" t="n">
+        <v>336.77</v>
+      </c>
+      <c r="AD305" t="n">
+        <v>335.78</v>
+      </c>
+      <c r="AE305" t="n">
+        <v>325.72</v>
+      </c>
+      <c r="AF305" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-14 21:53:13+00:00</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>348.48</v>
+      </c>
+      <c r="C306" t="n">
+        <v>336.5666666666667</v>
+      </c>
+      <c r="D306" t="n">
+        <v>328.0571428571428</v>
+      </c>
+      <c r="E306" t="n">
+        <v>333.2766666666667</v>
+      </c>
+      <c r="F306" t="n">
+        <v>326.2766666666667</v>
+      </c>
+      <c r="G306" t="n">
+        <v>331.0171428571429</v>
+      </c>
+      <c r="H306" t="n">
+        <v>321.3871428571428</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>302.42</v>
+      </c>
+      <c r="K306" t="n">
+        <v>311.37</v>
+      </c>
+      <c r="L306" t="n">
+        <v>329.43</v>
+      </c>
+      <c r="M306" t="n">
+        <v>334.3844444444445</v>
+      </c>
+      <c r="N306" t="n">
+        <v>333.6611764705883</v>
+      </c>
+      <c r="O306" t="n">
+        <v>342.93</v>
+      </c>
+      <c r="P306" t="n">
+        <v>345.4644444444444</v>
+      </c>
+      <c r="Q306" t="n">
+        <v>347.7566666666667</v>
+      </c>
+      <c r="R306" t="n">
+        <v>336.1866666666667</v>
+      </c>
+      <c r="S306" t="n">
+        <v>336.8366666666667</v>
+      </c>
+      <c r="T306" t="n">
+        <v>336.8771428571428</v>
+      </c>
+      <c r="U306" t="n">
+        <v>340.2971428571428</v>
+      </c>
+      <c r="V306" t="n">
+        <v>343.3671428571428</v>
+      </c>
+      <c r="W306" t="n">
+        <v>340.3966666666667</v>
+      </c>
+      <c r="X306" t="n">
+        <v>334.5666666666667</v>
+      </c>
+      <c r="Y306" t="n">
+        <v>336.1466666666667</v>
+      </c>
+      <c r="Z306" t="n">
+        <v>337.7266666666667</v>
+      </c>
+      <c r="AA306" t="n">
+        <v>338.3266666666667</v>
+      </c>
+      <c r="AB306" t="n">
+        <v>339.4066666666667</v>
+      </c>
+      <c r="AC306" t="n">
+        <v>338.5966666666667</v>
+      </c>
+      <c r="AD306" t="n">
+        <v>335.3066666666667</v>
+      </c>
+      <c r="AE306" t="n">
+        <v>332.3666666666667</v>
+      </c>
+      <c r="AF306" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -28875,7 +29159,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B305"/>
+  <dimension ref="A1:B308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31933,6 +32217,36 @@
       </c>
       <c r="B305" t="n">
         <v>-0.43</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>2025-03-21 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>2025-03-29 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>2025-04-14 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>0.38</v>
       </c>
     </row>
   </sheetData>
@@ -32106,28 +32420,28 @@
         <v>0.0306</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.300105030229199</v>
+        <v>-2.285044656748357</v>
       </c>
       <c r="J2" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K2" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5373674709655953</v>
+        <v>0.5381490685239353</v>
       </c>
       <c r="M2" t="n">
-        <v>11.86878004418695</v>
+        <v>11.83597815380755</v>
       </c>
       <c r="N2" t="n">
-        <v>232.9510711209576</v>
+        <v>231.7761237049013</v>
       </c>
       <c r="O2" t="n">
-        <v>15.26273471960243</v>
+        <v>15.22419533850316</v>
       </c>
       <c r="P2" t="n">
-        <v>395.1233136429228</v>
+        <v>394.9725366329442</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32184,28 +32498,28 @@
         <v>0.0347</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.009023667266476</v>
+        <v>-2.003256022354426</v>
       </c>
       <c r="J3" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K3" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5308610798808144</v>
+        <v>0.5340997189235088</v>
       </c>
       <c r="M3" t="n">
-        <v>10.87289346183892</v>
+        <v>10.80902729666431</v>
       </c>
       <c r="N3" t="n">
-        <v>187.100529499703</v>
+        <v>185.6875415695852</v>
       </c>
       <c r="O3" t="n">
-        <v>13.67846955984853</v>
+        <v>13.62672160020836</v>
       </c>
       <c r="P3" t="n">
-        <v>383.1764810188186</v>
+        <v>383.1197959910972</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32262,28 +32576,28 @@
         <v>0.0392</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.493483179899357</v>
+        <v>-1.490514838557499</v>
       </c>
       <c r="J4" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K4" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4205957159787745</v>
+        <v>0.4246234625700359</v>
       </c>
       <c r="M4" t="n">
-        <v>9.630146067316737</v>
+        <v>9.561190449719408</v>
       </c>
       <c r="N4" t="n">
-        <v>158.7967822529483</v>
+        <v>157.4692977277394</v>
       </c>
       <c r="O4" t="n">
-        <v>12.60145952867954</v>
+        <v>12.54867713058789</v>
       </c>
       <c r="P4" t="n">
-        <v>366.5849695461432</v>
+        <v>366.5556082523478</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32340,28 +32654,28 @@
         <v>0.0351</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.093409408843716</v>
+        <v>-1.082691777584075</v>
       </c>
       <c r="J5" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K5" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L5" t="n">
-        <v>0.229640539524144</v>
+        <v>0.2295475569966039</v>
       </c>
       <c r="M5" t="n">
-        <v>10.50218888676014</v>
+        <v>10.45531700870584</v>
       </c>
       <c r="N5" t="n">
-        <v>203.0466151206306</v>
+        <v>201.6435694675599</v>
       </c>
       <c r="O5" t="n">
-        <v>14.249442624911</v>
+        <v>14.20012568492124</v>
       </c>
       <c r="P5" t="n">
-        <v>352.8186504427166</v>
+        <v>352.7110916421209</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -32418,28 +32732,28 @@
         <v>0.034</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.7130429270734741</v>
+        <v>-0.7155744139486201</v>
       </c>
       <c r="J6" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K6" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1474217726018265</v>
+        <v>0.1509565909569917</v>
       </c>
       <c r="M6" t="n">
-        <v>9.148233050228745</v>
+        <v>9.094938684938572</v>
       </c>
       <c r="N6" t="n">
-        <v>148.4010085675065</v>
+        <v>147.2057567938247</v>
       </c>
       <c r="O6" t="n">
-        <v>12.18199526216894</v>
+        <v>12.13283795300278</v>
       </c>
       <c r="P6" t="n">
-        <v>343.1565456114874</v>
+        <v>343.1817783688994</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -32496,28 +32810,28 @@
         <v>0.0375</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.4981499203639287</v>
+        <v>-0.499265796346741</v>
       </c>
       <c r="J7" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K7" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L7" t="n">
-        <v>0.103815147431051</v>
+        <v>0.1060931884195291</v>
       </c>
       <c r="M7" t="n">
-        <v>8.093674484138619</v>
+        <v>8.065791244511747</v>
       </c>
       <c r="N7" t="n">
-        <v>109.5282438412023</v>
+        <v>108.7974151987591</v>
       </c>
       <c r="O7" t="n">
-        <v>10.46557422415045</v>
+        <v>10.43059994433489</v>
       </c>
       <c r="P7" t="n">
-        <v>339.5387589148807</v>
+        <v>339.5496239826608</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -32574,28 +32888,28 @@
         <v>0.0363</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2909357224351123</v>
+        <v>-0.2847042254979776</v>
       </c>
       <c r="J8" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K8" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0302964658565531</v>
+        <v>0.02961029535222581</v>
       </c>
       <c r="M8" t="n">
-        <v>8.640834376954992</v>
+        <v>8.609609415098992</v>
       </c>
       <c r="N8" t="n">
-        <v>140.4246604537705</v>
+        <v>139.5192034219163</v>
       </c>
       <c r="O8" t="n">
-        <v>11.85009115803632</v>
+        <v>11.8118247287164</v>
       </c>
       <c r="P8" t="n">
-        <v>320.8506145198919</v>
+        <v>320.790512571768</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -32652,28 +32966,28 @@
         <v>0.0362</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.7047555885711841</v>
+        <v>-0.6946881439032037</v>
       </c>
       <c r="J9" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K9" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1257393604110773</v>
+        <v>0.1236813778166158</v>
       </c>
       <c r="M9" t="n">
-        <v>10.09261900001637</v>
+        <v>10.09375791240051</v>
       </c>
       <c r="N9" t="n">
-        <v>178.0109395325908</v>
+        <v>177.6375512665574</v>
       </c>
       <c r="O9" t="n">
-        <v>13.34207403414442</v>
+        <v>13.32807380181237</v>
       </c>
       <c r="P9" t="n">
-        <v>313.7249742819201</v>
+        <v>313.6299610220715</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -32730,28 +33044,28 @@
         <v>0.0436</v>
       </c>
       <c r="I10" t="n">
-        <v>-1.002828862044038</v>
+        <v>-0.9483591713813078</v>
       </c>
       <c r="J10" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K10" t="n">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1655550420811306</v>
+        <v>0.1528869263997449</v>
       </c>
       <c r="M10" t="n">
-        <v>11.46963188788753</v>
+        <v>11.51957960745764</v>
       </c>
       <c r="N10" t="n">
-        <v>259.9500957032147</v>
+        <v>261.1449958872025</v>
       </c>
       <c r="O10" t="n">
-        <v>16.12296795578329</v>
+        <v>16.15998130838036</v>
       </c>
       <c r="P10" t="n">
-        <v>311.0431768993768</v>
+        <v>310.5248764600065</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -32802,28 +33116,28 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>-0.5279557067445925</v>
+        <v>-0.4989420501733158</v>
       </c>
       <c r="J11" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K11" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05369499606665029</v>
+        <v>0.04911971971494877</v>
       </c>
       <c r="M11" t="n">
-        <v>11.30731341034795</v>
+        <v>11.30521755793978</v>
       </c>
       <c r="N11" t="n">
-        <v>250.1676834215252</v>
+        <v>249.5931886710136</v>
       </c>
       <c r="O11" t="n">
-        <v>15.81669002735797</v>
+        <v>15.79851855937808</v>
       </c>
       <c r="P11" t="n">
-        <v>309.2990557458139</v>
+        <v>309.0273627208378</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -32880,28 +33194,28 @@
         <v>0.0446</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.03353622435859487</v>
+        <v>-0.00590579401847454</v>
       </c>
       <c r="J12" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K12" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0004629100882486137</v>
+        <v>1.445288715717918e-05</v>
       </c>
       <c r="M12" t="n">
-        <v>8.584807620766098</v>
+        <v>8.621153882583483</v>
       </c>
       <c r="N12" t="n">
-        <v>128.1443996014691</v>
+        <v>129.0995519732516</v>
       </c>
       <c r="O12" t="n">
-        <v>11.32008832127511</v>
+        <v>11.36219837765789</v>
       </c>
       <c r="P12" t="n">
-        <v>310.2277819172285</v>
+        <v>309.9670944352801</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -32958,28 +33272,28 @@
         <v>0.051</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3824154343184641</v>
+        <v>0.4010907152037659</v>
       </c>
       <c r="J13" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K13" t="n">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L13" t="n">
-        <v>0.07930935668624761</v>
+        <v>0.08827359048374439</v>
       </c>
       <c r="M13" t="n">
-        <v>7.351024455534559</v>
+        <v>7.343124289726653</v>
       </c>
       <c r="N13" t="n">
-        <v>88.33919303238621</v>
+        <v>88.26770427836892</v>
       </c>
       <c r="O13" t="n">
-        <v>9.398893181241407</v>
+        <v>9.395089370430114</v>
       </c>
       <c r="P13" t="n">
-        <v>309.030493597947</v>
+        <v>308.8544398760937</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -33030,28 +33344,28 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>0.5527898167154005</v>
+        <v>0.5624180628114717</v>
       </c>
       <c r="J14" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K14" t="n">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2112458623076212</v>
+        <v>0.2218915013105576</v>
       </c>
       <c r="M14" t="n">
-        <v>6.004525398036875</v>
+        <v>5.979337322776562</v>
       </c>
       <c r="N14" t="n">
-        <v>60.03498050190012</v>
+        <v>59.539647987018</v>
       </c>
       <c r="O14" t="n">
-        <v>7.748224345093534</v>
+        <v>7.71619387956381</v>
       </c>
       <c r="P14" t="n">
-        <v>313.022721492842</v>
+        <v>312.9335290947869</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -33108,28 +33422,28 @@
         <v>0.0405</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7428906384268391</v>
+        <v>0.7422541945022404</v>
       </c>
       <c r="J15" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K15" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2973627871406711</v>
+        <v>0.3027012579749897</v>
       </c>
       <c r="M15" t="n">
-        <v>6.52374137254989</v>
+        <v>6.493011156831164</v>
       </c>
       <c r="N15" t="n">
-        <v>68.84545202495489</v>
+        <v>68.25367607489009</v>
       </c>
       <c r="O15" t="n">
-        <v>8.297315953063068</v>
+        <v>8.261578304106916</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4796771628711</v>
+        <v>318.4855208472095</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -33186,28 +33500,28 @@
         <v>0.0471</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8553909622527183</v>
+        <v>0.8505393125506562</v>
       </c>
       <c r="J16" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K16" t="n">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L16" t="n">
-        <v>0.4134992143090147</v>
+        <v>0.4176113575218218</v>
       </c>
       <c r="M16" t="n">
-        <v>5.639739739326949</v>
+        <v>5.596700877426083</v>
       </c>
       <c r="N16" t="n">
-        <v>52.87225101146068</v>
+        <v>52.38141138789193</v>
       </c>
       <c r="O16" t="n">
-        <v>7.271330759321892</v>
+        <v>7.237500354949347</v>
       </c>
       <c r="P16" t="n">
-        <v>323.855209465496</v>
+        <v>323.9012577848737</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -33264,28 +33578,28 @@
         <v>0.0308</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9064926363420964</v>
+        <v>0.9106007821739677</v>
       </c>
       <c r="J17" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K17" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2975449723213464</v>
+        <v>0.3051283167343473</v>
       </c>
       <c r="M17" t="n">
-        <v>8.076049387933342</v>
+        <v>8.027741710387446</v>
       </c>
       <c r="N17" t="n">
-        <v>98.78003810176381</v>
+        <v>97.92861391512449</v>
       </c>
       <c r="O17" t="n">
-        <v>9.938814723183233</v>
+        <v>9.895888738012594</v>
       </c>
       <c r="P17" t="n">
-        <v>317.4459321364772</v>
+        <v>317.4066809899986</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -33342,28 +33656,28 @@
         <v>0.0319</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9311793786417252</v>
+        <v>0.9279459663388379</v>
       </c>
       <c r="J18" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K18" t="n">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3141540493653578</v>
+        <v>0.3185806179473525</v>
       </c>
       <c r="M18" t="n">
-        <v>8.01614686587436</v>
+        <v>7.945336228291525</v>
       </c>
       <c r="N18" t="n">
-        <v>97.21433296054315</v>
+        <v>96.22759172514459</v>
       </c>
       <c r="O18" t="n">
-        <v>9.859732905132022</v>
+        <v>9.809566337262039</v>
       </c>
       <c r="P18" t="n">
-        <v>313.2124957005491</v>
+        <v>313.2434466597605</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -33420,28 +33734,28 @@
         <v>0.0353</v>
       </c>
       <c r="I19" t="n">
-        <v>1.01505310725777</v>
+        <v>1.009536688474062</v>
       </c>
       <c r="J19" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K19" t="n">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="L19" t="n">
-        <v>0.33618078878274</v>
+        <v>0.3395854157857151</v>
       </c>
       <c r="M19" t="n">
-        <v>8.129906548070947</v>
+        <v>8.070007877499156</v>
       </c>
       <c r="N19" t="n">
-        <v>104.4317991985694</v>
+        <v>103.4269382752486</v>
       </c>
       <c r="O19" t="n">
-        <v>10.21918779544487</v>
+        <v>10.16990355289806</v>
       </c>
       <c r="P19" t="n">
-        <v>310.7991042172592</v>
+        <v>310.8524880463638</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -33498,28 +33812,28 @@
         <v>0.0365</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9848452696287485</v>
+        <v>0.9845452851793962</v>
       </c>
       <c r="J20" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K20" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L20" t="n">
-        <v>0.4237444915491506</v>
+        <v>0.4300640200831038</v>
       </c>
       <c r="M20" t="n">
-        <v>6.560434126504314</v>
+        <v>6.515009801165511</v>
       </c>
       <c r="N20" t="n">
-        <v>66.46446282017202</v>
+        <v>65.82812137511478</v>
       </c>
       <c r="O20" t="n">
-        <v>8.152573999674704</v>
+        <v>8.113453110428061</v>
       </c>
       <c r="P20" t="n">
-        <v>310.6738963294511</v>
+        <v>310.6768030070527</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -33576,28 +33890,28 @@
         <v>0.0375</v>
       </c>
       <c r="I21" t="n">
-        <v>1.037095939876117</v>
+        <v>1.040779335736784</v>
       </c>
       <c r="J21" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K21" t="n">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="L21" t="n">
-        <v>0.4540565978230571</v>
+        <v>0.4622963721422403</v>
       </c>
       <c r="M21" t="n">
-        <v>6.345886120412792</v>
+        <v>6.30572843418108</v>
       </c>
       <c r="N21" t="n">
-        <v>65.05462710667342</v>
+        <v>64.45717566524701</v>
       </c>
       <c r="O21" t="n">
-        <v>8.065644866138939</v>
+        <v>8.028522632791603</v>
       </c>
       <c r="P21" t="n">
-        <v>311.7762968780623</v>
+        <v>311.7402179411338</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -33654,28 +33968,28 @@
         <v>0.0363</v>
       </c>
       <c r="I22" t="n">
-        <v>1.015845209897176</v>
+        <v>1.029649380609645</v>
       </c>
       <c r="J22" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K22" t="n">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L22" t="n">
-        <v>0.4180590991475684</v>
+        <v>0.4299381804500895</v>
       </c>
       <c r="M22" t="n">
-        <v>6.522145598213366</v>
+        <v>6.503302378526418</v>
       </c>
       <c r="N22" t="n">
-        <v>72.29927305405241</v>
+        <v>71.93902759939556</v>
       </c>
       <c r="O22" t="n">
-        <v>8.502897920947447</v>
+        <v>8.481687780117561</v>
       </c>
       <c r="P22" t="n">
-        <v>311.5506292327211</v>
+        <v>311.4153530987401</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -33732,28 +34046,28 @@
         <v>0.032</v>
       </c>
       <c r="I23" t="n">
-        <v>1.047428538736469</v>
+        <v>1.061437560106852</v>
       </c>
       <c r="J23" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K23" t="n">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L23" t="n">
-        <v>0.4194052193834269</v>
+        <v>0.4315561701497318</v>
       </c>
       <c r="M23" t="n">
-        <v>6.922661067713026</v>
+        <v>6.902495251237159</v>
       </c>
       <c r="N23" t="n">
-        <v>76.1858697744847</v>
+        <v>75.74205560938276</v>
       </c>
       <c r="O23" t="n">
-        <v>8.728451739826754</v>
+        <v>8.70299118748162</v>
       </c>
       <c r="P23" t="n">
-        <v>307.5453494025598</v>
+        <v>307.4085868994055</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -33810,28 +34124,28 @@
         <v>0.031</v>
       </c>
       <c r="I24" t="n">
-        <v>1.109371462562314</v>
+        <v>1.11520471464686</v>
       </c>
       <c r="J24" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K24" t="n">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="L24" t="n">
-        <v>0.4483081131527432</v>
+        <v>0.457547737475286</v>
       </c>
       <c r="M24" t="n">
-        <v>6.862385353998949</v>
+        <v>6.810412802860391</v>
       </c>
       <c r="N24" t="n">
-        <v>75.45393588852315</v>
+        <v>74.7574212483906</v>
       </c>
       <c r="O24" t="n">
-        <v>8.686422502303417</v>
+        <v>8.646237404119239</v>
       </c>
       <c r="P24" t="n">
-        <v>304.571812597557</v>
+        <v>304.5145410244415</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -33888,28 +34202,28 @@
         <v>0.0313</v>
       </c>
       <c r="I25" t="n">
-        <v>1.044877587568932</v>
+        <v>1.056133512042085</v>
       </c>
       <c r="J25" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K25" t="n">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="L25" t="n">
-        <v>0.4161527304889925</v>
+        <v>0.4274422850051059</v>
       </c>
       <c r="M25" t="n">
-        <v>6.878248648401857</v>
+        <v>6.854973849540809</v>
       </c>
       <c r="N25" t="n">
-        <v>75.92618794352906</v>
+        <v>75.42463241933103</v>
       </c>
       <c r="O25" t="n">
-        <v>8.713563446921647</v>
+        <v>8.684735598700229</v>
       </c>
       <c r="P25" t="n">
-        <v>305.4577788362944</v>
+        <v>305.3475660713231</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -33966,28 +34280,28 @@
         <v>0.0318</v>
       </c>
       <c r="I26" t="n">
-        <v>1.037533171709774</v>
+        <v>1.057867798334953</v>
       </c>
       <c r="J26" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K26" t="n">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L26" t="n">
-        <v>0.3876815015844567</v>
+        <v>0.4011690234456028</v>
       </c>
       <c r="M26" t="n">
-        <v>7.362190637311231</v>
+        <v>7.374323371828276</v>
       </c>
       <c r="N26" t="n">
-        <v>85.52830354831458</v>
+        <v>85.49569401385745</v>
       </c>
       <c r="O26" t="n">
-        <v>9.248151358423724</v>
+        <v>9.246388160457977</v>
       </c>
       <c r="P26" t="n">
-        <v>306.832549069541</v>
+        <v>306.6341618217581</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -34044,28 +34358,28 @@
         <v>0.0315</v>
       </c>
       <c r="I27" t="n">
-        <v>1.017384727172879</v>
+        <v>1.041936409975544</v>
       </c>
       <c r="J27" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K27" t="n">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L27" t="n">
-        <v>0.3828736967310657</v>
+        <v>0.3976332884983788</v>
       </c>
       <c r="M27" t="n">
-        <v>7.141465880019243</v>
+        <v>7.177998276150287</v>
       </c>
       <c r="N27" t="n">
-        <v>83.96212696261249</v>
+        <v>84.21054818113717</v>
       </c>
       <c r="O27" t="n">
-        <v>9.163085013390004</v>
+        <v>9.176630546182906</v>
       </c>
       <c r="P27" t="n">
-        <v>304.5607390079829</v>
+        <v>304.3213486242065</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -34122,28 +34436,28 @@
         <v>0.0315</v>
       </c>
       <c r="I28" t="n">
-        <v>0.9029105295434707</v>
+        <v>0.9222886950428277</v>
       </c>
       <c r="J28" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K28" t="n">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L28" t="n">
-        <v>0.3092451778659918</v>
+        <v>0.322483610760815</v>
       </c>
       <c r="M28" t="n">
-        <v>7.555872395835991</v>
+        <v>7.565394286371252</v>
       </c>
       <c r="N28" t="n">
-        <v>93.32023067251922</v>
+        <v>93.11179887272847</v>
       </c>
       <c r="O28" t="n">
-        <v>9.660239679869191</v>
+        <v>9.649445521517206</v>
       </c>
       <c r="P28" t="n">
-        <v>304.9115478667483</v>
+        <v>304.7237196085761</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -34200,28 +34514,28 @@
         <v>0.0316</v>
       </c>
       <c r="I29" t="n">
-        <v>0.8055801802677666</v>
+        <v>0.8262975461099277</v>
       </c>
       <c r="J29" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K29" t="n">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L29" t="n">
-        <v>0.2458577596380638</v>
+        <v>0.259018210314245</v>
       </c>
       <c r="M29" t="n">
-        <v>8.117767959088837</v>
+        <v>8.121138400413393</v>
       </c>
       <c r="N29" t="n">
-        <v>102.1227909719161</v>
+        <v>101.9008166893533</v>
       </c>
       <c r="O29" t="n">
-        <v>10.10558216887657</v>
+        <v>10.09459343853695</v>
       </c>
       <c r="P29" t="n">
-        <v>306.5925636226695</v>
+        <v>306.3922556784614</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -34278,28 +34592,28 @@
         <v>0.0311</v>
       </c>
       <c r="I30" t="n">
-        <v>0.8503480725266297</v>
+        <v>0.8811479309383122</v>
       </c>
       <c r="J30" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K30" t="n">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L30" t="n">
-        <v>0.2632561520980676</v>
+        <v>0.279198477034559</v>
       </c>
       <c r="M30" t="n">
-        <v>7.955720214765653</v>
+        <v>7.997384780032312</v>
       </c>
       <c r="N30" t="n">
-        <v>103.4058569938577</v>
+        <v>104.1317371401849</v>
       </c>
       <c r="O30" t="n">
-        <v>10.1688670457361</v>
+        <v>10.20449592778521</v>
       </c>
       <c r="P30" t="n">
-        <v>299.2913161485957</v>
+        <v>298.9914420536086</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -34356,28 +34670,28 @@
         <v>0.0306</v>
       </c>
       <c r="I31" t="n">
-        <v>0.7370603056519721</v>
+        <v>0.7704718191735809</v>
       </c>
       <c r="J31" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K31" t="n">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="L31" t="n">
-        <v>0.1829793390823475</v>
+        <v>0.1983972192286162</v>
       </c>
       <c r="M31" t="n">
-        <v>8.572706920356348</v>
+        <v>8.629433061922482</v>
       </c>
       <c r="N31" t="n">
-        <v>123.4076003976789</v>
+        <v>124.1828033666633</v>
       </c>
       <c r="O31" t="n">
-        <v>11.10889735291847</v>
+        <v>11.14373381621543</v>
       </c>
       <c r="P31" t="n">
-        <v>294.5213594552447</v>
+        <v>294.1956726844249</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -34415,7 +34729,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF303"/>
+  <dimension ref="A1:AF306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78321,7 +78635,11 @@
           <t>-37.57540197555017,178.29324258705097</t>
         </is>
       </c>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>-37.57611323407827,178.29326450052324</t>
+        </is>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>-37.57682629914665,178.2933194970233</t>
@@ -78428,6 +78746,444 @@
         </is>
       </c>
       <c r="AF303" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-21 21:53:32+00:00</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr"/>
+      <c r="C304" t="inlineStr"/>
+      <c r="D304" t="inlineStr"/>
+      <c r="E304" t="inlineStr"/>
+      <c r="F304" t="inlineStr"/>
+      <c r="G304" t="inlineStr"/>
+      <c r="H304" t="inlineStr"/>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
+      <c r="L304" t="inlineStr"/>
+      <c r="M304" t="inlineStr">
+        <is>
+          <t>-37.57826833860145,178.29343791426453</t>
+        </is>
+      </c>
+      <c r="N304" t="inlineStr">
+        <is>
+          <t>-37.578971943366646,178.2935853270924</t>
+        </is>
+      </c>
+      <c r="O304" t="inlineStr">
+        <is>
+          <t>-37.579683403599915,178.2936888151392</t>
+        </is>
+      </c>
+      <c r="P304" t="inlineStr">
+        <is>
+          <t>-37.58040040279944,178.29385751619716</t>
+        </is>
+      </c>
+      <c r="Q304" t="inlineStr">
+        <is>
+          <t>-37.58110616431347,178.2940852526013</t>
+        </is>
+      </c>
+      <c r="R304" t="inlineStr">
+        <is>
+          <t>-37.58179962649225,178.29429969504443</t>
+        </is>
+      </c>
+      <c r="S304" t="inlineStr">
+        <is>
+          <t>-37.58248598064642,178.29454069024578</t>
+        </is>
+      </c>
+      <c r="T304" t="inlineStr">
+        <is>
+          <t>-37.5831707044699,178.29478775768328</t>
+        </is>
+      </c>
+      <c r="U304" t="inlineStr">
+        <is>
+          <t>-37.58384479663541,178.2950938496995</t>
+        </is>
+      </c>
+      <c r="V304" t="inlineStr">
+        <is>
+          <t>-37.58451025906712,178.2954422522176</t>
+        </is>
+      </c>
+      <c r="W304" t="inlineStr">
+        <is>
+          <t>-37.58517234891489,178.29579118630923</t>
+        </is>
+      </c>
+      <c r="X304" t="inlineStr">
+        <is>
+          <t>-37.58585345839459,178.296074187334</t>
+        </is>
+      </c>
+      <c r="Y304" t="inlineStr">
+        <is>
+          <t>-37.58650713802645,178.29642997906723</t>
+        </is>
+      </c>
+      <c r="Z304" t="inlineStr">
+        <is>
+          <t>-37.58713114341013,178.29687940042209</t>
+        </is>
+      </c>
+      <c r="AA304" t="inlineStr">
+        <is>
+          <t>-37.587765536374135,178.29730060407618</t>
+        </is>
+      </c>
+      <c r="AB304" t="inlineStr">
+        <is>
+          <t>-37.58843986210296,178.29761992615792</t>
+        </is>
+      </c>
+      <c r="AC304" t="inlineStr">
+        <is>
+          <t>-37.589085990437184,178.2980390001577</t>
+        </is>
+      </c>
+      <c r="AD304" t="inlineStr">
+        <is>
+          <t>-37.589694779697375,178.29855564512368</t>
+        </is>
+      </c>
+      <c r="AE304" t="inlineStr">
+        <is>
+          <t>-37.59030293893596,178.29906593559815</t>
+        </is>
+      </c>
+      <c r="AF304" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-29 21:53:19+00:00</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>-37.57046737063113,178.29467779818918</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>-37.57114834186492,178.2943914683776</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>-37.5718394507299,178.29417185529832</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>-37.57252679417289,178.29392751941913</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>-37.57320887576449,178.29364861852383</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>-37.57393817895242,178.29344525552597</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>-37.57468742109146,178.29332227121202</t>
+        </is>
+      </c>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>-37.57540209754882,178.2932364899765</t>
+        </is>
+      </c>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>-37.57611491498682,178.29318049558123</t>
+        </is>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>-37.57682828445401,178.29324002173732</t>
+        </is>
+      </c>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>-37.57754897473024,178.2933683784738</t>
+        </is>
+      </c>
+      <c r="M305" t="inlineStr">
+        <is>
+          <t>-37.578267110340455,178.29345444585763</t>
+        </is>
+      </c>
+      <c r="N305" t="inlineStr">
+        <is>
+          <t>-37.57897122084437,178.29359505164769</t>
+        </is>
+      </c>
+      <c r="O305" t="inlineStr">
+        <is>
+          <t>-37.57968218136411,178.29370228196436</t>
+        </is>
+      </c>
+      <c r="P305" t="inlineStr">
+        <is>
+          <t>-37.58039202440147,178.29390261403498</t>
+        </is>
+      </c>
+      <c r="Q305" t="inlineStr">
+        <is>
+          <t>-37.5810968574894,178.29412004985076</t>
+        </is>
+      </c>
+      <c r="R305" t="inlineStr">
+        <is>
+          <t>-37.581793011450436,178.29432442806782</t>
+        </is>
+      </c>
+      <c r="S305" t="inlineStr">
+        <is>
+          <t>-37.58248472063048,178.29454540133688</t>
+        </is>
+      </c>
+      <c r="T305" t="inlineStr">
+        <is>
+          <t>-37.58315355912102,178.29485186268</t>
+        </is>
+      </c>
+      <c r="U305" t="inlineStr">
+        <is>
+          <t>-37.583827088431605,178.29515495529975</t>
+        </is>
+      </c>
+      <c r="V305" t="inlineStr">
+        <is>
+          <t>-37.58449415940525,178.2954889719682</t>
+        </is>
+      </c>
+      <c r="W305" t="inlineStr">
+        <is>
+          <t>-37.58517435243344,178.295785879336</t>
+        </is>
+      </c>
+      <c r="X305" t="inlineStr">
+        <is>
+          <t>-37.58583488722069,178.29612337925914</t>
+        </is>
+      </c>
+      <c r="Y305" t="inlineStr">
+        <is>
+          <t>-37.5864790365627,178.2965043718507</t>
+        </is>
+      </c>
+      <c r="Z305" t="inlineStr">
+        <is>
+          <t>-37.5871172212609,178.29691308308725</t>
+        </is>
+      </c>
+      <c r="AA305" t="inlineStr">
+        <is>
+          <t>-37.58777137753183,178.29728762480133</t>
+        </is>
+      </c>
+      <c r="AB305" t="inlineStr">
+        <is>
+          <t>-37.588426276924444,178.2976501130163</t>
+        </is>
+      </c>
+      <c r="AC305" t="inlineStr">
+        <is>
+          <t>-37.58906850140954,178.29807267889606</t>
+        </is>
+      </c>
+      <c r="AD305" t="inlineStr">
+        <is>
+          <t>-37.58967411051273,178.2985872301212</t>
+        </is>
+      </c>
+      <c r="AE305" t="inlineStr">
+        <is>
+          <t>-37.59028758187265,178.29908732160618</t>
+        </is>
+      </c>
+      <c r="AF305" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-14 21:53:13+00:00</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>-37.57048020614052,178.29476221670402</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>-37.57115402035659,178.29442881549647</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>-37.57183356899131,178.2941331713558</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>-37.57253626779648,178.2939898274076</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>-37.57321834946752,178.2937109270828</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>-37.57394563023433,178.29355534795312</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>-37.57468557147134,178.2934272021332</t>
+        </is>
+      </c>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>-37.576114686802484,178.29319189947856</t>
+        </is>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>-37.576827226946094,178.29328235587536</t>
+        </is>
+      </c>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>-37.57754281030036,178.29348672036113</t>
+        </is>
+      </c>
+      <c r="M306" t="inlineStr">
+        <is>
+          <t>-37.5782568069695,178.29359312127536</t>
+        </is>
+      </c>
+      <c r="N306" t="inlineStr">
+        <is>
+          <t>-37.57896821327545,178.29363553093293</t>
+        </is>
+      </c>
+      <c r="O306" t="inlineStr">
+        <is>
+          <t>-37.57967419605294,178.29379026520675</t>
+        </is>
+      </c>
+      <c r="P306" t="inlineStr">
+        <is>
+          <t>-37.58039132733619,178.29390636607675</t>
+        </is>
+      </c>
+      <c r="Q306" t="inlineStr">
+        <is>
+          <t>-37.581078682904604,178.29418800260504</t>
+        </is>
+      </c>
+      <c r="R306" t="inlineStr">
+        <is>
+          <t>-37.5817944528236,178.2943190389102</t>
+        </is>
+      </c>
+      <c r="S306" t="inlineStr">
+        <is>
+          <t>-37.58247522277735,178.2945809129647</t>
+        </is>
+      </c>
+      <c r="T306" t="inlineStr">
+        <is>
+          <t>-37.58315773193622,178.2948362608943</t>
+        </is>
+      </c>
+      <c r="U306" t="inlineStr">
+        <is>
+          <t>-37.5838345847617,178.2951290877717</t>
+        </is>
+      </c>
+      <c r="V306" t="inlineStr">
+        <is>
+          <t>-37.58450354364765,178.2954617397613</t>
+        </is>
+      </c>
+      <c r="W306" t="inlineStr">
+        <is>
+          <t>-37.58517332498806,178.2957886008608</t>
+        </is>
+      </c>
+      <c r="X306" t="inlineStr">
+        <is>
+          <t>-37.585849618298624,178.29608435911047</t>
+        </is>
+      </c>
+      <c r="Y306" t="inlineStr">
+        <is>
+          <t>-37.586497398246436,178.2964557631298</t>
+        </is>
+      </c>
+      <c r="Z306" t="inlineStr">
+        <is>
+          <t>-37.587151253165864,178.2968307476598</t>
+        </is>
+      </c>
+      <c r="AA306" t="inlineStr">
+        <is>
+          <t>-37.587786658938306,178.29725366891049</t>
+        </is>
+      </c>
+      <c r="AB306" t="inlineStr">
+        <is>
+          <t>-37.58841381277519,178.29767780887497</t>
+        </is>
+      </c>
+      <c r="AC306" t="inlineStr">
+        <is>
+          <t>-37.5890595276355,178.29808995974045</t>
+        </is>
+      </c>
+      <c r="AD306" t="inlineStr">
+        <is>
+          <t>-37.589676813113705,178.29858310022385</t>
+        </is>
+      </c>
+      <c r="AE306" t="inlineStr">
+        <is>
+          <t>-37.590247553119795,178.29914306496298</t>
+        </is>
+      </c>
+      <c r="AF306" t="inlineStr">
         <is>
           <t>L8</t>
         </is>

--- a/data/nzd0209/nzd0209.xlsx
+++ b/data/nzd0209/nzd0209.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF306"/>
+  <dimension ref="A1:AF308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29075,7 +29075,9 @@
       <c r="H306" t="n">
         <v>321.3871428571428</v>
       </c>
-      <c r="I306" t="inlineStr"/>
+      <c r="I306" t="n">
+        <v>151.5971428571429</v>
+      </c>
       <c r="J306" t="n">
         <v>302.42</v>
       </c>
@@ -29145,6 +29147,184 @@
       <c r="AF306" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:53:05+00:00</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>351.11</v>
+      </c>
+      <c r="C307" t="n">
+        <v>341.2</v>
+      </c>
+      <c r="D307" t="n">
+        <v>332.8542857142857</v>
+      </c>
+      <c r="E307" t="n">
+        <v>333.47</v>
+      </c>
+      <c r="F307" t="n">
+        <v>331.43</v>
+      </c>
+      <c r="G307" t="n">
+        <v>338.0142857142857</v>
+      </c>
+      <c r="H307" t="n">
+        <v>313.7042857142857</v>
+      </c>
+      <c r="I307" t="n">
+        <v>154.5042857142857</v>
+      </c>
+      <c r="J307" t="n">
+        <v>304.99</v>
+      </c>
+      <c r="K307" t="n">
+        <v>331.01</v>
+      </c>
+      <c r="L307" t="n">
+        <v>330.56</v>
+      </c>
+      <c r="M307" t="n">
+        <v>341.4666666666667</v>
+      </c>
+      <c r="N307" t="n">
+        <v>346.7641176470589</v>
+      </c>
+      <c r="O307" t="n">
+        <v>350.74</v>
+      </c>
+      <c r="P307" t="n">
+        <v>358.9166666666667</v>
+      </c>
+      <c r="Q307" t="n">
+        <v>354.66</v>
+      </c>
+      <c r="R307" t="n">
+        <v>345.6</v>
+      </c>
+      <c r="S307" t="n">
+        <v>345.06</v>
+      </c>
+      <c r="T307" t="n">
+        <v>345.1942857142857</v>
+      </c>
+      <c r="U307" t="n">
+        <v>350.4042857142857</v>
+      </c>
+      <c r="V307" t="n">
+        <v>350.8342857142857</v>
+      </c>
+      <c r="W307" t="n">
+        <v>350.14</v>
+      </c>
+      <c r="X307" t="n">
+        <v>346.47</v>
+      </c>
+      <c r="Y307" t="n">
+        <v>341.83</v>
+      </c>
+      <c r="Z307" t="n">
+        <v>347.68</v>
+      </c>
+      <c r="AA307" t="n">
+        <v>345.48</v>
+      </c>
+      <c r="AB307" t="n">
+        <v>343.12</v>
+      </c>
+      <c r="AC307" t="n">
+        <v>341.19</v>
+      </c>
+      <c r="AD307" t="n">
+        <v>336.07</v>
+      </c>
+      <c r="AE307" t="n">
+        <v>328.47</v>
+      </c>
+      <c r="AF307" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-24 21:53:09+00:00</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>353.09</v>
+      </c>
+      <c r="C308" t="inlineStr"/>
+      <c r="D308" t="inlineStr"/>
+      <c r="E308" t="inlineStr"/>
+      <c r="F308" t="inlineStr"/>
+      <c r="G308" t="inlineStr"/>
+      <c r="H308" t="inlineStr"/>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
+      <c r="L308" t="inlineStr"/>
+      <c r="M308" t="inlineStr"/>
+      <c r="N308" t="inlineStr"/>
+      <c r="O308" t="inlineStr"/>
+      <c r="P308" t="n">
+        <v>355.4677777777778</v>
+      </c>
+      <c r="Q308" t="n">
+        <v>340.3466666666667</v>
+      </c>
+      <c r="R308" t="n">
+        <v>332.9866666666667</v>
+      </c>
+      <c r="S308" t="n">
+        <v>329.8366666666667</v>
+      </c>
+      <c r="T308" t="n">
+        <v>336.0114285714285</v>
+      </c>
+      <c r="U308" t="n">
+        <v>340.8814285714286</v>
+      </c>
+      <c r="V308" t="n">
+        <v>336.2314285714286</v>
+      </c>
+      <c r="W308" t="n">
+        <v>335.6766666666667</v>
+      </c>
+      <c r="X308" t="n">
+        <v>337.8866666666667</v>
+      </c>
+      <c r="Y308" t="n">
+        <v>325.6366666666667</v>
+      </c>
+      <c r="Z308" t="n">
+        <v>334.3366666666667</v>
+      </c>
+      <c r="AA308" t="n">
+        <v>325.7766666666667</v>
+      </c>
+      <c r="AB308" t="n">
+        <v>330.9266666666667</v>
+      </c>
+      <c r="AC308" t="n">
+        <v>329.2766666666667</v>
+      </c>
+      <c r="AD308" t="n">
+        <v>320.2066666666667</v>
+      </c>
+      <c r="AE308" t="n">
+        <v>316.8966666666667</v>
+      </c>
+      <c r="AF308" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -29159,7 +29339,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B308"/>
+  <dimension ref="A1:B310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32247,6 +32427,26 @@
       </c>
       <c r="B308" t="n">
         <v>0.38</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>2025-05-24 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>-0.82</v>
       </c>
     </row>
   </sheetData>
@@ -32420,28 +32620,28 @@
         <v>0.0306</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.285044656748357</v>
+        <v>-2.257534531619924</v>
       </c>
       <c r="J2" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K2" t="n">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5381490685239353</v>
+        <v>0.5346650240668825</v>
       </c>
       <c r="M2" t="n">
-        <v>11.83597815380755</v>
+        <v>11.85949140562313</v>
       </c>
       <c r="N2" t="n">
-        <v>231.7761237049013</v>
+        <v>231.9647544954348</v>
       </c>
       <c r="O2" t="n">
-        <v>15.22419533850316</v>
+        <v>15.2303891774122</v>
       </c>
       <c r="P2" t="n">
-        <v>394.9725366329442</v>
+        <v>394.6958253900955</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32498,28 +32698,28 @@
         <v>0.0347</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.003256022354426</v>
+        <v>-1.994893139166214</v>
       </c>
       <c r="J3" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K3" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5340997189235088</v>
+        <v>0.5338924298278254</v>
       </c>
       <c r="M3" t="n">
-        <v>10.80902729666431</v>
+        <v>10.80079184036604</v>
       </c>
       <c r="N3" t="n">
-        <v>185.6875415695852</v>
+        <v>185.3186847351332</v>
       </c>
       <c r="O3" t="n">
-        <v>13.62672160020836</v>
+        <v>13.61318055177163</v>
       </c>
       <c r="P3" t="n">
-        <v>383.1197959910972</v>
+        <v>383.0372559614678</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32576,28 +32776,28 @@
         <v>0.0392</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.490514838557499</v>
+        <v>-1.486136742923713</v>
       </c>
       <c r="J4" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K4" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4246234625700359</v>
+        <v>0.4255513151106262</v>
       </c>
       <c r="M4" t="n">
-        <v>9.561190449719408</v>
+        <v>9.539754519441093</v>
       </c>
       <c r="N4" t="n">
-        <v>157.4692977277394</v>
+        <v>156.8879655735347</v>
       </c>
       <c r="O4" t="n">
-        <v>12.54867713058789</v>
+        <v>12.52549262797814</v>
       </c>
       <c r="P4" t="n">
-        <v>366.5556082523478</v>
+        <v>366.5120577262226</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32654,28 +32854,28 @@
         <v>0.0351</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.082691777584075</v>
+        <v>-1.074635557346183</v>
       </c>
       <c r="J5" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K5" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2295475569966039</v>
+        <v>0.2284565158050272</v>
       </c>
       <c r="M5" t="n">
-        <v>10.45531700870584</v>
+        <v>10.44281544627695</v>
       </c>
       <c r="N5" t="n">
-        <v>201.6435694675599</v>
+        <v>201.0995729833777</v>
       </c>
       <c r="O5" t="n">
-        <v>14.20012568492124</v>
+        <v>14.18095811232011</v>
       </c>
       <c r="P5" t="n">
-        <v>352.7110916421209</v>
+        <v>352.629911042423</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -32732,28 +32932,28 @@
         <v>0.034</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.7155744139486201</v>
+        <v>-0.7092880260890384</v>
       </c>
       <c r="J6" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K6" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1509565909569917</v>
+        <v>0.1498850215545983</v>
       </c>
       <c r="M6" t="n">
-        <v>9.094938684938572</v>
+        <v>9.081706917855115</v>
       </c>
       <c r="N6" t="n">
-        <v>147.2057567938247</v>
+        <v>146.7653111493516</v>
       </c>
       <c r="O6" t="n">
-        <v>12.13283795300278</v>
+        <v>12.11467338186844</v>
       </c>
       <c r="P6" t="n">
-        <v>343.1817783688994</v>
+        <v>343.1187186482818</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -32810,28 +33010,28 @@
         <v>0.0375</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.499265796346741</v>
+        <v>-0.4886589635652334</v>
       </c>
       <c r="J7" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K7" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1060931884195291</v>
+        <v>0.1026162748293128</v>
       </c>
       <c r="M7" t="n">
-        <v>8.065791244511747</v>
+        <v>8.083999680386972</v>
       </c>
       <c r="N7" t="n">
-        <v>108.7974151987591</v>
+        <v>108.8754896585081</v>
       </c>
       <c r="O7" t="n">
-        <v>10.43059994433489</v>
+        <v>10.43434184117561</v>
       </c>
       <c r="P7" t="n">
-        <v>339.5496239826608</v>
+        <v>339.4451103166141</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -32888,28 +33088,28 @@
         <v>0.0363</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2847042254979776</v>
+        <v>-0.2844605353900069</v>
       </c>
       <c r="J8" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K8" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02961029535222581</v>
+        <v>0.02987019976007299</v>
       </c>
       <c r="M8" t="n">
-        <v>8.609609415098992</v>
+        <v>8.574771245370963</v>
       </c>
       <c r="N8" t="n">
-        <v>139.5192034219163</v>
+        <v>138.9357323082243</v>
       </c>
       <c r="O8" t="n">
-        <v>11.8118247287164</v>
+        <v>11.78710025019828</v>
       </c>
       <c r="P8" t="n">
-        <v>320.790512571768</v>
+        <v>320.7881546625752</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -32966,28 +33166,28 @@
         <v>0.0362</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.6946881439032037</v>
+        <v>-0.9798765642079831</v>
       </c>
       <c r="J9" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K9" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1236813778166158</v>
+        <v>0.1260700658483609</v>
       </c>
       <c r="M9" t="n">
-        <v>10.09375791240051</v>
+        <v>11.30978308298118</v>
       </c>
       <c r="N9" t="n">
-        <v>177.6375512665574</v>
+        <v>351.1115007288163</v>
       </c>
       <c r="O9" t="n">
-        <v>13.32807380181237</v>
+        <v>18.73796949321928</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6299610220715</v>
+        <v>316.3305539351662</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33044,28 +33244,28 @@
         <v>0.0436</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.9483591713813078</v>
+        <v>-0.9302275926138698</v>
       </c>
       <c r="J10" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K10" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1528869263997449</v>
+        <v>0.1486535910248814</v>
       </c>
       <c r="M10" t="n">
-        <v>11.51957960745764</v>
+        <v>11.53912759000936</v>
       </c>
       <c r="N10" t="n">
-        <v>261.1449958872025</v>
+        <v>261.5422578346287</v>
       </c>
       <c r="O10" t="n">
-        <v>16.15998130838036</v>
+        <v>16.17226817223325</v>
       </c>
       <c r="P10" t="n">
-        <v>310.5248764600065</v>
+        <v>310.3512823066893</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33116,28 +33316,28 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>-0.4989420501733158</v>
+        <v>-0.4625249949203186</v>
       </c>
       <c r="J11" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K11" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04911971971494877</v>
+        <v>0.04215425780592508</v>
       </c>
       <c r="M11" t="n">
-        <v>11.30521755793978</v>
+        <v>11.38059102484739</v>
       </c>
       <c r="N11" t="n">
-        <v>249.5931886710136</v>
+        <v>253.8511381032097</v>
       </c>
       <c r="O11" t="n">
-        <v>15.79851855937808</v>
+        <v>15.93270655297491</v>
       </c>
       <c r="P11" t="n">
-        <v>309.0273627208378</v>
+        <v>308.6849720782516</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33194,28 +33394,28 @@
         <v>0.0446</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.00590579401847454</v>
+        <v>0.01331254102714339</v>
       </c>
       <c r="J12" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K12" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L12" t="n">
-        <v>1.445288715717918e-05</v>
+        <v>7.322390441721893e-05</v>
       </c>
       <c r="M12" t="n">
-        <v>8.621153882583483</v>
+        <v>8.660377944436066</v>
       </c>
       <c r="N12" t="n">
-        <v>129.0995519732516</v>
+        <v>130.3485107069143</v>
       </c>
       <c r="O12" t="n">
-        <v>11.36219837765789</v>
+        <v>11.41702722721262</v>
       </c>
       <c r="P12" t="n">
-        <v>309.9670944352801</v>
+        <v>309.785018789448</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -33272,28 +33472,28 @@
         <v>0.051</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4010907152037659</v>
+        <v>0.4212860032554008</v>
       </c>
       <c r="J13" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K13" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L13" t="n">
-        <v>0.08827359048374439</v>
+        <v>0.09549670811211119</v>
       </c>
       <c r="M13" t="n">
-        <v>7.343124289726653</v>
+        <v>7.402586538125528</v>
       </c>
       <c r="N13" t="n">
-        <v>88.26770427836892</v>
+        <v>89.90562120014178</v>
       </c>
       <c r="O13" t="n">
-        <v>9.395089370430114</v>
+        <v>9.4818574762618</v>
       </c>
       <c r="P13" t="n">
-        <v>308.8544398760937</v>
+        <v>308.663291370403</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -33344,28 +33544,28 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>0.5624180628114717</v>
+        <v>0.5788842804747953</v>
       </c>
       <c r="J14" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K14" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2218915013105576</v>
+        <v>0.2296874999185404</v>
       </c>
       <c r="M14" t="n">
-        <v>5.979337322776562</v>
+        <v>6.034546465518661</v>
       </c>
       <c r="N14" t="n">
-        <v>59.539647987018</v>
+        <v>60.7196115023486</v>
       </c>
       <c r="O14" t="n">
-        <v>7.71619387956381</v>
+        <v>7.792278967179538</v>
       </c>
       <c r="P14" t="n">
-        <v>312.9335290947869</v>
+        <v>312.7803174003158</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -33422,28 +33622,28 @@
         <v>0.0405</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7422541945022404</v>
+        <v>0.7529377921039691</v>
       </c>
       <c r="J15" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K15" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3027012579749897</v>
+        <v>0.3088935260430438</v>
       </c>
       <c r="M15" t="n">
-        <v>6.493011156831164</v>
+        <v>6.525675634494949</v>
       </c>
       <c r="N15" t="n">
-        <v>68.25367607489009</v>
+        <v>68.62808700355372</v>
       </c>
       <c r="O15" t="n">
-        <v>8.261578304106916</v>
+        <v>8.284207083574971</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4855208472095</v>
+        <v>318.385223733427</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -33500,28 +33700,28 @@
         <v>0.0471</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8505393125506562</v>
+        <v>0.8688901382221081</v>
       </c>
       <c r="J16" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K16" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L16" t="n">
-        <v>0.4176113575218218</v>
+        <v>0.4285265348358448</v>
       </c>
       <c r="M16" t="n">
-        <v>5.596700877426083</v>
+        <v>5.648622943407092</v>
       </c>
       <c r="N16" t="n">
-        <v>52.38141138789193</v>
+        <v>52.92339440492981</v>
       </c>
       <c r="O16" t="n">
-        <v>7.237500354949347</v>
+        <v>7.274846692881563</v>
       </c>
       <c r="P16" t="n">
-        <v>323.9012577848737</v>
+        <v>323.7260314840402</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -33578,28 +33778,28 @@
         <v>0.0308</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9106007821739677</v>
+        <v>0.9209679677497944</v>
       </c>
       <c r="J17" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K17" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3051283167343473</v>
+        <v>0.312573491491737</v>
       </c>
       <c r="M17" t="n">
-        <v>8.027741710387446</v>
+        <v>8.024750268641656</v>
       </c>
       <c r="N17" t="n">
-        <v>97.92861391512449</v>
+        <v>97.89713757150295</v>
       </c>
       <c r="O17" t="n">
-        <v>9.895888738012594</v>
+        <v>9.894298235423417</v>
       </c>
       <c r="P17" t="n">
-        <v>317.4066809899986</v>
+        <v>317.3074015379329</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -33656,28 +33856,28 @@
         <v>0.0319</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9279459663388379</v>
+        <v>0.931115464550174</v>
       </c>
       <c r="J18" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K18" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3185806179473525</v>
+        <v>0.3233317118515473</v>
       </c>
       <c r="M18" t="n">
-        <v>7.945336228291525</v>
+        <v>7.935577430550277</v>
       </c>
       <c r="N18" t="n">
-        <v>96.22759172514459</v>
+        <v>95.86691421050493</v>
       </c>
       <c r="O18" t="n">
-        <v>9.809566337262039</v>
+        <v>9.791165109960353</v>
       </c>
       <c r="P18" t="n">
-        <v>313.2434466597605</v>
+        <v>313.2129712202189</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -33734,28 +33934,28 @@
         <v>0.0353</v>
       </c>
       <c r="I19" t="n">
-        <v>1.009536688474062</v>
+        <v>1.010304113893953</v>
       </c>
       <c r="J19" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K19" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3395854157857151</v>
+        <v>0.3430194405596744</v>
       </c>
       <c r="M19" t="n">
-        <v>8.070007877499156</v>
+        <v>8.066904756735525</v>
       </c>
       <c r="N19" t="n">
-        <v>103.4269382752486</v>
+        <v>103.1150903482522</v>
       </c>
       <c r="O19" t="n">
-        <v>10.16990355289806</v>
+        <v>10.15456007654946</v>
       </c>
       <c r="P19" t="n">
-        <v>310.8524880463638</v>
+        <v>310.8450653744462</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -33812,28 +34012,28 @@
         <v>0.0365</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9845452851793962</v>
+        <v>0.9914970907452532</v>
       </c>
       <c r="J20" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K20" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L20" t="n">
-        <v>0.4300640200831038</v>
+        <v>0.436868280632601</v>
       </c>
       <c r="M20" t="n">
-        <v>6.515009801165511</v>
+        <v>6.501291026553965</v>
       </c>
       <c r="N20" t="n">
-        <v>65.82812137511478</v>
+        <v>65.65284125714227</v>
       </c>
       <c r="O20" t="n">
-        <v>8.113453110428061</v>
+        <v>8.102644090489367</v>
       </c>
       <c r="P20" t="n">
-        <v>310.6768030070527</v>
+        <v>310.6082489562795</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -33890,28 +34090,28 @@
         <v>0.0375</v>
       </c>
       <c r="I21" t="n">
-        <v>1.040779335736784</v>
+        <v>1.051558167634075</v>
       </c>
       <c r="J21" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K21" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L21" t="n">
-        <v>0.4622963721422403</v>
+        <v>0.469995249671579</v>
       </c>
       <c r="M21" t="n">
-        <v>6.30572843418108</v>
+        <v>6.310356223945377</v>
       </c>
       <c r="N21" t="n">
-        <v>64.45717566524701</v>
+        <v>64.50091801807159</v>
       </c>
       <c r="O21" t="n">
-        <v>8.028522632791603</v>
+        <v>8.031246355209856</v>
       </c>
       <c r="P21" t="n">
-        <v>311.7402179411338</v>
+        <v>311.6341763387662</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -33968,28 +34168,28 @@
         <v>0.0363</v>
       </c>
       <c r="I22" t="n">
-        <v>1.029649380609645</v>
+        <v>1.038048474985655</v>
       </c>
       <c r="J22" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K22" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L22" t="n">
-        <v>0.4299381804500895</v>
+        <v>0.4363333051104902</v>
       </c>
       <c r="M22" t="n">
-        <v>6.503302378526418</v>
+        <v>6.501750110212398</v>
       </c>
       <c r="N22" t="n">
-        <v>71.93902759939556</v>
+        <v>72.0162479881288</v>
       </c>
       <c r="O22" t="n">
-        <v>8.481687780117561</v>
+        <v>8.486238742112361</v>
       </c>
       <c r="P22" t="n">
-        <v>311.4153530987401</v>
+        <v>311.3326589167837</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -34046,28 +34246,28 @@
         <v>0.032</v>
       </c>
       <c r="I23" t="n">
-        <v>1.061437560106852</v>
+        <v>1.073981683697881</v>
       </c>
       <c r="J23" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K23" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L23" t="n">
-        <v>0.4315561701497318</v>
+        <v>0.4391962046306406</v>
       </c>
       <c r="M23" t="n">
-        <v>6.902495251237159</v>
+        <v>6.901882707693723</v>
       </c>
       <c r="N23" t="n">
-        <v>75.74205560938276</v>
+        <v>76.02231620624411</v>
       </c>
       <c r="O23" t="n">
-        <v>8.70299118748162</v>
+        <v>8.719077715346051</v>
       </c>
       <c r="P23" t="n">
-        <v>307.4085868994055</v>
+        <v>307.2855244165966</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -34124,28 +34324,28 @@
         <v>0.031</v>
       </c>
       <c r="I24" t="n">
-        <v>1.11520471464686</v>
+        <v>1.129189189378144</v>
       </c>
       <c r="J24" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K24" t="n">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L24" t="n">
-        <v>0.457547737475286</v>
+        <v>0.4661083994184978</v>
       </c>
       <c r="M24" t="n">
-        <v>6.810412802860391</v>
+        <v>6.814736346482246</v>
       </c>
       <c r="N24" t="n">
-        <v>74.7574212483906</v>
+        <v>74.89945535867892</v>
       </c>
       <c r="O24" t="n">
-        <v>8.646237404119239</v>
+        <v>8.654447143444745</v>
       </c>
       <c r="P24" t="n">
-        <v>304.5145410244415</v>
+        <v>304.3765463091282</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -34202,28 +34402,28 @@
         <v>0.0313</v>
       </c>
       <c r="I25" t="n">
-        <v>1.056133512042085</v>
+        <v>1.057898320539604</v>
       </c>
       <c r="J25" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K25" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L25" t="n">
-        <v>0.4274422850051059</v>
+        <v>0.431363656928482</v>
       </c>
       <c r="M25" t="n">
-        <v>6.854973849540809</v>
+        <v>6.864115296748389</v>
       </c>
       <c r="N25" t="n">
-        <v>75.42463241933103</v>
+        <v>75.36413802360379</v>
       </c>
       <c r="O25" t="n">
-        <v>8.684735598700229</v>
+        <v>8.681252099991324</v>
       </c>
       <c r="P25" t="n">
-        <v>305.3475660713231</v>
+        <v>305.3302527851318</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -34280,28 +34480,28 @@
         <v>0.0318</v>
       </c>
       <c r="I26" t="n">
-        <v>1.057867798334953</v>
+        <v>1.068838571500255</v>
       </c>
       <c r="J26" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K26" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L26" t="n">
-        <v>0.4011690234456028</v>
+        <v>0.4087046097634012</v>
       </c>
       <c r="M26" t="n">
-        <v>7.374323371828276</v>
+        <v>7.371211962702258</v>
       </c>
       <c r="N26" t="n">
-        <v>85.49569401385745</v>
+        <v>85.54857468713296</v>
       </c>
       <c r="O26" t="n">
-        <v>9.246388160457977</v>
+        <v>9.249247249756758</v>
       </c>
       <c r="P26" t="n">
-        <v>306.6341618217581</v>
+        <v>306.5265716915809</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -34358,28 +34558,28 @@
         <v>0.0315</v>
       </c>
       <c r="I27" t="n">
-        <v>1.041936409975544</v>
+        <v>1.048764374581467</v>
       </c>
       <c r="J27" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K27" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L27" t="n">
-        <v>0.3976332884983788</v>
+        <v>0.4028408336129894</v>
       </c>
       <c r="M27" t="n">
-        <v>7.177998276150287</v>
+        <v>7.19769904947406</v>
       </c>
       <c r="N27" t="n">
-        <v>84.21054818113717</v>
+        <v>84.43331094671635</v>
       </c>
       <c r="O27" t="n">
-        <v>9.176630546182906</v>
+        <v>9.188760033144643</v>
       </c>
       <c r="P27" t="n">
-        <v>304.3213486242065</v>
+        <v>304.2544704837226</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -34436,28 +34636,28 @@
         <v>0.0315</v>
       </c>
       <c r="I28" t="n">
-        <v>0.9222886950428277</v>
+        <v>0.9351490788685136</v>
       </c>
       <c r="J28" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K28" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L28" t="n">
-        <v>0.322483610760815</v>
+        <v>0.3307182267004004</v>
       </c>
       <c r="M28" t="n">
-        <v>7.565394286371252</v>
+        <v>7.572716489037024</v>
       </c>
       <c r="N28" t="n">
-        <v>93.11179887272847</v>
+        <v>93.21053167561159</v>
       </c>
       <c r="O28" t="n">
-        <v>9.649445521517206</v>
+        <v>9.654560149256495</v>
       </c>
       <c r="P28" t="n">
-        <v>304.7237196085761</v>
+        <v>304.598465131308</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -34514,28 +34714,28 @@
         <v>0.0316</v>
       </c>
       <c r="I29" t="n">
-        <v>0.8262975461099277</v>
+        <v>0.8377629890910031</v>
       </c>
       <c r="J29" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K29" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L29" t="n">
-        <v>0.259018210314245</v>
+        <v>0.2666322146222286</v>
       </c>
       <c r="M29" t="n">
-        <v>8.121138400413393</v>
+        <v>8.113074578477987</v>
       </c>
       <c r="N29" t="n">
-        <v>101.9008166893533</v>
+        <v>101.8201723254816</v>
       </c>
       <c r="O29" t="n">
-        <v>10.09459343853695</v>
+        <v>10.090598214451</v>
       </c>
       <c r="P29" t="n">
-        <v>306.3922556784614</v>
+        <v>306.2808646733407</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -34592,28 +34792,28 @@
         <v>0.0311</v>
       </c>
       <c r="I30" t="n">
-        <v>0.8811479309383122</v>
+        <v>0.8908825758829308</v>
       </c>
       <c r="J30" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K30" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L30" t="n">
-        <v>0.279198477034559</v>
+        <v>0.2858537130866036</v>
       </c>
       <c r="M30" t="n">
-        <v>7.997384780032312</v>
+        <v>7.993264129649805</v>
       </c>
       <c r="N30" t="n">
-        <v>104.1317371401849</v>
+        <v>104.122498845611</v>
       </c>
       <c r="O30" t="n">
-        <v>10.20449592778521</v>
+        <v>10.20404325968932</v>
       </c>
       <c r="P30" t="n">
-        <v>298.9914420536086</v>
+        <v>298.8962065387338</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -34670,28 +34870,28 @@
         <v>0.0306</v>
       </c>
       <c r="I31" t="n">
-        <v>0.7704718191735809</v>
+        <v>0.7842871899741405</v>
       </c>
       <c r="J31" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K31" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L31" t="n">
-        <v>0.1983972192286162</v>
+        <v>0.206152843424557</v>
       </c>
       <c r="M31" t="n">
-        <v>8.629433061922482</v>
+        <v>8.629333734909473</v>
       </c>
       <c r="N31" t="n">
-        <v>124.1828033666633</v>
+        <v>124.04432911313</v>
       </c>
       <c r="O31" t="n">
-        <v>11.14373381621543</v>
+        <v>11.13751898373825</v>
       </c>
       <c r="P31" t="n">
-        <v>294.1956726844249</v>
+        <v>294.060355043706</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -34729,7 +34929,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF306"/>
+  <dimension ref="A1:AF308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79072,7 +79272,11 @@
           <t>-37.57468557147134,178.2934272021332</t>
         </is>
       </c>
-      <c r="I306" t="inlineStr"/>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>-37.575436840131886,178.29149953110402</t>
+        </is>
+      </c>
       <c r="J306" t="inlineStr">
         <is>
           <t>-37.576114686802484,178.29319189947856</t>
@@ -79186,6 +79390,278 @@
       <c r="AF306" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:53:05+00:00</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>-37.57048464205096,178.2947913915704</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>-37.57116183529033,178.29448021401367</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>-37.57184166029398,178.29418638753026</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>-37.57253659389093,178.29399197213382</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>-37.573227041630176,178.2937680956585</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>-37.573950959664536,178.29363409105324</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>-37.57468710064899,178.29334045063644</t>
+        </is>
+      </c>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>-37.575436183819775,178.29153235538934</t>
+        </is>
+      </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>-37.57611410617001,178.29322091731544</t>
+        </is>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>-37.57682168817681,178.29350407381824</t>
+        </is>
+      </c>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>-37.57754214688327,178.29349945620032</t>
+        </is>
+      </c>
+      <c r="M307" t="inlineStr">
+        <is>
+          <t>-37.578250889282195,178.29367276777225</t>
+        </is>
+      </c>
+      <c r="N307" t="inlineStr">
+        <is>
+          <t>-37.57895726470439,178.29378288766176</t>
+        </is>
+      </c>
+      <c r="O307" t="inlineStr">
+        <is>
+          <t>-37.57966624123369,178.29387791175205</t>
+        </is>
+      </c>
+      <c r="P307" t="inlineStr">
+        <is>
+          <t>-37.58036383744184,178.29405433333858</t>
+        </is>
+      </c>
+      <c r="Q307" t="inlineStr">
+        <is>
+          <t>-37.58105891418361,178.29426191545863</t>
+        </is>
+      </c>
+      <c r="R307" t="inlineStr">
+        <is>
+          <t>-37.58176749624347,178.29441982682596</t>
+        </is>
+      </c>
+      <c r="S307" t="inlineStr">
+        <is>
+          <t>-37.582451673785535,178.29466896034367</t>
+        </is>
+      </c>
+      <c r="T307" t="inlineStr">
+        <is>
+          <t>-37.5831339141355,178.29492531341316</t>
+        </is>
+      </c>
+      <c r="U307" t="inlineStr">
+        <is>
+          <t>-37.58380349648824,178.29523636367816</t>
+        </is>
+      </c>
+      <c r="V307" t="inlineStr">
+        <is>
+          <t>-37.58447687074776,178.29553914199602</t>
+        </is>
+      </c>
+      <c r="W307" t="inlineStr">
+        <is>
+          <t>-37.58513578466337,178.29588803851675</t>
+        </is>
+      </c>
+      <c r="X307" t="inlineStr">
+        <is>
+          <t>-37.58580375541814,178.29620584201203</t>
+        </is>
+      </c>
+      <c r="Y307" t="inlineStr">
+        <is>
+          <t>-37.58647549014721,178.29651376023605</t>
+        </is>
+      </c>
+      <c r="Z307" t="inlineStr">
+        <is>
+          <t>-37.58711001157303,178.29693052589067</t>
+        </is>
+      </c>
+      <c r="AA307" t="inlineStr">
+        <is>
+          <t>-37.587755004586555,178.2973240060966</t>
+        </is>
+      </c>
+      <c r="AB307" t="inlineStr">
+        <is>
+          <t>-37.58839738073989,178.2977143215068</t>
+        </is>
+      </c>
+      <c r="AC307" t="inlineStr">
+        <is>
+          <t>-37.58904678749261,178.29811449348648</t>
+        </is>
+      </c>
+      <c r="AD307" t="inlineStr">
+        <is>
+          <t>-37.58967245469376,178.29858976041032</t>
+        </is>
+      </c>
+      <c r="AE307" t="inlineStr">
+        <is>
+          <t>-37.59027102033014,178.2991103849382</t>
+        </is>
+      </c>
+      <c r="AF307" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-24 21:53:09+00:00</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>-37.570487981628744,178.29481335592024</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr"/>
+      <c r="D308" t="inlineStr"/>
+      <c r="E308" t="inlineStr"/>
+      <c r="F308" t="inlineStr"/>
+      <c r="G308" t="inlineStr"/>
+      <c r="H308" t="inlineStr"/>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
+      <c r="L308" t="inlineStr"/>
+      <c r="M308" t="inlineStr"/>
+      <c r="N308" t="inlineStr"/>
+      <c r="O308" t="inlineStr"/>
+      <c r="P308" t="inlineStr">
+        <is>
+          <t>-37.5803708853346,178.2940163974147</t>
+        </is>
+      </c>
+      <c r="Q308" t="inlineStr">
+        <is>
+          <t>-37.58109990249238,178.2941086649056</t>
+        </is>
+      </c>
+      <c r="R308" t="inlineStr">
+        <is>
+          <t>-37.581803616515096,178.29428477671047</t>
+        </is>
+      </c>
+      <c r="S308" t="inlineStr">
+        <is>
+          <t>-37.58249526848572,178.29450596378848</t>
+        </is>
+      </c>
+      <c r="T308" t="inlineStr">
+        <is>
+          <t>-37.58316021107845,178.29482699159718</t>
+        </is>
+      </c>
+      <c r="U308" t="inlineStr">
+        <is>
+          <t>-37.58383278757638,178.29513528930738</t>
+        </is>
+      </c>
+      <c r="V308" t="inlineStr">
+        <is>
+          <t>-37.584529032629064,178.29538777296239</t>
+        </is>
+      </c>
+      <c r="W308" t="inlineStr">
+        <is>
+          <t>-37.58519151076264,178.29574042986025</t>
+        </is>
+      </c>
+      <c r="X308" t="inlineStr">
+        <is>
+          <t>-37.58583682653503,178.29611824234428</t>
+        </is>
+      </c>
+      <c r="Y308" t="inlineStr">
+        <is>
+          <t>-37.586537912099566,178.29634851090609</t>
+        </is>
+      </c>
+      <c r="Z308" t="inlineStr">
+        <is>
+          <t>-37.587165299598446,178.29679676422336</t>
+        </is>
+      </c>
+      <c r="AA308" t="inlineStr">
+        <is>
+          <t>-37.587842194091515,178.29713026731025</t>
+        </is>
+      </c>
+      <c r="AB308" t="inlineStr">
+        <is>
+          <t>-37.588451337959526,178.2975944262837</t>
+        </is>
+      </c>
+      <c r="AC308" t="inlineStr">
+        <is>
+          <t>-37.589105313510274,178.2980017895474</t>
+        </is>
+      </c>
+      <c r="AD308" t="inlineStr">
+        <is>
+          <t>-37.58976302982674,178.29845135052037</t>
+        </is>
+      </c>
+      <c r="AE308" t="inlineStr">
+        <is>
+          <t>-37.590340719305345,178.29901332318482</t>
+        </is>
+      </c>
+      <c r="AF308" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0209/nzd0209.xlsx
+++ b/data/nzd0209/nzd0209.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF308"/>
+  <dimension ref="A1:AF310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29328,6 +29328,180 @@
         </is>
       </c>
     </row>
+    <row r="309">
+      <c r="A309" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-01 21:53:08+00:00</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>346.46</v>
+      </c>
+      <c r="C309" t="n">
+        <v>338.38</v>
+      </c>
+      <c r="D309" t="n">
+        <v>328.7428571428572</v>
+      </c>
+      <c r="E309" t="n">
+        <v>331.49</v>
+      </c>
+      <c r="F309" t="n">
+        <v>329.15</v>
+      </c>
+      <c r="G309" t="n">
+        <v>326.7028571428572</v>
+      </c>
+      <c r="H309" t="n">
+        <v>309.5328571428572</v>
+      </c>
+      <c r="I309" t="n">
+        <v>163.2328571428571</v>
+      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>319.97</v>
+      </c>
+      <c r="L309" t="n">
+        <v>329.97</v>
+      </c>
+      <c r="M309" t="n">
+        <v>336.9266666666667</v>
+      </c>
+      <c r="N309" t="n">
+        <v>342.8364705882353</v>
+      </c>
+      <c r="O309" t="n">
+        <v>349.57</v>
+      </c>
+      <c r="P309" t="n">
+        <v>352.5666666666667</v>
+      </c>
+      <c r="Q309" t="n">
+        <v>350.9</v>
+      </c>
+      <c r="R309" t="n">
+        <v>345.56</v>
+      </c>
+      <c r="S309" t="n">
+        <v>342.06</v>
+      </c>
+      <c r="T309" t="n">
+        <v>345.5628571428572</v>
+      </c>
+      <c r="U309" t="n">
+        <v>347.7228571428572</v>
+      </c>
+      <c r="V309" t="n">
+        <v>346.0128571428572</v>
+      </c>
+      <c r="W309" t="n">
+        <v>344.07</v>
+      </c>
+      <c r="X309" t="n">
+        <v>344.2</v>
+      </c>
+      <c r="Y309" t="n">
+        <v>344.8</v>
+      </c>
+      <c r="Z309" t="n">
+        <v>346</v>
+      </c>
+      <c r="AA309" t="n">
+        <v>345.42</v>
+      </c>
+      <c r="AB309" t="n">
+        <v>346.86</v>
+      </c>
+      <c r="AC309" t="n">
+        <v>345.2</v>
+      </c>
+      <c r="AD309" t="n">
+        <v>334.72</v>
+      </c>
+      <c r="AE309" t="n">
+        <v>323.35</v>
+      </c>
+      <c r="AF309" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-09 21:53:09+00:00</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>346.43</v>
+      </c>
+      <c r="C310" t="inlineStr"/>
+      <c r="D310" t="inlineStr"/>
+      <c r="E310" t="inlineStr"/>
+      <c r="F310" t="inlineStr"/>
+      <c r="G310" t="inlineStr"/>
+      <c r="H310" t="inlineStr"/>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
+      <c r="L310" t="inlineStr"/>
+      <c r="M310" t="inlineStr"/>
+      <c r="N310" t="inlineStr"/>
+      <c r="O310" t="inlineStr"/>
+      <c r="P310" t="inlineStr"/>
+      <c r="Q310" t="n">
+        <v>341.6466666666667</v>
+      </c>
+      <c r="R310" t="n">
+        <v>336.5266666666667</v>
+      </c>
+      <c r="S310" t="n">
+        <v>339.0666666666667</v>
+      </c>
+      <c r="T310" t="n">
+        <v>340.9014285714285</v>
+      </c>
+      <c r="U310" t="n">
+        <v>343.0214285714285</v>
+      </c>
+      <c r="V310" t="n">
+        <v>340.5214285714285</v>
+      </c>
+      <c r="W310" t="n">
+        <v>335.4266666666667</v>
+      </c>
+      <c r="X310" t="n">
+        <v>334.5966666666667</v>
+      </c>
+      <c r="Y310" t="n">
+        <v>334.8566666666667</v>
+      </c>
+      <c r="Z310" t="n">
+        <v>335.0366666666667</v>
+      </c>
+      <c r="AA310" t="n">
+        <v>335.1466666666667</v>
+      </c>
+      <c r="AB310" t="n">
+        <v>337.3366666666667</v>
+      </c>
+      <c r="AC310" t="n">
+        <v>339.5666666666667</v>
+      </c>
+      <c r="AD310" t="n">
+        <v>328.0666666666667</v>
+      </c>
+      <c r="AE310" t="n">
+        <v>321.9466666666667</v>
+      </c>
+      <c r="AF310" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -29339,7 +29513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B310"/>
+  <dimension ref="A1:B312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32447,6 +32621,26 @@
       </c>
       <c r="B310" t="n">
         <v>-0.82</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>2025-06-01 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>2025-06-09 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>-0.4</v>
       </c>
     </row>
   </sheetData>
@@ -32620,28 +32814,28 @@
         <v>0.0306</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.257534531619924</v>
+        <v>-2.24061099909223</v>
       </c>
       <c r="J2" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K2" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5346650240668825</v>
+        <v>0.5346822558091688</v>
       </c>
       <c r="M2" t="n">
-        <v>11.85949140562313</v>
+        <v>11.83959369543571</v>
       </c>
       <c r="N2" t="n">
-        <v>231.9647544954348</v>
+        <v>230.9147161033712</v>
       </c>
       <c r="O2" t="n">
-        <v>15.2303891774122</v>
+        <v>15.19587826034979</v>
       </c>
       <c r="P2" t="n">
-        <v>394.6958253900955</v>
+        <v>394.5252876407416</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32698,28 +32892,28 @@
         <v>0.0347</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.994893139166214</v>
+        <v>-1.98903021190823</v>
       </c>
       <c r="J3" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K3" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5338924298278254</v>
+        <v>0.5345379590308992</v>
       </c>
       <c r="M3" t="n">
-        <v>10.80079184036604</v>
+        <v>10.78206305417547</v>
       </c>
       <c r="N3" t="n">
-        <v>185.3186847351332</v>
+        <v>184.7610519887467</v>
       </c>
       <c r="O3" t="n">
-        <v>13.61318055177163</v>
+        <v>13.59268376696621</v>
       </c>
       <c r="P3" t="n">
-        <v>383.0372559614678</v>
+        <v>382.9792809285284</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32776,28 +32970,28 @@
         <v>0.0392</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.486136742923713</v>
+        <v>-1.485527923447168</v>
       </c>
       <c r="J4" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K4" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4255513151106262</v>
+        <v>0.4278400927982847</v>
       </c>
       <c r="M4" t="n">
-        <v>9.539754519441093</v>
+        <v>9.501538846713247</v>
       </c>
       <c r="N4" t="n">
-        <v>156.8879655735347</v>
+        <v>156.2165427009072</v>
       </c>
       <c r="O4" t="n">
-        <v>12.52549262797814</v>
+        <v>12.4986616363876</v>
       </c>
       <c r="P4" t="n">
-        <v>366.5120577262226</v>
+        <v>366.505990353412</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32854,28 +33048,28 @@
         <v>0.0351</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.074635557346183</v>
+        <v>-1.068547636645775</v>
       </c>
       <c r="J5" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K5" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2284565158050272</v>
+        <v>0.2280953538167609</v>
       </c>
       <c r="M5" t="n">
-        <v>10.44281544627695</v>
+        <v>10.42244210450669</v>
       </c>
       <c r="N5" t="n">
-        <v>201.0995729833777</v>
+        <v>200.4268763812894</v>
       </c>
       <c r="O5" t="n">
-        <v>14.18095811232011</v>
+        <v>14.15721993829613</v>
       </c>
       <c r="P5" t="n">
-        <v>352.629911042423</v>
+        <v>352.5684534067994</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -32932,28 +33126,28 @@
         <v>0.034</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.7092880260890384</v>
+        <v>-0.7052401731265654</v>
       </c>
       <c r="J6" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K6" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1498850215545983</v>
+        <v>0.1496876068415077</v>
       </c>
       <c r="M6" t="n">
-        <v>9.081706917855115</v>
+        <v>9.05993824826086</v>
       </c>
       <c r="N6" t="n">
-        <v>146.7653111493516</v>
+        <v>146.218842563512</v>
       </c>
       <c r="O6" t="n">
-        <v>12.11467338186844</v>
+        <v>12.09209835237507</v>
       </c>
       <c r="P6" t="n">
-        <v>343.1187186482818</v>
+        <v>343.078041587199</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33010,28 +33204,28 @@
         <v>0.0375</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.4886589635652334</v>
+        <v>-0.4887531826249547</v>
       </c>
       <c r="J7" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K7" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1026162748293128</v>
+        <v>0.1036342173957728</v>
       </c>
       <c r="M7" t="n">
-        <v>8.083999680386972</v>
+        <v>8.049990459914778</v>
       </c>
       <c r="N7" t="n">
-        <v>108.8754896585081</v>
+        <v>108.4122333267826</v>
       </c>
       <c r="O7" t="n">
-        <v>10.43434184117561</v>
+        <v>10.41211954055382</v>
       </c>
       <c r="P7" t="n">
-        <v>339.4451103166141</v>
+        <v>339.4460403485655</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33088,28 +33282,28 @@
         <v>0.0363</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2844605353900069</v>
+        <v>-0.2879942846320727</v>
       </c>
       <c r="J8" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K8" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02987019976007299</v>
+        <v>0.03089653017723326</v>
       </c>
       <c r="M8" t="n">
-        <v>8.574771245370963</v>
+        <v>8.553982314725939</v>
       </c>
       <c r="N8" t="n">
-        <v>138.9357323082243</v>
+        <v>138.4191859911853</v>
       </c>
       <c r="O8" t="n">
-        <v>11.78710025019828</v>
+        <v>11.76516833671262</v>
       </c>
       <c r="P8" t="n">
-        <v>320.7881546625752</v>
+        <v>320.8224074526445</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33166,28 +33360,28 @@
         <v>0.0362</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.9798765642079831</v>
+        <v>-1.106422025328829</v>
       </c>
       <c r="J9" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K9" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1260700658483609</v>
+        <v>0.1339647241001281</v>
       </c>
       <c r="M9" t="n">
-        <v>11.30978308298118</v>
+        <v>12.00167208569779</v>
       </c>
       <c r="N9" t="n">
-        <v>351.1115007288163</v>
+        <v>420.6011060967389</v>
       </c>
       <c r="O9" t="n">
-        <v>18.73796949321928</v>
+        <v>20.50856177543269</v>
       </c>
       <c r="P9" t="n">
-        <v>316.3305539351662</v>
+        <v>317.5330234541991</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33247,7 +33441,7 @@
         <v>-0.9302275926138698</v>
       </c>
       <c r="J10" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K10" t="n">
         <v>233</v>
@@ -33316,28 +33510,28 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>-0.4625249949203186</v>
+        <v>-0.4385674311521853</v>
       </c>
       <c r="J11" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K11" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04215425780592508</v>
+        <v>0.03818027494554266</v>
       </c>
       <c r="M11" t="n">
-        <v>11.38059102484739</v>
+        <v>11.41330556990725</v>
       </c>
       <c r="N11" t="n">
-        <v>253.8511381032097</v>
+        <v>255.0955980558154</v>
       </c>
       <c r="O11" t="n">
-        <v>15.93270655297491</v>
+        <v>15.97171243341851</v>
       </c>
       <c r="P11" t="n">
-        <v>308.6849720782516</v>
+        <v>308.4593522692714</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33394,28 +33588,28 @@
         <v>0.0446</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01331254102714339</v>
+        <v>0.03148435817354674</v>
       </c>
       <c r="J12" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K12" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L12" t="n">
-        <v>7.322390441721893e-05</v>
+        <v>0.0004087538850676697</v>
       </c>
       <c r="M12" t="n">
-        <v>8.660377944436066</v>
+        <v>8.694861707049883</v>
       </c>
       <c r="N12" t="n">
-        <v>130.3485107069143</v>
+        <v>131.4345762173753</v>
       </c>
       <c r="O12" t="n">
-        <v>11.41702722721262</v>
+        <v>11.46449197380221</v>
       </c>
       <c r="P12" t="n">
-        <v>309.785018789448</v>
+        <v>309.6125498562508</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -33472,28 +33666,28 @@
         <v>0.051</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4212860032554008</v>
+        <v>0.4368705819037004</v>
       </c>
       <c r="J13" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K13" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L13" t="n">
-        <v>0.09549670811211119</v>
+        <v>0.1017093671721171</v>
       </c>
       <c r="M13" t="n">
-        <v>7.402586538125528</v>
+        <v>7.443168713118444</v>
       </c>
       <c r="N13" t="n">
-        <v>89.90562120014178</v>
+        <v>90.7514725428331</v>
       </c>
       <c r="O13" t="n">
-        <v>9.4818574762618</v>
+        <v>9.526356729769944</v>
       </c>
       <c r="P13" t="n">
-        <v>308.663291370403</v>
+        <v>308.5155238506973</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -33544,28 +33738,28 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>0.5788842804747953</v>
+        <v>0.5916137184909842</v>
       </c>
       <c r="J14" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K14" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2296874999185404</v>
+        <v>0.2367848797427721</v>
       </c>
       <c r="M14" t="n">
-        <v>6.034546465518661</v>
+        <v>6.071961648181923</v>
       </c>
       <c r="N14" t="n">
-        <v>60.7196115023486</v>
+        <v>61.34392962250335</v>
       </c>
       <c r="O14" t="n">
-        <v>7.792278967179538</v>
+        <v>7.832236565790345</v>
       </c>
       <c r="P14" t="n">
-        <v>312.7803174003158</v>
+        <v>312.6616674319562</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -33622,28 +33816,28 @@
         <v>0.0405</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7529377921039691</v>
+        <v>0.7624035419683063</v>
       </c>
       <c r="J15" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K15" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3088935260430438</v>
+        <v>0.3147677891337259</v>
       </c>
       <c r="M15" t="n">
-        <v>6.525675634494949</v>
+        <v>6.552396391854076</v>
       </c>
       <c r="N15" t="n">
-        <v>68.62808700355372</v>
+        <v>68.87487735534278</v>
       </c>
       <c r="O15" t="n">
-        <v>8.284207083574971</v>
+        <v>8.299088947308782</v>
       </c>
       <c r="P15" t="n">
-        <v>318.385223733427</v>
+        <v>318.2962013824795</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -33700,28 +33894,28 @@
         <v>0.0471</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8688901382221081</v>
+        <v>0.8739974949815695</v>
       </c>
       <c r="J16" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K16" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L16" t="n">
-        <v>0.4285265348358448</v>
+        <v>0.4330844137378129</v>
       </c>
       <c r="M16" t="n">
-        <v>5.648622943407092</v>
+        <v>5.654190017770019</v>
       </c>
       <c r="N16" t="n">
-        <v>52.92339440492981</v>
+        <v>52.8770076318656</v>
       </c>
       <c r="O16" t="n">
-        <v>7.274846692881563</v>
+        <v>7.271657832424846</v>
       </c>
       <c r="P16" t="n">
-        <v>323.7260314840402</v>
+        <v>323.6771970677023</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -33778,28 +33972,28 @@
         <v>0.0308</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9209679677497944</v>
+        <v>0.9288922252261835</v>
       </c>
       <c r="J17" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K17" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L17" t="n">
-        <v>0.312573491491737</v>
+        <v>0.3195430255214881</v>
       </c>
       <c r="M17" t="n">
-        <v>8.024750268641656</v>
+        <v>8.006010126644551</v>
       </c>
       <c r="N17" t="n">
-        <v>97.89713757150295</v>
+        <v>97.54374204038956</v>
       </c>
       <c r="O17" t="n">
-        <v>9.894298235423417</v>
+        <v>9.876423545008059</v>
       </c>
       <c r="P17" t="n">
-        <v>317.3074015379329</v>
+        <v>317.2313806113408</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -33856,28 +34050,28 @@
         <v>0.0319</v>
       </c>
       <c r="I18" t="n">
-        <v>0.931115464550174</v>
+        <v>0.9367065408473841</v>
       </c>
       <c r="J18" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K18" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3233317118515473</v>
+        <v>0.3293217373592546</v>
       </c>
       <c r="M18" t="n">
-        <v>7.935577430550277</v>
+        <v>7.914792453404963</v>
       </c>
       <c r="N18" t="n">
-        <v>95.86691421050493</v>
+        <v>95.442416071495</v>
       </c>
       <c r="O18" t="n">
-        <v>9.791165109960353</v>
+        <v>9.769463448495777</v>
       </c>
       <c r="P18" t="n">
-        <v>313.2129712202189</v>
+        <v>313.1590743002487</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -33934,28 +34128,28 @@
         <v>0.0353</v>
       </c>
       <c r="I19" t="n">
-        <v>1.010304113893953</v>
+        <v>1.01559292567447</v>
       </c>
       <c r="J19" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K19" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3430194405596744</v>
+        <v>0.3490658316339256</v>
       </c>
       <c r="M19" t="n">
-        <v>8.066904756735525</v>
+        <v>8.035521047981605</v>
       </c>
       <c r="N19" t="n">
-        <v>103.1150903482522</v>
+        <v>102.5076886004518</v>
       </c>
       <c r="O19" t="n">
-        <v>10.15456007654946</v>
+        <v>10.12460807144908</v>
       </c>
       <c r="P19" t="n">
-        <v>310.8450653744462</v>
+        <v>310.7934834806342</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -34012,28 +34206,28 @@
         <v>0.0365</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9914970907452532</v>
+        <v>1.002065291889363</v>
       </c>
       <c r="J20" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K20" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L20" t="n">
-        <v>0.436868280632601</v>
+        <v>0.4450413854842322</v>
       </c>
       <c r="M20" t="n">
-        <v>6.501291026553965</v>
+        <v>6.502990616687579</v>
       </c>
       <c r="N20" t="n">
-        <v>65.65284125714227</v>
+        <v>65.5634664528617</v>
       </c>
       <c r="O20" t="n">
-        <v>8.102644090489367</v>
+        <v>8.097127049321982</v>
       </c>
       <c r="P20" t="n">
-        <v>310.6082489562795</v>
+        <v>310.5038185212457</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -34090,28 +34284,28 @@
         <v>0.0375</v>
       </c>
       <c r="I21" t="n">
-        <v>1.051558167634075</v>
+        <v>1.061383614720096</v>
       </c>
       <c r="J21" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K21" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L21" t="n">
-        <v>0.469995249671579</v>
+        <v>0.4777451460146885</v>
       </c>
       <c r="M21" t="n">
-        <v>6.310356223945377</v>
+        <v>6.312667377722363</v>
       </c>
       <c r="N21" t="n">
-        <v>64.50091801807159</v>
+        <v>64.38157279453711</v>
       </c>
       <c r="O21" t="n">
-        <v>8.031246355209856</v>
+        <v>8.023812858893027</v>
       </c>
       <c r="P21" t="n">
-        <v>311.6341763387662</v>
+        <v>311.5373329970725</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -34168,28 +34362,28 @@
         <v>0.0363</v>
       </c>
       <c r="I22" t="n">
-        <v>1.038048474985655</v>
+        <v>1.045619193129762</v>
       </c>
       <c r="J22" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K22" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L22" t="n">
-        <v>0.4363333051104902</v>
+        <v>0.4434213688274495</v>
       </c>
       <c r="M22" t="n">
-        <v>6.501750110212398</v>
+        <v>6.485291690516606</v>
       </c>
       <c r="N22" t="n">
-        <v>72.0162479881288</v>
+        <v>71.7479391404944</v>
       </c>
       <c r="O22" t="n">
-        <v>8.486238742112361</v>
+        <v>8.470415523484926</v>
       </c>
       <c r="P22" t="n">
-        <v>311.3326589167837</v>
+        <v>311.2579655542652</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -34246,28 +34440,28 @@
         <v>0.032</v>
       </c>
       <c r="I23" t="n">
-        <v>1.073981683697881</v>
+        <v>1.081083132439967</v>
       </c>
       <c r="J23" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K23" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L23" t="n">
-        <v>0.4391962046306406</v>
+        <v>0.4459395093467502</v>
       </c>
       <c r="M23" t="n">
-        <v>6.901882707693723</v>
+        <v>6.881085921139534</v>
       </c>
       <c r="N23" t="n">
-        <v>76.02231620624411</v>
+        <v>75.7742778138437</v>
       </c>
       <c r="O23" t="n">
-        <v>8.719077715346051</v>
+        <v>8.704842204993936</v>
       </c>
       <c r="P23" t="n">
-        <v>307.2855244165966</v>
+        <v>307.2157381359335</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -34324,28 +34518,28 @@
         <v>0.031</v>
       </c>
       <c r="I24" t="n">
-        <v>1.129189189378144</v>
+        <v>1.138155923196261</v>
       </c>
       <c r="J24" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K24" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L24" t="n">
-        <v>0.4661083994184978</v>
+        <v>0.4732326211640543</v>
       </c>
       <c r="M24" t="n">
-        <v>6.814736346482246</v>
+        <v>6.801250753159694</v>
       </c>
       <c r="N24" t="n">
-        <v>74.89945535867892</v>
+        <v>74.76721157128826</v>
       </c>
       <c r="O24" t="n">
-        <v>8.654447143444745</v>
+        <v>8.646803546472434</v>
       </c>
       <c r="P24" t="n">
-        <v>304.3765463091282</v>
+        <v>304.2879273247069</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -34402,28 +34596,28 @@
         <v>0.0313</v>
       </c>
       <c r="I25" t="n">
-        <v>1.057898320539604</v>
+        <v>1.069135425345934</v>
       </c>
       <c r="J25" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K25" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L25" t="n">
-        <v>0.431363656928482</v>
+        <v>0.4393947863894297</v>
       </c>
       <c r="M25" t="n">
-        <v>6.864115296748389</v>
+        <v>6.866303458116254</v>
       </c>
       <c r="N25" t="n">
-        <v>75.36413802360379</v>
+        <v>75.3563949585856</v>
       </c>
       <c r="O25" t="n">
-        <v>8.681252099991324</v>
+        <v>8.680806123775925</v>
       </c>
       <c r="P25" t="n">
-        <v>305.3302527851318</v>
+        <v>305.2195127668118</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -34480,28 +34674,28 @@
         <v>0.0318</v>
       </c>
       <c r="I26" t="n">
-        <v>1.068838571500255</v>
+        <v>1.07849522381724</v>
       </c>
       <c r="J26" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K26" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L26" t="n">
-        <v>0.4087046097634012</v>
+        <v>0.4160160605941584</v>
       </c>
       <c r="M26" t="n">
-        <v>7.371211962702258</v>
+        <v>7.362326249661631</v>
       </c>
       <c r="N26" t="n">
-        <v>85.54857468713296</v>
+        <v>85.43568569533539</v>
       </c>
       <c r="O26" t="n">
-        <v>9.249247249756758</v>
+        <v>9.243142630909436</v>
       </c>
       <c r="P26" t="n">
-        <v>306.5265716915809</v>
+        <v>306.4317025125882</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -34558,28 +34752,28 @@
         <v>0.0315</v>
       </c>
       <c r="I27" t="n">
-        <v>1.048764374581467</v>
+        <v>1.062325617219266</v>
       </c>
       <c r="J27" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K27" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L27" t="n">
-        <v>0.4028408336129894</v>
+        <v>0.4112885746751413</v>
       </c>
       <c r="M27" t="n">
-        <v>7.19769904947406</v>
+        <v>7.209763913518319</v>
       </c>
       <c r="N27" t="n">
-        <v>84.43331094671635</v>
+        <v>84.56626384973394</v>
       </c>
       <c r="O27" t="n">
-        <v>9.188760033144643</v>
+        <v>9.195991727363284</v>
       </c>
       <c r="P27" t="n">
-        <v>304.2544704837226</v>
+        <v>304.1213157449829</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -34636,28 +34830,28 @@
         <v>0.0315</v>
       </c>
       <c r="I28" t="n">
-        <v>0.9351490788685136</v>
+        <v>0.9549336294561661</v>
       </c>
       <c r="J28" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K28" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L28" t="n">
-        <v>0.3307182267004004</v>
+        <v>0.3407027812600153</v>
       </c>
       <c r="M28" t="n">
-        <v>7.572716489037024</v>
+        <v>7.614267370956409</v>
       </c>
       <c r="N28" t="n">
-        <v>93.21053167561159</v>
+        <v>93.91541435264652</v>
       </c>
       <c r="O28" t="n">
-        <v>9.654560149256495</v>
+        <v>9.690996561378325</v>
       </c>
       <c r="P28" t="n">
-        <v>304.598465131308</v>
+        <v>304.4053990005219</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -34714,28 +34908,28 @@
         <v>0.0316</v>
       </c>
       <c r="I29" t="n">
-        <v>0.8377629890910031</v>
+        <v>0.8593881944664666</v>
       </c>
       <c r="J29" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K29" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L29" t="n">
-        <v>0.2666322146222286</v>
+        <v>0.2773480869019427</v>
       </c>
       <c r="M29" t="n">
-        <v>8.113074578477987</v>
+        <v>8.149013104393081</v>
       </c>
       <c r="N29" t="n">
-        <v>101.8201723254816</v>
+        <v>102.5781254071835</v>
       </c>
       <c r="O29" t="n">
-        <v>10.090598214451</v>
+        <v>10.12808596957903</v>
       </c>
       <c r="P29" t="n">
-        <v>306.2808646733407</v>
+        <v>306.0703386274758</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -34792,28 +34986,28 @@
         <v>0.0311</v>
       </c>
       <c r="I30" t="n">
-        <v>0.8908825758829308</v>
+        <v>0.9050030396714652</v>
       </c>
       <c r="J30" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K30" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L30" t="n">
-        <v>0.2858537130866036</v>
+        <v>0.2945557129495151</v>
       </c>
       <c r="M30" t="n">
-        <v>7.993264129649805</v>
+        <v>7.99639739014405</v>
       </c>
       <c r="N30" t="n">
-        <v>104.122498845611</v>
+        <v>104.0810509203941</v>
       </c>
       <c r="O30" t="n">
-        <v>10.20404325968932</v>
+        <v>10.20201210156085</v>
       </c>
       <c r="P30" t="n">
-        <v>298.8962065387338</v>
+        <v>298.7577630203829</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -34870,28 +35064,28 @@
         <v>0.0306</v>
       </c>
       <c r="I31" t="n">
-        <v>0.7842871899741405</v>
+        <v>0.7973534091007322</v>
       </c>
       <c r="J31" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K31" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L31" t="n">
-        <v>0.206152843424557</v>
+        <v>0.2140121241488669</v>
       </c>
       <c r="M31" t="n">
-        <v>8.629333734909473</v>
+        <v>8.625574674225811</v>
       </c>
       <c r="N31" t="n">
-        <v>124.04432911313</v>
+        <v>123.6317608806434</v>
       </c>
       <c r="O31" t="n">
-        <v>11.13751898373825</v>
+        <v>11.11898200738914</v>
       </c>
       <c r="P31" t="n">
-        <v>294.060355043706</v>
+        <v>293.932114711355</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -34929,7 +35123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF308"/>
+  <dimension ref="A1:AF310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37956,7 +38150,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>-37.57123401269105,178.29495492962764</t>
+          <t>-37.57123401269106,178.29495492962764</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -38048,7 +38242,7 @@
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>-37.58526522974905,178.2955451601488</t>
+          <t>-37.585265229749055,178.2955451601488</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
@@ -51553,7 +51747,7 @@
       </c>
       <c r="P112" t="inlineStr">
         <is>
-          <t>-37.58042196404231,178.29374145948353</t>
+          <t>-37.580421964042316,178.29374145948353</t>
         </is>
       </c>
       <c r="Q112" t="inlineStr">
@@ -79665,6 +79859,270 @@
         </is>
       </c>
     </row>
+    <row r="309">
+      <c r="A309" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-01 21:53:08+00:00</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>-37.57047679908635,178.29473980863352</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>-37.57115707886581,178.29444893117417</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>-37.57183472558166,178.2941407781938</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>-37.572533254232084,178.2939700071797</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>-37.573223195942106,178.29374280244522</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>-37.57394234419711,178.2935067966771</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>-37.574687930893475,178.29329334866623</t>
+        </is>
+      </c>
+      <c r="I309" t="inlineStr">
+        <is>
+          <t>-37.57543421321596,178.29163090888446</t>
+        </is>
+      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>-37.57682480167063,178.29337944215385</t>
+        </is>
+      </c>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>-37.57754249326934,178.29349280651442</t>
+        </is>
+      </c>
+      <c r="M309" t="inlineStr">
+        <is>
+          <t>-37.578254682772815,178.29362171104611</t>
+        </is>
+      </c>
+      <c r="N309" t="inlineStr">
+        <is>
+          <t>-37.578960546591425,178.29373871703436</t>
+        </is>
+      </c>
+      <c r="O309" t="inlineStr">
+        <is>
+          <t>-37.57966743293283,178.29386478160546</t>
+        </is>
+      </c>
+      <c r="P309" t="inlineStr">
+        <is>
+          <t>-37.580376813820386,178.29398448674533</t>
+        </is>
+      </c>
+      <c r="Q309" t="inlineStr">
+        <is>
+          <t>-37.58106968150785,178.29422165776307</t>
+        </is>
+      </c>
+      <c r="R309" t="inlineStr">
+        <is>
+          <t>-37.58176761079002,178.29441939854885</t>
+        </is>
+      </c>
+      <c r="S309" t="inlineStr">
+        <is>
+          <t>-37.58246026483146,178.2946368392966</t>
+        </is>
+      </c>
+      <c r="T309" t="inlineStr">
+        <is>
+          <t>-37.58313285865609,178.29492925974452</t>
+        </is>
+      </c>
+      <c r="U309" t="inlineStr">
+        <is>
+          <t>-37.58381174422708,178.29520790335198</t>
+        </is>
+      </c>
+      <c r="V309" t="inlineStr">
+        <is>
+          <t>-37.58449409306746,178.2954891644743</t>
+        </is>
+      </c>
+      <c r="W309" t="inlineStr">
+        <is>
+          <t>-37.585159171922214,178.29582608985632</t>
+        </is>
+      </c>
+      <c r="X309" t="inlineStr">
+        <is>
+          <t>-37.585812501610576,178.29618267488473</t>
+        </is>
+      </c>
+      <c r="Y309" t="inlineStr">
+        <is>
+          <t>-37.58646404138819,178.29654406838662</t>
+        </is>
+      </c>
+      <c r="Z309" t="inlineStr">
+        <is>
+          <t>-37.587116972650996,178.29691368456326</t>
+        </is>
+      </c>
+      <c r="AA309" t="inlineStr">
+        <is>
+          <t>-37.58775527009386,178.29732341612979</t>
+        </is>
+      </c>
+      <c r="AB309" t="inlineStr">
+        <is>
+          <t>-37.58838083069048,178.2977510963306</t>
+        </is>
+      </c>
+      <c r="AC309" t="inlineStr">
+        <is>
+          <t>-37.58902708775123,178.29815242932588</t>
+        </is>
+      </c>
+      <c r="AD309" t="inlineStr">
+        <is>
+          <t>-37.589680162816144,178.29857798147737</t>
+        </is>
+      </c>
+      <c r="AE309" t="inlineStr">
+        <is>
+          <t>-37.590301854908084,178.299067445199</t>
+        </is>
+      </c>
+      <c r="AF309" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-09 21:53:09+00:00</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>-37.5704767484865,178.2947394758404</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr"/>
+      <c r="D310" t="inlineStr"/>
+      <c r="E310" t="inlineStr"/>
+      <c r="F310" t="inlineStr"/>
+      <c r="G310" t="inlineStr"/>
+      <c r="H310" t="inlineStr"/>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
+      <c r="L310" t="inlineStr"/>
+      <c r="M310" t="inlineStr"/>
+      <c r="N310" t="inlineStr"/>
+      <c r="O310" t="inlineStr"/>
+      <c r="P310" t="inlineStr"/>
+      <c r="Q310" t="inlineStr">
+        <is>
+          <t>-37.58109617976133,178.29412258380393</t>
+        </is>
+      </c>
+      <c r="R310" t="inlineStr">
+        <is>
+          <t>-37.58179347918083,178.29432267926836</t>
+        </is>
+      </c>
+      <c r="S310" t="inlineStr">
+        <is>
+          <t>-37.582468836777984,178.2946047896213</t>
+        </is>
+      </c>
+      <c r="T310" t="inlineStr">
+        <is>
+          <t>-37.583146207597736,178.29487934935057</t>
+        </is>
+      </c>
+      <c r="U310" t="inlineStr">
+        <is>
+          <t>-37.58382620521769,178.29515800299757</t>
+        </is>
+      </c>
+      <c r="V310" t="inlineStr">
+        <is>
+          <t>-37.58451370862795,178.29543224189734</t>
+        </is>
+      </c>
+      <c r="W310" t="inlineStr">
+        <is>
+          <t>-37.58519247399172,178.29573787842943</t>
+        </is>
+      </c>
+      <c r="X310" t="inlineStr">
+        <is>
+          <t>-37.58584950271044,178.29608466528433</t>
+        </is>
+      </c>
+      <c r="Y310" t="inlineStr">
+        <is>
+          <t>-37.58650237093161,178.2964425989721</t>
+        </is>
+      </c>
+      <c r="Z310" t="inlineStr">
+        <is>
+          <t>-37.587162399155865,178.29680378145324</t>
+        </is>
+      </c>
+      <c r="AA310" t="inlineStr">
+        <is>
+          <t>-37.58780073080484,178.297222400635</t>
+        </is>
+      </c>
+      <c r="AB310" t="inlineStr">
+        <is>
+          <t>-37.588422972819174,178.297657454878</t>
+        </is>
+      </c>
+      <c r="AC310" t="inlineStr">
+        <is>
+          <t>-37.58905476236407,178.29809913624544</t>
+        </is>
+      </c>
+      <c r="AD310" t="inlineStr">
+        <is>
+          <t>-37.58971815147389,178.2985199302062</t>
+        </is>
+      </c>
+      <c r="AE310" t="inlineStr">
+        <is>
+          <t>-37.59031030631028,178.29905567590222</t>
+        </is>
+      </c>
+      <c r="AF310" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0209/nzd0209.xlsx
+++ b/data/nzd0209/nzd0209.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF310"/>
+  <dimension ref="A1:AF311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29502,6 +29502,106 @@
         </is>
       </c>
     </row>
+    <row r="311">
+      <c r="A311" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:53:20+00:00</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>343.44</v>
+      </c>
+      <c r="C311" t="n">
+        <v>334.0933333333333</v>
+      </c>
+      <c r="D311" t="n">
+        <v>327.0542857142857</v>
+      </c>
+      <c r="E311" t="n">
+        <v>323.0633333333333</v>
+      </c>
+      <c r="F311" t="n">
+        <v>323.5333333333333</v>
+      </c>
+      <c r="G311" t="n">
+        <v>323.6942857142857</v>
+      </c>
+      <c r="H311" t="n">
+        <v>299.0042857142857</v>
+      </c>
+      <c r="I311" t="n">
+        <v>153.7742857142857</v>
+      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>313.63</v>
+      </c>
+      <c r="L311" t="n">
+        <v>322.72</v>
+      </c>
+      <c r="M311" t="n">
+        <v>337.8655555555555</v>
+      </c>
+      <c r="N311" t="n">
+        <v>342.66</v>
+      </c>
+      <c r="O311" t="n">
+        <v>347.09</v>
+      </c>
+      <c r="P311" t="n">
+        <v>355.7355555555555</v>
+      </c>
+      <c r="Q311" t="n">
+        <v>353.1133333333333</v>
+      </c>
+      <c r="R311" t="n">
+        <v>346.1433333333333</v>
+      </c>
+      <c r="S311" t="n">
+        <v>340.6633333333333</v>
+      </c>
+      <c r="T311" t="n">
+        <v>343.1442857142857</v>
+      </c>
+      <c r="U311" t="n">
+        <v>344.7442857142857</v>
+      </c>
+      <c r="V311" t="n">
+        <v>341.6142857142857</v>
+      </c>
+      <c r="W311" t="n">
+        <v>336.1333333333333</v>
+      </c>
+      <c r="X311" t="n">
+        <v>340.2033333333333</v>
+      </c>
+      <c r="Y311" t="n">
+        <v>342.4033333333333</v>
+      </c>
+      <c r="Z311" t="n">
+        <v>343.7433333333333</v>
+      </c>
+      <c r="AA311" t="n">
+        <v>339.3033333333333</v>
+      </c>
+      <c r="AB311" t="n">
+        <v>341.1533333333333</v>
+      </c>
+      <c r="AC311" t="n">
+        <v>343.5633333333333</v>
+      </c>
+      <c r="AD311" t="n">
+        <v>338.9833333333333</v>
+      </c>
+      <c r="AE311" t="n">
+        <v>326.4733333333333</v>
+      </c>
+      <c r="AF311" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -29513,7 +29613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B312"/>
+  <dimension ref="A1:B313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32641,6 +32741,16 @@
       </c>
       <c r="B312" t="n">
         <v>-0.4</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>0.34</v>
       </c>
     </row>
   </sheetData>
@@ -32814,28 +32924,28 @@
         <v>0.0306</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.24061099909223</v>
+        <v>-2.234869202698747</v>
       </c>
       <c r="J2" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K2" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5346822558091688</v>
+        <v>0.5354686437372245</v>
       </c>
       <c r="M2" t="n">
-        <v>11.83959369543571</v>
+        <v>11.81767731544349</v>
       </c>
       <c r="N2" t="n">
-        <v>230.9147161033712</v>
+        <v>230.1858319880586</v>
       </c>
       <c r="O2" t="n">
-        <v>15.19587826034979</v>
+        <v>15.17187635027582</v>
       </c>
       <c r="P2" t="n">
-        <v>394.5252876407416</v>
+        <v>394.4673455709931</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32892,28 +33002,28 @@
         <v>0.0347</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.98903021190823</v>
+        <v>-1.986812861340176</v>
       </c>
       <c r="J3" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K3" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5345379590308992</v>
+        <v>0.5362913073216103</v>
       </c>
       <c r="M3" t="n">
-        <v>10.78206305417547</v>
+        <v>10.74796200629877</v>
       </c>
       <c r="N3" t="n">
-        <v>184.7610519887467</v>
+        <v>184.0440244554945</v>
       </c>
       <c r="O3" t="n">
-        <v>13.59268376696621</v>
+        <v>13.56628263215441</v>
       </c>
       <c r="P3" t="n">
-        <v>382.9792809285284</v>
+        <v>382.9573133623225</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32970,28 +33080,28 @@
         <v>0.0392</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.485527923447168</v>
+        <v>-1.486387474824821</v>
       </c>
       <c r="J4" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K4" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4278400927982847</v>
+        <v>0.4305863388091656</v>
       </c>
       <c r="M4" t="n">
-        <v>9.501538846713247</v>
+        <v>9.46520445643538</v>
       </c>
       <c r="N4" t="n">
-        <v>156.2165427009072</v>
+        <v>155.5528342491507</v>
       </c>
       <c r="O4" t="n">
-        <v>12.4986616363876</v>
+        <v>12.47208219380993</v>
       </c>
       <c r="P4" t="n">
-        <v>366.505990353412</v>
+        <v>366.514572419065</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33048,28 +33158,28 @@
         <v>0.0351</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.068547636645775</v>
+        <v>-1.070192663364127</v>
       </c>
       <c r="J5" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K5" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2280953538167609</v>
+        <v>0.230417289825626</v>
       </c>
       <c r="M5" t="n">
-        <v>10.42244210450669</v>
+        <v>10.38684432098781</v>
       </c>
       <c r="N5" t="n">
-        <v>200.4268763812894</v>
+        <v>199.5878587714336</v>
       </c>
       <c r="O5" t="n">
-        <v>14.15721993829613</v>
+        <v>14.12755671627028</v>
       </c>
       <c r="P5" t="n">
-        <v>352.5684534067994</v>
+        <v>352.5850901979168</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33126,28 +33236,28 @@
         <v>0.034</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.7052401731265654</v>
+        <v>-0.7064028701759992</v>
       </c>
       <c r="J6" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K6" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1496876068415077</v>
+        <v>0.1514244614516289</v>
       </c>
       <c r="M6" t="n">
-        <v>9.05993824826086</v>
+        <v>9.027184967950706</v>
       </c>
       <c r="N6" t="n">
-        <v>146.218842563512</v>
+        <v>145.6034116268922</v>
       </c>
       <c r="O6" t="n">
-        <v>12.09209835237507</v>
+        <v>12.06662387028336</v>
       </c>
       <c r="P6" t="n">
-        <v>343.078041587199</v>
+        <v>343.0897465318473</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33204,28 +33314,28 @@
         <v>0.0375</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.4887531826249547</v>
+        <v>-0.49157416819102</v>
       </c>
       <c r="J7" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K7" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1036342173957728</v>
+        <v>0.1056619715828986</v>
       </c>
       <c r="M7" t="n">
-        <v>8.049990459914778</v>
+        <v>8.027481133799409</v>
       </c>
       <c r="N7" t="n">
-        <v>108.4122333267826</v>
+        <v>107.9926649338594</v>
       </c>
       <c r="O7" t="n">
-        <v>10.41211954055382</v>
+        <v>10.39195193088668</v>
       </c>
       <c r="P7" t="n">
-        <v>339.4460403485655</v>
+        <v>339.4739359616527</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33282,28 +33392,28 @@
         <v>0.0363</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2879942846320727</v>
+        <v>-0.3008710744018497</v>
       </c>
       <c r="J8" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K8" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03089653017723326</v>
+        <v>0.03376899210778206</v>
       </c>
       <c r="M8" t="n">
-        <v>8.553982314725939</v>
+        <v>8.573651863241974</v>
       </c>
       <c r="N8" t="n">
-        <v>138.4191859911853</v>
+        <v>138.6875583919578</v>
       </c>
       <c r="O8" t="n">
-        <v>11.76516833671262</v>
+        <v>11.77656819247262</v>
       </c>
       <c r="P8" t="n">
-        <v>320.8224074526445</v>
+        <v>320.9474457605875</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33360,28 +33470,28 @@
         <v>0.0362</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.106422025328829</v>
+        <v>-1.238576320701827</v>
       </c>
       <c r="J9" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K9" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1339647241001281</v>
+        <v>0.1416114125546634</v>
       </c>
       <c r="M9" t="n">
-        <v>12.00167208569779</v>
+        <v>12.81385126741584</v>
       </c>
       <c r="N9" t="n">
-        <v>420.6011060967389</v>
+        <v>497.8527194813099</v>
       </c>
       <c r="O9" t="n">
-        <v>20.50856177543269</v>
+        <v>22.31261346147757</v>
       </c>
       <c r="P9" t="n">
-        <v>317.5330234541991</v>
+        <v>318.7909551071056</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33441,7 +33551,7 @@
         <v>-0.9302275926138698</v>
       </c>
       <c r="J10" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K10" t="n">
         <v>233</v>
@@ -33510,28 +33620,28 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>-0.4385674311521853</v>
+        <v>-0.421754151766489</v>
       </c>
       <c r="J11" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K11" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03818027494554266</v>
+        <v>0.03567491326541372</v>
       </c>
       <c r="M11" t="n">
-        <v>11.41330556990725</v>
+        <v>11.42184401403057</v>
       </c>
       <c r="N11" t="n">
-        <v>255.0955980558154</v>
+        <v>255.1568000069653</v>
       </c>
       <c r="O11" t="n">
-        <v>15.97171243341851</v>
+        <v>15.97362826683297</v>
       </c>
       <c r="P11" t="n">
-        <v>308.4593522692714</v>
+        <v>308.3007496216908</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33588,28 +33698,28 @@
         <v>0.0446</v>
       </c>
       <c r="I12" t="n">
-        <v>0.03148435817354674</v>
+        <v>0.04261620103223922</v>
       </c>
       <c r="J12" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K12" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0004087538850676697</v>
+        <v>0.0007531355222908376</v>
       </c>
       <c r="M12" t="n">
-        <v>8.694861707049883</v>
+        <v>8.701924154609687</v>
       </c>
       <c r="N12" t="n">
-        <v>131.4345762173753</v>
+        <v>131.5077102311131</v>
       </c>
       <c r="O12" t="n">
-        <v>11.46449197380221</v>
+        <v>11.4676811183043</v>
       </c>
       <c r="P12" t="n">
-        <v>309.6125498562508</v>
+        <v>309.5067072333179</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -33666,28 +33776,28 @@
         <v>0.051</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4368705819037004</v>
+        <v>0.4528746812142611</v>
       </c>
       <c r="J13" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K13" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1017093671721171</v>
+        <v>0.1081170224281803</v>
       </c>
       <c r="M13" t="n">
-        <v>7.443168713118444</v>
+        <v>7.488502196045262</v>
       </c>
       <c r="N13" t="n">
-        <v>90.7514725428331</v>
+        <v>91.68481868356217</v>
       </c>
       <c r="O13" t="n">
-        <v>9.526356729769944</v>
+        <v>9.575218988804494</v>
       </c>
       <c r="P13" t="n">
-        <v>308.5155238506973</v>
+        <v>308.3635102116958</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -33738,28 +33848,28 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>0.5916137184909842</v>
+        <v>0.6038676368104012</v>
       </c>
       <c r="J14" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K14" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2367848797427721</v>
+        <v>0.2437239728779002</v>
       </c>
       <c r="M14" t="n">
-        <v>6.071961648181923</v>
+        <v>6.106989927301086</v>
       </c>
       <c r="N14" t="n">
-        <v>61.34392962250335</v>
+        <v>61.91753031625201</v>
       </c>
       <c r="O14" t="n">
-        <v>7.832236565790345</v>
+        <v>7.868769301247306</v>
       </c>
       <c r="P14" t="n">
-        <v>312.6616674319562</v>
+        <v>312.5472485898989</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -33816,28 +33926,28 @@
         <v>0.0405</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7624035419683063</v>
+        <v>0.7696414267365163</v>
       </c>
       <c r="J15" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K15" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3147677891337259</v>
+        <v>0.3200032713637793</v>
       </c>
       <c r="M15" t="n">
-        <v>6.552396391854076</v>
+        <v>6.567021558666028</v>
       </c>
       <c r="N15" t="n">
-        <v>68.87487735534278</v>
+        <v>68.91824435148335</v>
       </c>
       <c r="O15" t="n">
-        <v>8.299088947308782</v>
+        <v>8.301701292595594</v>
       </c>
       <c r="P15" t="n">
-        <v>318.2962013824795</v>
+        <v>318.2280095882323</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -33894,28 +34004,28 @@
         <v>0.0471</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8739974949815695</v>
+        <v>0.8814796356937785</v>
       </c>
       <c r="J16" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K16" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L16" t="n">
-        <v>0.4330844137378129</v>
+        <v>0.4381564186610901</v>
       </c>
       <c r="M16" t="n">
-        <v>5.654190017770019</v>
+        <v>5.672749955604521</v>
       </c>
       <c r="N16" t="n">
-        <v>52.8770076318656</v>
+        <v>53.00044380723429</v>
       </c>
       <c r="O16" t="n">
-        <v>7.271657832424846</v>
+        <v>7.280140370022703</v>
       </c>
       <c r="P16" t="n">
-        <v>323.6771970677023</v>
+        <v>323.6055327519519</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -33972,28 +34082,28 @@
         <v>0.0308</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9288922252261835</v>
+        <v>0.9379299788904469</v>
       </c>
       <c r="J17" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K17" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3195430255214881</v>
+        <v>0.3246798988522785</v>
       </c>
       <c r="M17" t="n">
-        <v>8.006010126644551</v>
+        <v>8.02063027111797</v>
       </c>
       <c r="N17" t="n">
-        <v>97.54374204038956</v>
+        <v>97.68357688368147</v>
       </c>
       <c r="O17" t="n">
-        <v>9.876423545008059</v>
+        <v>9.883500234415006</v>
       </c>
       <c r="P17" t="n">
-        <v>317.2313806113408</v>
+        <v>317.144529676946</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -34050,28 +34160,28 @@
         <v>0.0319</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9367065408473841</v>
+        <v>0.9431753399485386</v>
       </c>
       <c r="J18" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K18" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3293217373592546</v>
+        <v>0.3337044515628631</v>
       </c>
       <c r="M18" t="n">
-        <v>7.914792453404963</v>
+        <v>7.920209365335352</v>
       </c>
       <c r="N18" t="n">
-        <v>95.442416071495</v>
+        <v>95.37242290735817</v>
       </c>
       <c r="O18" t="n">
-        <v>9.769463448495777</v>
+        <v>9.765880549513094</v>
       </c>
       <c r="P18" t="n">
-        <v>313.1590743002487</v>
+        <v>313.0965990114122</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -34128,28 +34238,28 @@
         <v>0.0353</v>
       </c>
       <c r="I19" t="n">
-        <v>1.01559292567447</v>
+        <v>1.018200864327564</v>
       </c>
       <c r="J19" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K19" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3490658316339256</v>
+        <v>0.3520696694737239</v>
       </c>
       <c r="M19" t="n">
-        <v>8.035521047981605</v>
+        <v>8.019857209809345</v>
       </c>
       <c r="N19" t="n">
-        <v>102.5076886004518</v>
+        <v>102.199398423952</v>
       </c>
       <c r="O19" t="n">
-        <v>10.12460807144908</v>
+        <v>10.10937181153962</v>
       </c>
       <c r="P19" t="n">
-        <v>310.7934834806342</v>
+        <v>310.7680087838851</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -34206,28 +34316,28 @@
         <v>0.0365</v>
       </c>
       <c r="I20" t="n">
-        <v>1.002065291889363</v>
+        <v>1.007084587800267</v>
       </c>
       <c r="J20" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K20" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L20" t="n">
-        <v>0.4450413854842322</v>
+        <v>0.4490684754892874</v>
       </c>
       <c r="M20" t="n">
-        <v>6.502990616687579</v>
+        <v>6.502694708470444</v>
       </c>
       <c r="N20" t="n">
-        <v>65.5634664528617</v>
+        <v>65.48870253317554</v>
       </c>
       <c r="O20" t="n">
-        <v>8.097127049321982</v>
+        <v>8.092509038189302</v>
       </c>
       <c r="P20" t="n">
-        <v>310.5038185212457</v>
+        <v>310.4541463367515</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -34284,28 +34394,28 @@
         <v>0.0375</v>
       </c>
       <c r="I21" t="n">
-        <v>1.061383614720096</v>
+        <v>1.065641126153753</v>
       </c>
       <c r="J21" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K21" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L21" t="n">
-        <v>0.4777451460146885</v>
+        <v>0.4814645283453982</v>
       </c>
       <c r="M21" t="n">
-        <v>6.312667377722363</v>
+        <v>6.310984626971758</v>
       </c>
       <c r="N21" t="n">
-        <v>64.38157279453711</v>
+        <v>64.27123247791806</v>
       </c>
       <c r="O21" t="n">
-        <v>8.023812858893027</v>
+        <v>8.01693410712088</v>
       </c>
       <c r="P21" t="n">
-        <v>311.5373329970725</v>
+        <v>311.4953070721743</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -34362,28 +34472,28 @@
         <v>0.0363</v>
       </c>
       <c r="I22" t="n">
-        <v>1.045619193129762</v>
+        <v>1.048034069901823</v>
       </c>
       <c r="J22" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K22" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L22" t="n">
-        <v>0.4434213688274495</v>
+        <v>0.4465428913529181</v>
       </c>
       <c r="M22" t="n">
-        <v>6.485291690516606</v>
+        <v>6.472154998158996</v>
       </c>
       <c r="N22" t="n">
-        <v>71.7479391404944</v>
+        <v>71.53968952061381</v>
       </c>
       <c r="O22" t="n">
-        <v>8.470415523484926</v>
+        <v>8.458113827598551</v>
       </c>
       <c r="P22" t="n">
-        <v>311.2579655542652</v>
+        <v>311.2341028157176</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -34440,28 +34550,28 @@
         <v>0.032</v>
       </c>
       <c r="I23" t="n">
-        <v>1.081083132439967</v>
+        <v>1.081765888904691</v>
       </c>
       <c r="J23" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K23" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L23" t="n">
-        <v>0.4459395093467502</v>
+        <v>0.4484042952608618</v>
       </c>
       <c r="M23" t="n">
-        <v>6.881085921139534</v>
+        <v>6.859996336612491</v>
       </c>
       <c r="N23" t="n">
-        <v>75.7742778138437</v>
+        <v>75.51666939755444</v>
       </c>
       <c r="O23" t="n">
-        <v>8.704842204993936</v>
+        <v>8.690032761592699</v>
       </c>
       <c r="P23" t="n">
-        <v>307.2157381359335</v>
+        <v>307.2090171210442</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -34518,28 +34628,28 @@
         <v>0.031</v>
       </c>
       <c r="I24" t="n">
-        <v>1.138155923196261</v>
+        <v>1.14307876728046</v>
       </c>
       <c r="J24" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K24" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L24" t="n">
-        <v>0.4732326211640543</v>
+        <v>0.4771183282489203</v>
       </c>
       <c r="M24" t="n">
-        <v>6.801250753159694</v>
+        <v>6.796998811468264</v>
       </c>
       <c r="N24" t="n">
-        <v>74.76721157128826</v>
+        <v>74.64875233013292</v>
       </c>
       <c r="O24" t="n">
-        <v>8.646803546472434</v>
+        <v>8.639950944891581</v>
       </c>
       <c r="P24" t="n">
-        <v>304.2879273247069</v>
+        <v>304.2391932512356</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -34596,28 +34706,28 @@
         <v>0.0313</v>
       </c>
       <c r="I25" t="n">
-        <v>1.069135425345934</v>
+        <v>1.076547878777904</v>
       </c>
       <c r="J25" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K25" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L25" t="n">
-        <v>0.4393947863894297</v>
+        <v>0.4440201848828559</v>
       </c>
       <c r="M25" t="n">
-        <v>6.866303458116254</v>
+        <v>6.875419695275855</v>
       </c>
       <c r="N25" t="n">
-        <v>75.3563949585856</v>
+        <v>75.40362667964649</v>
       </c>
       <c r="O25" t="n">
-        <v>8.680806123775925</v>
+        <v>8.683526166232614</v>
       </c>
       <c r="P25" t="n">
-        <v>305.2195127668118</v>
+        <v>305.1463479380294</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -34674,28 +34784,28 @@
         <v>0.0318</v>
       </c>
       <c r="I26" t="n">
-        <v>1.07849522381724</v>
+        <v>1.085576639044928</v>
       </c>
       <c r="J26" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K26" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L26" t="n">
-        <v>0.4160160605941584</v>
+        <v>0.4204761105804775</v>
       </c>
       <c r="M26" t="n">
-        <v>7.362326249661631</v>
+        <v>7.369001351118949</v>
       </c>
       <c r="N26" t="n">
-        <v>85.43568569533539</v>
+        <v>85.43995500367605</v>
       </c>
       <c r="O26" t="n">
-        <v>9.243142630909436</v>
+        <v>9.243373572656038</v>
       </c>
       <c r="P26" t="n">
-        <v>306.4317025125882</v>
+        <v>306.3620146318803</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -34752,28 +34862,28 @@
         <v>0.0315</v>
       </c>
       <c r="I27" t="n">
-        <v>1.062325617219266</v>
+        <v>1.068114574123755</v>
       </c>
       <c r="J27" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K27" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L27" t="n">
-        <v>0.4112885746751413</v>
+        <v>0.4154737536223931</v>
       </c>
       <c r="M27" t="n">
-        <v>7.209763913518319</v>
+        <v>7.211126635971215</v>
       </c>
       <c r="N27" t="n">
-        <v>84.56626384973394</v>
+        <v>84.47400337658553</v>
       </c>
       <c r="O27" t="n">
-        <v>9.195991727363284</v>
+        <v>9.190974016750648</v>
       </c>
       <c r="P27" t="n">
-        <v>304.1213157449829</v>
+        <v>304.0643858046482</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -34830,28 +34940,28 @@
         <v>0.0315</v>
       </c>
       <c r="I28" t="n">
-        <v>0.9549336294561661</v>
+        <v>0.9637845166494163</v>
       </c>
       <c r="J28" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K28" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L28" t="n">
-        <v>0.3407027812600153</v>
+        <v>0.3456083870159716</v>
       </c>
       <c r="M28" t="n">
-        <v>7.614267370956409</v>
+        <v>7.63025269093142</v>
       </c>
       <c r="N28" t="n">
-        <v>93.91541435264652</v>
+        <v>94.08201594677054</v>
       </c>
       <c r="O28" t="n">
-        <v>9.690996561378325</v>
+        <v>9.699588442133539</v>
       </c>
       <c r="P28" t="n">
-        <v>304.4053990005219</v>
+        <v>304.3188971853054</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -34908,28 +35018,28 @@
         <v>0.0316</v>
       </c>
       <c r="I29" t="n">
-        <v>0.8593881944664666</v>
+        <v>0.8706997932254151</v>
       </c>
       <c r="J29" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K29" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L29" t="n">
-        <v>0.2773480869019427</v>
+        <v>0.2828009455735444</v>
       </c>
       <c r="M29" t="n">
-        <v>8.149013104393081</v>
+        <v>8.170608483314799</v>
       </c>
       <c r="N29" t="n">
-        <v>102.5781254071835</v>
+        <v>103.0156698323941</v>
       </c>
       <c r="O29" t="n">
-        <v>10.12808596957903</v>
+        <v>10.14966353296473</v>
       </c>
       <c r="P29" t="n">
-        <v>306.0703386274758</v>
+        <v>305.9600589343538</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -34986,28 +35096,28 @@
         <v>0.0311</v>
       </c>
       <c r="I30" t="n">
-        <v>0.9050030396714652</v>
+        <v>0.9174365484375683</v>
       </c>
       <c r="J30" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K30" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L30" t="n">
-        <v>0.2945557129495151</v>
+        <v>0.3001104969252121</v>
       </c>
       <c r="M30" t="n">
-        <v>7.99639739014405</v>
+        <v>8.020385787404313</v>
       </c>
       <c r="N30" t="n">
-        <v>104.0810509203941</v>
+        <v>104.6831175947585</v>
       </c>
       <c r="O30" t="n">
-        <v>10.20201210156085</v>
+        <v>10.23147680419393</v>
       </c>
       <c r="P30" t="n">
-        <v>298.7577630203829</v>
+        <v>298.6356741974616</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -35064,28 +35174,28 @@
         <v>0.0306</v>
       </c>
       <c r="I31" t="n">
-        <v>0.7973534091007322</v>
+        <v>0.8066239914017883</v>
       </c>
       <c r="J31" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K31" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L31" t="n">
-        <v>0.2140121241488669</v>
+        <v>0.2187594873232314</v>
       </c>
       <c r="M31" t="n">
-        <v>8.625574674225811</v>
+        <v>8.635957886190022</v>
       </c>
       <c r="N31" t="n">
-        <v>123.6317608806434</v>
+        <v>123.6890499117875</v>
       </c>
       <c r="O31" t="n">
-        <v>11.11898200738914</v>
+        <v>11.12155789050201</v>
       </c>
       <c r="P31" t="n">
-        <v>293.932114711355</v>
+        <v>293.8410006327011</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -35123,7 +35233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF310"/>
+  <dimension ref="A1:AF311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80123,6 +80233,164 @@
         </is>
       </c>
     </row>
+    <row r="311">
+      <c r="A311" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:53:20+00:00</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>-37.57047170536342,178.29470630746175</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>-37.5711498486342,178.29440137830576</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>-37.57183187747699,178.2941220463556</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>-37.57251904095632,178.2938765267182</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>-37.57321372225661,178.2936804938801</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>-37.57394005266373,178.29347293939765</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>-37.57469002632414,178.29317446456915</t>
+        </is>
+      </c>
+      <c r="I311" t="inlineStr">
+        <is>
+          <t>-37.57543634862431,178.29152411302596</t>
+        </is>
+      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>-37.576826589613994,178.29330786924777</t>
+        </is>
+      </c>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>-37.57754674967818,178.2934110942637</t>
+        </is>
+      </c>
+      <c r="M311" t="inlineStr">
+        <is>
+          <t>-37.57825389826663,178.29363226976767</t>
+        </is>
+      </c>
+      <c r="N311" t="inlineStr">
+        <is>
+          <t>-37.578960694047396,178.29373673243208</t>
+        </is>
+      </c>
+      <c r="O311" t="inlineStr">
+        <is>
+          <t>-37.579669958922864,178.29383695018166</t>
+        </is>
+      </c>
+      <c r="P311" t="inlineStr">
+        <is>
+          <t>-37.580370338124276,178.29401934282663</t>
+        </is>
+      </c>
+      <c r="Q311" t="inlineStr">
+        <is>
+          <t>-37.58106334329728,178.29424535555708</t>
+        </is>
+      </c>
+      <c r="R311" t="inlineStr">
+        <is>
+          <t>-37.581765940319414,178.29442564425625</t>
+        </is>
+      </c>
+      <c r="S311" t="inlineStr">
+        <is>
+          <t>-37.58246426443782,178.29462188516183</t>
+        </is>
+      </c>
+      <c r="T311" t="inlineStr">
+        <is>
+          <t>-37.583139784726065,178.29490336385462</t>
+        </is>
+      </c>
+      <c r="U311" t="inlineStr">
+        <is>
+          <t>-37.58382090593264,178.29517628918285</t>
+        </is>
+      </c>
+      <c r="V311" t="inlineStr">
+        <is>
+          <t>-37.584509804908905,178.29544357014433</t>
+        </is>
+      </c>
+      <c r="W311" t="inlineStr">
+        <is>
+          <t>-37.585189751264046,178.2957450904737</t>
+        </is>
+      </c>
+      <c r="X311" t="inlineStr">
+        <is>
+          <t>-37.58582790055012,178.296141885758</t>
+        </is>
+      </c>
+      <c r="Y311" t="inlineStr">
+        <is>
+          <t>-37.586473280061846,178.29651961096852</t>
+        </is>
+      </c>
+      <c r="Z311" t="inlineStr">
+        <is>
+          <t>-37.58712632314319,178.2968910623781</t>
+        </is>
+      </c>
+      <c r="AA311" t="inlineStr">
+        <is>
+          <t>-37.58778233707424,178.2972632722672</t>
+        </is>
+      </c>
+      <c r="AB311" t="inlineStr">
+        <is>
+          <t>-37.588406083524674,178.29769498358004</t>
+        </is>
+      </c>
+      <c r="AC311" t="inlineStr">
+        <is>
+          <t>-37.589035128129105,178.2981369459559</t>
+        </is>
+      </c>
+      <c r="AD311" t="inlineStr">
+        <is>
+          <t>-37.58965582037187,178.2986151796299</t>
+        </is>
+      </c>
+      <c r="AE311" t="inlineStr">
+        <is>
+          <t>-37.59028304501411,178.29909363956241</t>
+        </is>
+      </c>
+      <c r="AF311" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0209/nzd0209.xlsx
+++ b/data/nzd0209/nzd0209.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF311"/>
+  <dimension ref="A1:AF313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29358,7 +29358,9 @@
       <c r="I309" t="n">
         <v>163.2328571428571</v>
       </c>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>263.57</v>
+      </c>
       <c r="K309" t="n">
         <v>319.97</v>
       </c>
@@ -29602,6 +29604,156 @@
         </is>
       </c>
     </row>
+    <row r="312">
+      <c r="A312" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-03 21:53:26+00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr"/>
+      <c r="C312" t="n">
+        <v>365.28</v>
+      </c>
+      <c r="D312" t="inlineStr"/>
+      <c r="E312" t="inlineStr"/>
+      <c r="F312" t="inlineStr"/>
+      <c r="G312" t="inlineStr"/>
+      <c r="H312" t="inlineStr"/>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
+      <c r="L312" t="inlineStr"/>
+      <c r="M312" t="inlineStr"/>
+      <c r="N312" t="inlineStr"/>
+      <c r="O312" t="inlineStr"/>
+      <c r="P312" t="inlineStr"/>
+      <c r="Q312" t="n">
+        <v>328.69</v>
+      </c>
+      <c r="R312" t="n">
+        <v>328.69</v>
+      </c>
+      <c r="S312" t="n">
+        <v>349.1</v>
+      </c>
+      <c r="T312" t="inlineStr"/>
+      <c r="U312" t="inlineStr"/>
+      <c r="V312" t="inlineStr"/>
+      <c r="W312" t="n">
+        <v>353.35</v>
+      </c>
+      <c r="X312" t="inlineStr"/>
+      <c r="Y312" t="inlineStr"/>
+      <c r="Z312" t="inlineStr"/>
+      <c r="AA312" t="inlineStr"/>
+      <c r="AB312" t="inlineStr"/>
+      <c r="AC312" t="inlineStr"/>
+      <c r="AD312" t="inlineStr"/>
+      <c r="AE312" t="inlineStr"/>
+      <c r="AF312" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-11 21:53:24+00:00</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>325.58</v>
+      </c>
+      <c r="C313" t="inlineStr"/>
+      <c r="D313" t="n">
+        <v>319.9642857142857</v>
+      </c>
+      <c r="E313" t="n">
+        <v>318.29</v>
+      </c>
+      <c r="F313" t="n">
+        <v>313.73</v>
+      </c>
+      <c r="G313" t="n">
+        <v>310.4942857142857</v>
+      </c>
+      <c r="H313" t="inlineStr"/>
+      <c r="I313" t="n">
+        <v>138.1542857142857</v>
+      </c>
+      <c r="J313" t="n">
+        <v>281.11</v>
+      </c>
+      <c r="K313" t="n">
+        <v>312.33</v>
+      </c>
+      <c r="L313" t="n">
+        <v>317.51</v>
+      </c>
+      <c r="M313" t="n">
+        <v>325.4133333333333</v>
+      </c>
+      <c r="N313" t="n">
+        <v>329.7817647058824</v>
+      </c>
+      <c r="O313" t="n">
+        <v>334.13</v>
+      </c>
+      <c r="P313" t="n">
+        <v>338.3033333333333</v>
+      </c>
+      <c r="Q313" t="n">
+        <v>331.31</v>
+      </c>
+      <c r="R313" t="n">
+        <v>324.21</v>
+      </c>
+      <c r="S313" t="n">
+        <v>323.98</v>
+      </c>
+      <c r="T313" t="n">
+        <v>323.5642857142857</v>
+      </c>
+      <c r="U313" t="n">
+        <v>322.7642857142857</v>
+      </c>
+      <c r="V313" t="n">
+        <v>330.6342857142857</v>
+      </c>
+      <c r="W313" t="n">
+        <v>329.26</v>
+      </c>
+      <c r="X313" t="n">
+        <v>321.95</v>
+      </c>
+      <c r="Y313" t="n">
+        <v>321.9</v>
+      </c>
+      <c r="Z313" t="n">
+        <v>323.62</v>
+      </c>
+      <c r="AA313" t="n">
+        <v>321.32</v>
+      </c>
+      <c r="AB313" t="n">
+        <v>325.21</v>
+      </c>
+      <c r="AC313" t="n">
+        <v>327.64</v>
+      </c>
+      <c r="AD313" t="n">
+        <v>318.88</v>
+      </c>
+      <c r="AE313" t="n">
+        <v>314.65</v>
+      </c>
+      <c r="AF313" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -29613,7 +29765,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B313"/>
+  <dimension ref="A1:B315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32751,6 +32903,26 @@
       </c>
       <c r="B313" t="n">
         <v>0.34</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>2025-07-03 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>2025-07-11 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>
@@ -32924,28 +33096,28 @@
         <v>0.0306</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.234869202698747</v>
+        <v>-2.243728500017719</v>
       </c>
       <c r="J2" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K2" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5354686437372245</v>
+        <v>0.5391943665005562</v>
       </c>
       <c r="M2" t="n">
-        <v>11.81767731544349</v>
+        <v>11.81709006958603</v>
       </c>
       <c r="N2" t="n">
-        <v>230.1858319880586</v>
+        <v>229.7320263776619</v>
       </c>
       <c r="O2" t="n">
-        <v>15.17187635027582</v>
+        <v>15.15691348453444</v>
       </c>
       <c r="P2" t="n">
-        <v>394.4673455709931</v>
+        <v>394.5570020785711</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33002,28 +33174,28 @@
         <v>0.0347</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.986812861340176</v>
+        <v>-1.958742316648147</v>
       </c>
       <c r="J3" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K3" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5362913073216103</v>
+        <v>0.5254224579581429</v>
       </c>
       <c r="M3" t="n">
-        <v>10.74796200629877</v>
+        <v>10.82539939534298</v>
       </c>
       <c r="N3" t="n">
-        <v>184.0440244554945</v>
+        <v>187.8562500926752</v>
       </c>
       <c r="O3" t="n">
-        <v>13.56628263215441</v>
+        <v>13.70606617861869</v>
       </c>
       <c r="P3" t="n">
-        <v>382.9573133623225</v>
+        <v>382.6786867475737</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33080,28 +33252,28 @@
         <v>0.0392</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.486387474824821</v>
+        <v>-1.493434974226167</v>
       </c>
       <c r="J4" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K4" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4305863388091656</v>
+        <v>0.4349469788151421</v>
       </c>
       <c r="M4" t="n">
-        <v>9.46520445643538</v>
+        <v>9.459588903022473</v>
       </c>
       <c r="N4" t="n">
-        <v>155.5528342491507</v>
+        <v>155.1552962625606</v>
       </c>
       <c r="O4" t="n">
-        <v>12.47208219380993</v>
+        <v>12.45613488456835</v>
       </c>
       <c r="P4" t="n">
-        <v>366.514572419065</v>
+        <v>366.5851341990924</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33158,28 +33330,28 @@
         <v>0.0351</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.070192663364127</v>
+        <v>-1.076020612859658</v>
       </c>
       <c r="J5" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K5" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L5" t="n">
-        <v>0.230417289825626</v>
+        <v>0.2339901723301002</v>
       </c>
       <c r="M5" t="n">
-        <v>10.38684432098781</v>
+        <v>10.37353991716393</v>
       </c>
       <c r="N5" t="n">
-        <v>199.5878587714336</v>
+        <v>198.9183569427985</v>
       </c>
       <c r="O5" t="n">
-        <v>14.12755671627028</v>
+        <v>14.10384192136308</v>
       </c>
       <c r="P5" t="n">
-        <v>352.5850901979168</v>
+        <v>352.6441918618413</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33236,28 +33408,28 @@
         <v>0.034</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.7064028701759992</v>
+        <v>-0.7163859727521137</v>
       </c>
       <c r="J6" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K6" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1514244614516289</v>
+        <v>0.1559559713231117</v>
       </c>
       <c r="M6" t="n">
-        <v>9.027184967950706</v>
+        <v>9.039346829996109</v>
       </c>
       <c r="N6" t="n">
-        <v>145.6034116268922</v>
+        <v>145.4926686771155</v>
       </c>
       <c r="O6" t="n">
-        <v>12.06662387028336</v>
+        <v>12.06203418487593</v>
       </c>
       <c r="P6" t="n">
-        <v>343.0897465318473</v>
+        <v>343.1905181638716</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33314,28 +33486,28 @@
         <v>0.0375</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.49157416819102</v>
+        <v>-0.5062531208992199</v>
       </c>
       <c r="J7" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K7" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1056619715828986</v>
+        <v>0.1113844409209985</v>
       </c>
       <c r="M7" t="n">
-        <v>8.027481133799409</v>
+        <v>8.05536821311639</v>
       </c>
       <c r="N7" t="n">
-        <v>107.9926649338594</v>
+        <v>108.6296053098217</v>
       </c>
       <c r="O7" t="n">
-        <v>10.39195193088668</v>
+        <v>10.42255272521189</v>
       </c>
       <c r="P7" t="n">
-        <v>339.4739359616527</v>
+        <v>339.6194810088871</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33395,7 +33567,7 @@
         <v>-0.3008710744018497</v>
       </c>
       <c r="J8" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K8" t="n">
         <v>241</v>
@@ -33470,28 +33642,28 @@
         <v>0.0362</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.238576320701827</v>
+        <v>-1.382291805676749</v>
       </c>
       <c r="J9" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K9" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1416114125546634</v>
+        <v>0.1485090207863325</v>
       </c>
       <c r="M9" t="n">
-        <v>12.81385126741584</v>
+        <v>13.75405691062477</v>
       </c>
       <c r="N9" t="n">
-        <v>497.8527194813099</v>
+        <v>590.8028799941012</v>
       </c>
       <c r="O9" t="n">
-        <v>22.31261346147757</v>
+        <v>24.30643700738759</v>
       </c>
       <c r="P9" t="n">
-        <v>318.7909551071056</v>
+        <v>320.1624908693243</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33548,28 +33720,28 @@
         <v>0.0436</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.9302275926138698</v>
+        <v>-0.9561441005534762</v>
       </c>
       <c r="J10" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K10" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1486535910248814</v>
+        <v>0.1575634235099865</v>
       </c>
       <c r="M10" t="n">
-        <v>11.53912759000936</v>
+        <v>11.57324358834386</v>
       </c>
       <c r="N10" t="n">
-        <v>261.5422578346287</v>
+        <v>261.5724917131881</v>
       </c>
       <c r="O10" t="n">
-        <v>16.17226817223325</v>
+        <v>16.17320288975527</v>
       </c>
       <c r="P10" t="n">
-        <v>310.3512823066893</v>
+        <v>310.6000270732793</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33620,28 +33792,28 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>-0.421754151766489</v>
+        <v>-0.4066879719772</v>
       </c>
       <c r="J11" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K11" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03567491326541372</v>
+        <v>0.03352723238262023</v>
       </c>
       <c r="M11" t="n">
-        <v>11.42184401403057</v>
+        <v>11.42438599033681</v>
       </c>
       <c r="N11" t="n">
-        <v>255.1568000069653</v>
+        <v>255.0042004072554</v>
       </c>
       <c r="O11" t="n">
-        <v>15.97362826683297</v>
+        <v>15.9688509419825</v>
       </c>
       <c r="P11" t="n">
-        <v>308.3007496216908</v>
+        <v>308.1582700588395</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33698,28 +33870,28 @@
         <v>0.0446</v>
       </c>
       <c r="I12" t="n">
-        <v>0.04261620103223922</v>
+        <v>0.04880397457092506</v>
       </c>
       <c r="J12" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K12" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0007531355222908376</v>
+        <v>0.0009965813243461019</v>
       </c>
       <c r="M12" t="n">
-        <v>8.701924154609687</v>
+        <v>8.689552201786411</v>
       </c>
       <c r="N12" t="n">
-        <v>131.5077102311131</v>
+        <v>131.1535222766865</v>
       </c>
       <c r="O12" t="n">
-        <v>11.4676811183043</v>
+        <v>11.45222783028204</v>
       </c>
       <c r="P12" t="n">
-        <v>309.5067072333179</v>
+        <v>309.4477138270851</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -33776,28 +33948,28 @@
         <v>0.051</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4528746812142611</v>
+        <v>0.4575240999459106</v>
       </c>
       <c r="J13" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K13" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1081170224281803</v>
+        <v>0.1110173796644902</v>
       </c>
       <c r="M13" t="n">
-        <v>7.488502196045262</v>
+        <v>7.480030989880277</v>
       </c>
       <c r="N13" t="n">
-        <v>91.68481868356217</v>
+        <v>91.42509654728822</v>
       </c>
       <c r="O13" t="n">
-        <v>9.575218988804494</v>
+        <v>9.561647167056952</v>
       </c>
       <c r="P13" t="n">
-        <v>308.3635102116958</v>
+        <v>308.3192304981603</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -33848,28 +34020,28 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>0.6038676368104012</v>
+        <v>0.6051499567782705</v>
       </c>
       <c r="J14" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K14" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2437239728779002</v>
+        <v>0.2463436177940782</v>
       </c>
       <c r="M14" t="n">
-        <v>6.106989927301086</v>
+        <v>6.089933176999467</v>
       </c>
       <c r="N14" t="n">
-        <v>61.91753031625201</v>
+        <v>61.69194632258517</v>
       </c>
       <c r="O14" t="n">
-        <v>7.868769301247306</v>
+        <v>7.854422087116606</v>
       </c>
       <c r="P14" t="n">
-        <v>312.5472485898989</v>
+        <v>312.5352434210698</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -33926,28 +34098,28 @@
         <v>0.0405</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7696414267365163</v>
+        <v>0.7663909784250144</v>
       </c>
       <c r="J15" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K15" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3200032713637793</v>
+        <v>0.3200445504030316</v>
       </c>
       <c r="M15" t="n">
-        <v>6.567021558666028</v>
+        <v>6.555281804131049</v>
       </c>
       <c r="N15" t="n">
-        <v>68.91824435148335</v>
+        <v>68.72558408279525</v>
       </c>
       <c r="O15" t="n">
-        <v>8.301701292595594</v>
+        <v>8.290089509938674</v>
       </c>
       <c r="P15" t="n">
-        <v>318.2280095882323</v>
+        <v>318.2587161019165</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -34004,28 +34176,28 @@
         <v>0.0471</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8814796356937785</v>
+        <v>0.8750095010295741</v>
       </c>
       <c r="J16" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K16" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L16" t="n">
-        <v>0.4381564186610901</v>
+        <v>0.4357556090747692</v>
       </c>
       <c r="M16" t="n">
-        <v>5.672749955604521</v>
+        <v>5.676936561819956</v>
       </c>
       <c r="N16" t="n">
-        <v>53.00044380723429</v>
+        <v>53.04803592939429</v>
       </c>
       <c r="O16" t="n">
-        <v>7.280140370022703</v>
+        <v>7.283408263264822</v>
       </c>
       <c r="P16" t="n">
-        <v>323.6055327519519</v>
+        <v>323.667664449886</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -34082,28 +34254,28 @@
         <v>0.0308</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9379299788904469</v>
+        <v>0.9206890246236304</v>
       </c>
       <c r="J17" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K17" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3246798988522785</v>
+        <v>0.3184683016823044</v>
       </c>
       <c r="M17" t="n">
-        <v>8.02063027111797</v>
+        <v>8.040312481128126</v>
       </c>
       <c r="N17" t="n">
-        <v>97.68357688368147</v>
+        <v>97.91106341632835</v>
       </c>
       <c r="O17" t="n">
-        <v>9.883500234415006</v>
+        <v>9.895001941198817</v>
       </c>
       <c r="P17" t="n">
-        <v>317.144529676946</v>
+        <v>317.3105658770482</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -34160,28 +34332,28 @@
         <v>0.0319</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9431753399485386</v>
+        <v>0.9269522672412195</v>
       </c>
       <c r="J18" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K18" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3337044515628631</v>
+        <v>0.3278297302619666</v>
       </c>
       <c r="M18" t="n">
-        <v>7.920209365335352</v>
+        <v>7.933624920913957</v>
       </c>
       <c r="N18" t="n">
-        <v>95.37242290735817</v>
+        <v>95.58180315550293</v>
       </c>
       <c r="O18" t="n">
-        <v>9.765880549513094</v>
+        <v>9.776594660489046</v>
       </c>
       <c r="P18" t="n">
-        <v>313.0965990114122</v>
+        <v>313.2536453313835</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -34238,28 +34410,28 @@
         <v>0.0353</v>
       </c>
       <c r="I19" t="n">
-        <v>1.018200864327564</v>
+        <v>1.017223997914827</v>
       </c>
       <c r="J19" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K19" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3520696694737239</v>
+        <v>0.3530414242468802</v>
       </c>
       <c r="M19" t="n">
-        <v>8.019857209809345</v>
+        <v>8.050891987136175</v>
       </c>
       <c r="N19" t="n">
-        <v>102.199398423952</v>
+        <v>102.5821731978245</v>
       </c>
       <c r="O19" t="n">
-        <v>10.10937181153962</v>
+        <v>10.12828579759796</v>
       </c>
       <c r="P19" t="n">
-        <v>310.7680087838851</v>
+        <v>310.7776543894548</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -34316,28 +34488,28 @@
         <v>0.0365</v>
       </c>
       <c r="I20" t="n">
-        <v>1.007084587800267</v>
+        <v>0.9973342793977812</v>
       </c>
       <c r="J20" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K20" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L20" t="n">
-        <v>0.4490684754892874</v>
+        <v>0.4441898066926934</v>
       </c>
       <c r="M20" t="n">
-        <v>6.502694708470444</v>
+        <v>6.526604660976205</v>
       </c>
       <c r="N20" t="n">
-        <v>65.48870253317554</v>
+        <v>65.84436769583506</v>
       </c>
       <c r="O20" t="n">
-        <v>8.092509038189302</v>
+        <v>8.114454245100841</v>
       </c>
       <c r="P20" t="n">
-        <v>310.4541463367515</v>
+        <v>310.5508959170608</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -34394,28 +34566,28 @@
         <v>0.0375</v>
       </c>
       <c r="I21" t="n">
-        <v>1.065641126153753</v>
+        <v>1.053470058703013</v>
       </c>
       <c r="J21" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K21" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L21" t="n">
-        <v>0.4814645283453982</v>
+        <v>0.4743583996456476</v>
       </c>
       <c r="M21" t="n">
-        <v>6.310984626971758</v>
+        <v>6.343984317840921</v>
       </c>
       <c r="N21" t="n">
-        <v>64.27123247791806</v>
+        <v>64.96030989172067</v>
       </c>
       <c r="O21" t="n">
-        <v>8.01693410712088</v>
+        <v>8.059795896405856</v>
       </c>
       <c r="P21" t="n">
-        <v>311.4953070721743</v>
+        <v>311.6157664634945</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -34472,28 +34644,28 @@
         <v>0.0363</v>
       </c>
       <c r="I22" t="n">
-        <v>1.048034069901823</v>
+        <v>1.042279470513915</v>
       </c>
       <c r="J22" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K22" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L22" t="n">
-        <v>0.4465428913529181</v>
+        <v>0.445210926418822</v>
       </c>
       <c r="M22" t="n">
-        <v>6.472154998158996</v>
+        <v>6.481591118852077</v>
       </c>
       <c r="N22" t="n">
-        <v>71.53968952061381</v>
+        <v>71.50225451938974</v>
       </c>
       <c r="O22" t="n">
-        <v>8.458113827598551</v>
+        <v>8.455900574119219</v>
       </c>
       <c r="P22" t="n">
-        <v>311.2341028157176</v>
+        <v>311.2911183521601</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -34550,28 +34722,28 @@
         <v>0.032</v>
       </c>
       <c r="I23" t="n">
-        <v>1.081765888904691</v>
+        <v>1.090632818499789</v>
       </c>
       <c r="J23" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K23" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L23" t="n">
-        <v>0.4484042952608618</v>
+        <v>0.4526803967541232</v>
       </c>
       <c r="M23" t="n">
-        <v>6.859996336612491</v>
+        <v>6.888309780345158</v>
       </c>
       <c r="N23" t="n">
-        <v>75.51666939755444</v>
+        <v>76.23393328479304</v>
       </c>
       <c r="O23" t="n">
-        <v>8.690032761592699</v>
+        <v>8.731204572382499</v>
       </c>
       <c r="P23" t="n">
-        <v>307.2090171210442</v>
+        <v>307.1216186749138</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -34628,28 +34800,28 @@
         <v>0.031</v>
       </c>
       <c r="I24" t="n">
-        <v>1.14307876728046</v>
+        <v>1.133957319956632</v>
       </c>
       <c r="J24" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K24" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L24" t="n">
-        <v>0.4771183282489203</v>
+        <v>0.4736751635084248</v>
       </c>
       <c r="M24" t="n">
-        <v>6.796998811468264</v>
+        <v>6.82047775126014</v>
       </c>
       <c r="N24" t="n">
-        <v>74.64875233013292</v>
+        <v>74.88201802221231</v>
       </c>
       <c r="O24" t="n">
-        <v>8.639950944891581</v>
+        <v>8.653439664215167</v>
       </c>
       <c r="P24" t="n">
-        <v>304.2391932512356</v>
+        <v>304.3297280995336</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -34706,28 +34878,28 @@
         <v>0.0313</v>
       </c>
       <c r="I25" t="n">
-        <v>1.076547878777904</v>
+        <v>1.067842985848173</v>
       </c>
       <c r="J25" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K25" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L25" t="n">
-        <v>0.4440201848828559</v>
+        <v>0.4408211249550034</v>
       </c>
       <c r="M25" t="n">
-        <v>6.875419695275855</v>
+        <v>6.890242814737549</v>
       </c>
       <c r="N25" t="n">
-        <v>75.40362667964649</v>
+        <v>75.57459368126722</v>
       </c>
       <c r="O25" t="n">
-        <v>8.683526166232614</v>
+        <v>8.693364922817127</v>
       </c>
       <c r="P25" t="n">
-        <v>305.1463479380294</v>
+        <v>305.2324918693494</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -34784,28 +34956,28 @@
         <v>0.0318</v>
       </c>
       <c r="I26" t="n">
-        <v>1.085576639044928</v>
+        <v>1.077357853805246</v>
       </c>
       <c r="J26" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K26" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L26" t="n">
-        <v>0.4204761105804775</v>
+        <v>0.4177353856562162</v>
       </c>
       <c r="M26" t="n">
-        <v>7.369001351118949</v>
+        <v>7.381373832184646</v>
       </c>
       <c r="N26" t="n">
-        <v>85.43995500367605</v>
+        <v>85.55317255910232</v>
       </c>
       <c r="O26" t="n">
-        <v>9.243373572656038</v>
+        <v>9.249495800264052</v>
       </c>
       <c r="P26" t="n">
-        <v>306.3620146318803</v>
+        <v>306.4431091550134</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -34862,28 +35034,28 @@
         <v>0.0315</v>
       </c>
       <c r="I27" t="n">
-        <v>1.068114574123755</v>
+        <v>1.060233697098807</v>
       </c>
       <c r="J27" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K27" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L27" t="n">
-        <v>0.4154737536223931</v>
+        <v>0.4129193331036474</v>
       </c>
       <c r="M27" t="n">
-        <v>7.211126635971215</v>
+        <v>7.222234081161514</v>
       </c>
       <c r="N27" t="n">
-        <v>84.47400337658553</v>
+        <v>84.55760451365671</v>
       </c>
       <c r="O27" t="n">
-        <v>9.190974016750648</v>
+        <v>9.195520894090595</v>
       </c>
       <c r="P27" t="n">
-        <v>304.0643858046482</v>
+        <v>304.1420930562224</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -34940,28 +35112,28 @@
         <v>0.0315</v>
       </c>
       <c r="I28" t="n">
-        <v>0.9637845166494163</v>
+        <v>0.960747484996926</v>
       </c>
       <c r="J28" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K28" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L28" t="n">
-        <v>0.3456083870159716</v>
+        <v>0.3459615901676185</v>
       </c>
       <c r="M28" t="n">
-        <v>7.63025269093142</v>
+        <v>7.61769664052172</v>
       </c>
       <c r="N28" t="n">
-        <v>94.08201594677054</v>
+        <v>93.81795518856718</v>
       </c>
       <c r="O28" t="n">
-        <v>9.699588442133539</v>
+        <v>9.685966920683097</v>
       </c>
       <c r="P28" t="n">
-        <v>304.3188971853054</v>
+        <v>304.3486593959582</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -35018,28 +35190,28 @@
         <v>0.0316</v>
       </c>
       <c r="I29" t="n">
-        <v>0.8706997932254151</v>
+        <v>0.8700073206880403</v>
       </c>
       <c r="J29" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K29" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L29" t="n">
-        <v>0.2828009455735444</v>
+        <v>0.2842142966608548</v>
       </c>
       <c r="M29" t="n">
-        <v>8.170608483314799</v>
+        <v>8.145799289008812</v>
       </c>
       <c r="N29" t="n">
-        <v>103.0156698323941</v>
+        <v>102.6634409839011</v>
       </c>
       <c r="O29" t="n">
-        <v>10.14966353296473</v>
+        <v>10.13229692537191</v>
       </c>
       <c r="P29" t="n">
-        <v>305.9600589343538</v>
+        <v>305.9668283438494</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -35096,28 +35268,28 @@
         <v>0.0311</v>
       </c>
       <c r="I30" t="n">
-        <v>0.9174365484375683</v>
+        <v>0.9147940300227111</v>
       </c>
       <c r="J30" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K30" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L30" t="n">
-        <v>0.3001104969252121</v>
+        <v>0.3005956635787377</v>
       </c>
       <c r="M30" t="n">
-        <v>8.020385787404313</v>
+        <v>8.006062757592264</v>
       </c>
       <c r="N30" t="n">
-        <v>104.6831175947585</v>
+        <v>104.3659981502298</v>
       </c>
       <c r="O30" t="n">
-        <v>10.23147680419393</v>
+        <v>10.21596780291666</v>
       </c>
       <c r="P30" t="n">
-        <v>298.6356741974616</v>
+        <v>298.6616925397611</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -35174,28 +35346,28 @@
         <v>0.0306</v>
       </c>
       <c r="I31" t="n">
-        <v>0.8066239914017883</v>
+        <v>0.8065120445420287</v>
       </c>
       <c r="J31" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K31" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L31" t="n">
-        <v>0.2187594873232314</v>
+        <v>0.2202439178929435</v>
       </c>
       <c r="M31" t="n">
-        <v>8.635957886190022</v>
+        <v>8.605202407303388</v>
       </c>
       <c r="N31" t="n">
-        <v>123.6890499117875</v>
+        <v>123.2409758393764</v>
       </c>
       <c r="O31" t="n">
-        <v>11.12155789050201</v>
+        <v>11.10139522039354</v>
       </c>
       <c r="P31" t="n">
-        <v>293.8410006327011</v>
+        <v>293.8421038641778</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -35233,7 +35405,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF311"/>
+  <dimension ref="A1:AF313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80015,7 +80187,11 @@
           <t>-37.57543421321596,178.29163090888446</t>
         </is>
       </c>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>-37.57612346319812,178.2927532444698</t>
+        </is>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>-37.57682480167063,178.29337944215385</t>
@@ -80391,6 +80567,222 @@
         </is>
       </c>
     </row>
+    <row r="312">
+      <c r="A312" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-03 21:53:26+00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr"/>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>-37.57120245008121,178.294747338526</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr"/>
+      <c r="E312" t="inlineStr"/>
+      <c r="F312" t="inlineStr"/>
+      <c r="G312" t="inlineStr"/>
+      <c r="H312" t="inlineStr"/>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
+      <c r="L312" t="inlineStr"/>
+      <c r="M312" t="inlineStr"/>
+      <c r="N312" t="inlineStr"/>
+      <c r="O312" t="inlineStr"/>
+      <c r="P312" t="inlineStr"/>
+      <c r="Q312" t="inlineStr">
+        <is>
+          <t>-37.58113328291186,178.29398385871394</t>
+        </is>
+      </c>
+      <c r="R312" t="inlineStr">
+        <is>
+          <t>-37.58181592066529,178.29423877255445</t>
+        </is>
+      </c>
+      <c r="S312" t="inlineStr">
+        <is>
+          <t>-37.58244010449733,178.29471221667384</t>
+        </is>
+      </c>
+      <c r="T312" t="inlineStr"/>
+      <c r="U312" t="inlineStr"/>
+      <c r="V312" t="inlineStr"/>
+      <c r="W312" t="inlineStr">
+        <is>
+          <t>-37.58512341675991,178.29592079882923</t>
+        </is>
+      </c>
+      <c r="X312" t="inlineStr"/>
+      <c r="Y312" t="inlineStr"/>
+      <c r="Z312" t="inlineStr"/>
+      <c r="AA312" t="inlineStr"/>
+      <c r="AB312" t="inlineStr"/>
+      <c r="AC312" t="inlineStr"/>
+      <c r="AD312" t="inlineStr"/>
+      <c r="AE312" t="inlineStr"/>
+      <c r="AF312" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-11 21:53:24+00:00</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>-37.57044158135571,178.29450818470926</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr"/>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>-37.571819918776924,178.29404339483372</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>-37.572510989731065,178.29382357419038</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>-37.573197186798204,178.29357174050247</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>-37.57392999852533,178.29332439180084</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr"/>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>-37.575439874851995,178.29134774900638</t>
+        </is>
+      </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>-37.576119501032515,178.29295128849276</t>
+        </is>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>-37.57682695622162,178.2932931934142</t>
+        </is>
+      </c>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>-37.57754980838695,178.29335237413974</t>
+        </is>
+      </c>
+      <c r="M313" t="inlineStr">
+        <is>
+          <t>-37.57826430287814,178.2934922323531</t>
+        </is>
+      </c>
+      <c r="N313" t="inlineStr">
+        <is>
+          <t>-37.57897145480406,178.29359190274408</t>
+        </is>
+      </c>
+      <c r="O313" t="inlineStr">
+        <is>
+          <t>-37.57968315915288,178.29369150850428</t>
+        </is>
+      </c>
+      <c r="P313" t="inlineStr">
+        <is>
+          <t>-37.58040596114214,178.29382759762493</t>
+        </is>
+      </c>
+      <c r="Q313" t="inlineStr">
+        <is>
+          <t>-37.581125780203315,178.29401191067421</t>
+        </is>
+      </c>
+      <c r="R313" t="inlineStr">
+        <is>
+          <t>-37.581828749800046,178.29419080544102</t>
+        </is>
+      </c>
+      <c r="S313" t="inlineStr">
+        <is>
+          <t>-37.5825120400273,178.29444325627608</t>
+        </is>
+      </c>
+      <c r="T313" t="inlineStr">
+        <is>
+          <t>-37.58319585583145,178.29469371860623</t>
+        </is>
+      </c>
+      <c r="U313" t="inlineStr">
+        <is>
+          <t>-37.583888513362055,178.2949429960578</t>
+        </is>
+      </c>
+      <c r="V313" t="inlineStr">
+        <is>
+          <t>-37.584549025758086,178.29532975452167</t>
+        </is>
+      </c>
+      <c r="W313" t="inlineStr">
+        <is>
+          <t>-37.58521623362643,178.29567494311328</t>
+        </is>
+      </c>
+      <c r="X313" t="inlineStr">
+        <is>
+          <t>-37.58589822948763,178.29595559590354</t>
+        </is>
+      </c>
+      <c r="Y313" t="inlineStr">
+        <is>
+          <t>-37.586552316146985,178.29631037901945</t>
+        </is>
+      </c>
+      <c r="Z313" t="inlineStr">
+        <is>
+          <t>-37.58720970394585,178.29668933370235</t>
+        </is>
+      </c>
+      <c r="AA313" t="inlineStr">
+        <is>
+          <t>-37.58786191531189,178.29708644576547</t>
+        </is>
+      </c>
+      <c r="AB313" t="inlineStr">
+        <is>
+          <t>-37.588476634978015,178.29753821509195</t>
+        </is>
+      </c>
+      <c r="AC313" t="inlineStr">
+        <is>
+          <t>-37.58911335387069,178.29798630614349</t>
+        </is>
+      </c>
+      <c r="AD313" t="inlineStr">
+        <is>
+          <t>-37.58977060471076,178.29843977514523</t>
+        </is>
+      </c>
+      <c r="AE313" t="inlineStr">
+        <is>
+          <t>-37.590354249570986,178.29899448110655</t>
+        </is>
+      </c>
+      <c r="AF313" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0209/nzd0209.xlsx
+++ b/data/nzd0209/nzd0209.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF313"/>
+  <dimension ref="A1:AF315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29665,7 +29665,9 @@
       <c r="B313" t="n">
         <v>325.58</v>
       </c>
-      <c r="C313" t="inlineStr"/>
+      <c r="C313" t="n">
+        <v>323.44</v>
+      </c>
       <c r="D313" t="n">
         <v>319.9642857142857</v>
       </c>
@@ -29749,6 +29751,210 @@
         <v>314.65</v>
       </c>
       <c r="AF313" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-12 21:53:43+00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>345.48</v>
+      </c>
+      <c r="C314" t="n">
+        <v>337.8566666666667</v>
+      </c>
+      <c r="D314" t="n">
+        <v>327.0057142857143</v>
+      </c>
+      <c r="E314" t="n">
+        <v>324.1566666666667</v>
+      </c>
+      <c r="F314" t="n">
+        <v>320.5466666666667</v>
+      </c>
+      <c r="G314" t="n">
+        <v>319.2857142857143</v>
+      </c>
+      <c r="H314" t="n">
+        <v>296.2657142857143</v>
+      </c>
+      <c r="I314" t="n">
+        <v>161.0557142857143</v>
+      </c>
+      <c r="J314" t="n">
+        <v>298.74</v>
+      </c>
+      <c r="K314" t="n">
+        <v>313.05</v>
+      </c>
+      <c r="L314" t="n">
+        <v>333.06</v>
+      </c>
+      <c r="M314" t="n">
+        <v>333.0077777777778</v>
+      </c>
+      <c r="N314" t="n">
+        <v>336.0858823529412</v>
+      </c>
+      <c r="O314" t="n">
+        <v>346.3</v>
+      </c>
+      <c r="P314" t="n">
+        <v>351.0577777777777</v>
+      </c>
+      <c r="Q314" t="n">
+        <v>355.1366666666667</v>
+      </c>
+      <c r="R314" t="n">
+        <v>348.8766666666667</v>
+      </c>
+      <c r="S314" t="n">
+        <v>346.1766666666667</v>
+      </c>
+      <c r="T314" t="n">
+        <v>341.1857142857143</v>
+      </c>
+      <c r="U314" t="n">
+        <v>341.0457142857143</v>
+      </c>
+      <c r="V314" t="n">
+        <v>346.0057142857143</v>
+      </c>
+      <c r="W314" t="n">
+        <v>342.1066666666667</v>
+      </c>
+      <c r="X314" t="n">
+        <v>338.9066666666667</v>
+      </c>
+      <c r="Y314" t="n">
+        <v>339.0666666666667</v>
+      </c>
+      <c r="Z314" t="n">
+        <v>344.0466666666667</v>
+      </c>
+      <c r="AA314" t="n">
+        <v>342.2766666666667</v>
+      </c>
+      <c r="AB314" t="n">
+        <v>340.3566666666667</v>
+      </c>
+      <c r="AC314" t="n">
+        <v>340.4366666666667</v>
+      </c>
+      <c r="AD314" t="n">
+        <v>331.6766666666667</v>
+      </c>
+      <c r="AE314" t="n">
+        <v>322.4566666666667</v>
+      </c>
+      <c r="AF314" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-28 21:53:47+00:00</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>338.8</v>
+      </c>
+      <c r="C315" t="n">
+        <v>332.0566666666667</v>
+      </c>
+      <c r="D315" t="n">
+        <v>324.11</v>
+      </c>
+      <c r="E315" t="n">
+        <v>317.9666666666667</v>
+      </c>
+      <c r="F315" t="n">
+        <v>314.2466666666667</v>
+      </c>
+      <c r="G315" t="n">
+        <v>311.91</v>
+      </c>
+      <c r="H315" t="n">
+        <v>292.95</v>
+      </c>
+      <c r="I315" t="n">
+        <v>170.14</v>
+      </c>
+      <c r="J315" t="n">
+        <v>300.07</v>
+      </c>
+      <c r="K315" t="n">
+        <v>309.38</v>
+      </c>
+      <c r="L315" t="n">
+        <v>322.9</v>
+      </c>
+      <c r="M315" t="n">
+        <v>329.4644444444444</v>
+      </c>
+      <c r="N315" t="n">
+        <v>333.9864705882353</v>
+      </c>
+      <c r="O315" t="n">
+        <v>343.54</v>
+      </c>
+      <c r="P315" t="n">
+        <v>342.0944444444444</v>
+      </c>
+      <c r="Q315" t="n">
+        <v>345.0666666666667</v>
+      </c>
+      <c r="R315" t="n">
+        <v>336.4366666666667</v>
+      </c>
+      <c r="S315" t="n">
+        <v>339.8866666666667</v>
+      </c>
+      <c r="T315" t="n">
+        <v>333.25</v>
+      </c>
+      <c r="U315" t="n">
+        <v>333.81</v>
+      </c>
+      <c r="V315" t="n">
+        <v>336.3</v>
+      </c>
+      <c r="W315" t="n">
+        <v>337.3466666666667</v>
+      </c>
+      <c r="X315" t="n">
+        <v>335.2766666666667</v>
+      </c>
+      <c r="Y315" t="n">
+        <v>331.8166666666667</v>
+      </c>
+      <c r="Z315" t="n">
+        <v>337.0866666666667</v>
+      </c>
+      <c r="AA315" t="n">
+        <v>332.8866666666667</v>
+      </c>
+      <c r="AB315" t="n">
+        <v>330.5566666666667</v>
+      </c>
+      <c r="AC315" t="n">
+        <v>335.8466666666667</v>
+      </c>
+      <c r="AD315" t="n">
+        <v>326.9166666666667</v>
+      </c>
+      <c r="AE315" t="n">
+        <v>316.9266666666667</v>
+      </c>
+      <c r="AF315" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -29765,7 +29971,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B315"/>
+  <dimension ref="A1:B317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32923,6 +33129,26 @@
       </c>
       <c r="B315" t="n">
         <v>0.06</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>2025-08-12 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>2025-08-28 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>0.5600000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -33096,28 +33322,28 @@
         <v>0.0306</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.243728500017719</v>
+        <v>-2.233898816165972</v>
       </c>
       <c r="J2" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K2" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5391943665005562</v>
+        <v>0.5410918070938138</v>
       </c>
       <c r="M2" t="n">
-        <v>11.81709006958603</v>
+        <v>11.76728116811648</v>
       </c>
       <c r="N2" t="n">
-        <v>229.7320263776619</v>
+        <v>228.2951421437672</v>
       </c>
       <c r="O2" t="n">
-        <v>15.15691348453444</v>
+        <v>15.10943884278193</v>
       </c>
       <c r="P2" t="n">
-        <v>394.5570020785711</v>
+        <v>394.4571067094574</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33174,28 +33400,28 @@
         <v>0.0347</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.958742316648147</v>
+        <v>-1.959981201719062</v>
       </c>
       <c r="J3" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K3" t="n">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5254224579581429</v>
+        <v>0.5320194148853283</v>
       </c>
       <c r="M3" t="n">
-        <v>10.82539939534298</v>
+        <v>10.75720981918881</v>
       </c>
       <c r="N3" t="n">
-        <v>187.8562500926752</v>
+        <v>186.0520246561155</v>
       </c>
       <c r="O3" t="n">
-        <v>13.70606617861869</v>
+        <v>13.64008888006656</v>
       </c>
       <c r="P3" t="n">
-        <v>382.6786867475737</v>
+        <v>382.6907739207086</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33252,28 +33478,28 @@
         <v>0.0392</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.493434974226167</v>
+        <v>-1.497045919255789</v>
       </c>
       <c r="J4" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K4" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4349469788151421</v>
+        <v>0.4409399144111453</v>
       </c>
       <c r="M4" t="n">
-        <v>9.459588903022473</v>
+        <v>9.39717562427057</v>
       </c>
       <c r="N4" t="n">
-        <v>155.1552962625606</v>
+        <v>153.8979882086837</v>
       </c>
       <c r="O4" t="n">
-        <v>12.45613488456835</v>
+        <v>12.40556279290398</v>
       </c>
       <c r="P4" t="n">
-        <v>366.5851341990924</v>
+        <v>366.6214795415092</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33330,28 +33556,28 @@
         <v>0.0351</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.076020612859658</v>
+        <v>-1.082219844321949</v>
       </c>
       <c r="J5" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K5" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2339901723301002</v>
+        <v>0.2395093371766742</v>
       </c>
       <c r="M5" t="n">
-        <v>10.37353991716393</v>
+        <v>10.31840334745477</v>
       </c>
       <c r="N5" t="n">
-        <v>198.9183569427985</v>
+        <v>197.4268556117704</v>
       </c>
       <c r="O5" t="n">
-        <v>14.10384192136308</v>
+        <v>14.05086672101655</v>
       </c>
       <c r="P5" t="n">
-        <v>352.6441918618413</v>
+        <v>352.7073951822788</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33408,28 +33634,28 @@
         <v>0.034</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.7163859727521137</v>
+        <v>-0.7290403892474592</v>
       </c>
       <c r="J6" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K6" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1559559713231117</v>
+        <v>0.1629159966505354</v>
       </c>
       <c r="M6" t="n">
-        <v>9.039346829996109</v>
+        <v>9.027271794580139</v>
       </c>
       <c r="N6" t="n">
-        <v>145.4926686771155</v>
+        <v>144.7648741595041</v>
       </c>
       <c r="O6" t="n">
-        <v>12.06203418487593</v>
+        <v>12.03182754861056</v>
       </c>
       <c r="P6" t="n">
-        <v>343.1905181638716</v>
+        <v>343.3188781601086</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33486,28 +33712,28 @@
         <v>0.0375</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.5062531208992199</v>
+        <v>-0.525474883347166</v>
       </c>
       <c r="J7" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K7" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1113844409209985</v>
+        <v>0.1201176594899639</v>
       </c>
       <c r="M7" t="n">
-        <v>8.05536821311639</v>
+        <v>8.070340843558016</v>
       </c>
       <c r="N7" t="n">
-        <v>108.6296053098217</v>
+        <v>108.7844841222091</v>
       </c>
       <c r="O7" t="n">
-        <v>10.42255272521189</v>
+        <v>10.42998006336585</v>
       </c>
       <c r="P7" t="n">
-        <v>339.6194810088871</v>
+        <v>339.8109801153332</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33564,28 +33790,28 @@
         <v>0.0363</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3008710744018497</v>
+        <v>-0.3335792612269644</v>
       </c>
       <c r="J8" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K8" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03376899210778206</v>
+        <v>0.04123741188230001</v>
       </c>
       <c r="M8" t="n">
-        <v>8.573651863241974</v>
+        <v>8.644344586989787</v>
       </c>
       <c r="N8" t="n">
-        <v>138.6875583919578</v>
+        <v>140.3014901706092</v>
       </c>
       <c r="O8" t="n">
-        <v>11.77656819247262</v>
+        <v>11.84489299954243</v>
       </c>
       <c r="P8" t="n">
-        <v>320.9474457605875</v>
+        <v>321.2673360863286</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33642,28 +33868,28 @@
         <v>0.0362</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.382291805676749</v>
+        <v>-1.606587983010888</v>
       </c>
       <c r="J9" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K9" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1485090207863325</v>
+        <v>0.167026464447584</v>
       </c>
       <c r="M9" t="n">
-        <v>13.75405691062477</v>
+        <v>15.28590026528268</v>
       </c>
       <c r="N9" t="n">
-        <v>590.8028799941012</v>
+        <v>704.1518675775479</v>
       </c>
       <c r="O9" t="n">
-        <v>24.30643700738759</v>
+        <v>26.53586003086291</v>
       </c>
       <c r="P9" t="n">
-        <v>320.1624908693243</v>
+        <v>322.3122331848259</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33720,28 +33946,28 @@
         <v>0.0436</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.9561441005534762</v>
+        <v>-0.930858213111232</v>
       </c>
       <c r="J10" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K10" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1575634235099865</v>
+        <v>0.1526638387611241</v>
       </c>
       <c r="M10" t="n">
-        <v>11.57324358834386</v>
+        <v>11.57458958198779</v>
       </c>
       <c r="N10" t="n">
-        <v>261.5724917131881</v>
+        <v>260.9157636232405</v>
       </c>
       <c r="O10" t="n">
-        <v>16.17320288975527</v>
+        <v>16.15288716060508</v>
       </c>
       <c r="P10" t="n">
-        <v>310.6000270732793</v>
+        <v>310.3553981142697</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33792,28 +34018,28 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>-0.4066879719772</v>
+        <v>-0.3798693306648098</v>
       </c>
       <c r="J11" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K11" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03352723238262023</v>
+        <v>0.02989047156469848</v>
       </c>
       <c r="M11" t="n">
-        <v>11.42438599033681</v>
+        <v>11.41750436408239</v>
       </c>
       <c r="N11" t="n">
-        <v>255.0042004072554</v>
+        <v>254.3786687607131</v>
       </c>
       <c r="O11" t="n">
-        <v>15.9688509419825</v>
+        <v>15.94925292171119</v>
       </c>
       <c r="P11" t="n">
-        <v>308.1582700588395</v>
+        <v>307.9036141896952</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33870,28 +34096,28 @@
         <v>0.0446</v>
       </c>
       <c r="I12" t="n">
-        <v>0.04880397457092506</v>
+        <v>0.07913980952175584</v>
       </c>
       <c r="J12" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K12" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0009965813243461019</v>
+        <v>0.002619506679090944</v>
       </c>
       <c r="M12" t="n">
-        <v>8.689552201786411</v>
+        <v>8.733425610521707</v>
       </c>
       <c r="N12" t="n">
-        <v>131.1535222766865</v>
+        <v>132.6796715185697</v>
       </c>
       <c r="O12" t="n">
-        <v>11.45222783028204</v>
+        <v>11.51866622133699</v>
       </c>
       <c r="P12" t="n">
-        <v>309.4477138270851</v>
+        <v>309.1572713406049</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -33948,28 +34174,28 @@
         <v>0.051</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4575240999459106</v>
+        <v>0.4764612793573527</v>
       </c>
       <c r="J13" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K13" t="n">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1110173796644902</v>
+        <v>0.1203592332256607</v>
       </c>
       <c r="M13" t="n">
-        <v>7.480030989880277</v>
+        <v>7.508086522759367</v>
       </c>
       <c r="N13" t="n">
-        <v>91.42509654728822</v>
+        <v>91.65733717853428</v>
       </c>
       <c r="O13" t="n">
-        <v>9.561647167056952</v>
+        <v>9.573783848538376</v>
       </c>
       <c r="P13" t="n">
-        <v>308.3192304981603</v>
+        <v>308.1381066313314</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -34020,28 +34246,28 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>0.6051499567782705</v>
+        <v>0.6160680912633663</v>
       </c>
       <c r="J14" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K14" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2463436177940782</v>
+        <v>0.2557844764488737</v>
       </c>
       <c r="M14" t="n">
-        <v>6.089933176999467</v>
+        <v>6.096357774924321</v>
       </c>
       <c r="N14" t="n">
-        <v>61.69194632258517</v>
+        <v>61.56641358726736</v>
       </c>
       <c r="O14" t="n">
-        <v>7.854422087116606</v>
+        <v>7.846426803792116</v>
       </c>
       <c r="P14" t="n">
-        <v>312.5352434210698</v>
+        <v>312.432591655015</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -34098,28 +34324,28 @@
         <v>0.0405</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7663909784250144</v>
+        <v>0.7768053046338755</v>
       </c>
       <c r="J15" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K15" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3200445504030316</v>
+        <v>0.3290553893615662</v>
       </c>
       <c r="M15" t="n">
-        <v>6.555281804131049</v>
+        <v>6.563233947436915</v>
       </c>
       <c r="N15" t="n">
-        <v>68.72558408279525</v>
+        <v>68.55440713875183</v>
       </c>
       <c r="O15" t="n">
-        <v>8.290089509938674</v>
+        <v>8.279758881679577</v>
       </c>
       <c r="P15" t="n">
-        <v>318.2587161019165</v>
+        <v>318.1599129009717</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -34176,28 +34402,28 @@
         <v>0.0471</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8750095010295741</v>
+        <v>0.8751250375817068</v>
       </c>
       <c r="J16" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K16" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L16" t="n">
-        <v>0.4357556090747692</v>
+        <v>0.4397688816680864</v>
       </c>
       <c r="M16" t="n">
-        <v>5.676936561819956</v>
+        <v>5.668713363709992</v>
       </c>
       <c r="N16" t="n">
-        <v>53.04803592939429</v>
+        <v>52.81634791513449</v>
       </c>
       <c r="O16" t="n">
-        <v>7.283408263264822</v>
+        <v>7.267485666661785</v>
       </c>
       <c r="P16" t="n">
-        <v>323.667664449886</v>
+        <v>323.6666088055115</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -34254,28 +34480,28 @@
         <v>0.0308</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9206890246236304</v>
+        <v>0.933644529481094</v>
       </c>
       <c r="J17" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K17" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3184683016823044</v>
+        <v>0.3268961145641915</v>
       </c>
       <c r="M17" t="n">
-        <v>8.040312481128126</v>
+        <v>8.046922997766583</v>
       </c>
       <c r="N17" t="n">
-        <v>97.91106341632835</v>
+        <v>97.92995815615852</v>
       </c>
       <c r="O17" t="n">
-        <v>9.895001941198817</v>
+        <v>9.895956656946236</v>
       </c>
       <c r="P17" t="n">
-        <v>317.3105658770482</v>
+        <v>317.1852527305688</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -34332,28 +34558,28 @@
         <v>0.0319</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9269522672412195</v>
+        <v>0.9344395532690098</v>
       </c>
       <c r="J18" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K18" t="n">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3278297302619666</v>
+        <v>0.3341273372600363</v>
       </c>
       <c r="M18" t="n">
-        <v>7.933624920913957</v>
+        <v>7.926054681504472</v>
       </c>
       <c r="N18" t="n">
-        <v>95.58180315550293</v>
+        <v>95.37905428680861</v>
       </c>
       <c r="O18" t="n">
-        <v>9.776594660489046</v>
+        <v>9.766220061354783</v>
       </c>
       <c r="P18" t="n">
-        <v>313.2536453313835</v>
+        <v>313.1808920952247</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -34410,28 +34636,28 @@
         <v>0.0353</v>
       </c>
       <c r="I19" t="n">
-        <v>1.017223997914827</v>
+        <v>1.025344114985374</v>
       </c>
       <c r="J19" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K19" t="n">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3530414242468802</v>
+        <v>0.3598559992447643</v>
       </c>
       <c r="M19" t="n">
-        <v>8.050891987136175</v>
+        <v>8.03426636546758</v>
       </c>
       <c r="N19" t="n">
-        <v>102.5821731978245</v>
+        <v>102.1726880649377</v>
       </c>
       <c r="O19" t="n">
-        <v>10.12828579759796</v>
+        <v>10.10805065603342</v>
       </c>
       <c r="P19" t="n">
-        <v>310.7776543894548</v>
+        <v>310.6977973907651</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -34488,28 +34714,28 @@
         <v>0.0365</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9973342793977812</v>
+        <v>0.9982807036938486</v>
       </c>
       <c r="J20" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K20" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L20" t="n">
-        <v>0.4441898066926934</v>
+        <v>0.4484678648851652</v>
       </c>
       <c r="M20" t="n">
-        <v>6.526604660976205</v>
+        <v>6.509024519347612</v>
       </c>
       <c r="N20" t="n">
-        <v>65.84436769583506</v>
+        <v>65.50406744895389</v>
       </c>
       <c r="O20" t="n">
-        <v>8.114454245100841</v>
+        <v>8.093458312053871</v>
       </c>
       <c r="P20" t="n">
-        <v>310.5508959170608</v>
+        <v>310.5415156284151</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -34566,28 +34792,28 @@
         <v>0.0375</v>
       </c>
       <c r="I21" t="n">
-        <v>1.053470058703013</v>
+        <v>1.051020003357749</v>
       </c>
       <c r="J21" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K21" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L21" t="n">
-        <v>0.4743583996456476</v>
+        <v>0.4770394825789424</v>
       </c>
       <c r="M21" t="n">
-        <v>6.343984317840921</v>
+        <v>6.325697975739955</v>
       </c>
       <c r="N21" t="n">
-        <v>64.96030989172067</v>
+        <v>64.62821118580693</v>
       </c>
       <c r="O21" t="n">
-        <v>8.059795896405856</v>
+        <v>8.039167319182189</v>
       </c>
       <c r="P21" t="n">
-        <v>311.6157664634945</v>
+        <v>311.640168692179</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -34644,28 +34870,28 @@
         <v>0.0363</v>
       </c>
       <c r="I22" t="n">
-        <v>1.042279470513915</v>
+        <v>1.046141938081525</v>
       </c>
       <c r="J22" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K22" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L22" t="n">
-        <v>0.445210926418822</v>
+        <v>0.4505045885789535</v>
       </c>
       <c r="M22" t="n">
-        <v>6.481591118852077</v>
+        <v>6.467545651619592</v>
       </c>
       <c r="N22" t="n">
-        <v>71.50225451938974</v>
+        <v>71.22781986577034</v>
       </c>
       <c r="O22" t="n">
-        <v>8.455900574119219</v>
+        <v>8.439657568039733</v>
       </c>
       <c r="P22" t="n">
-        <v>311.2911183521601</v>
+        <v>311.2527437855435</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -34722,28 +34948,28 @@
         <v>0.032</v>
       </c>
       <c r="I23" t="n">
-        <v>1.090632818499789</v>
+        <v>1.096688260130941</v>
       </c>
       <c r="J23" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K23" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L23" t="n">
-        <v>0.4526803967541232</v>
+        <v>0.4591615750217466</v>
       </c>
       <c r="M23" t="n">
-        <v>6.888309780345158</v>
+        <v>6.864447132192801</v>
       </c>
       <c r="N23" t="n">
-        <v>76.23393328479304</v>
+        <v>75.8705314911619</v>
       </c>
       <c r="O23" t="n">
-        <v>8.731204572382499</v>
+        <v>8.710369193734666</v>
       </c>
       <c r="P23" t="n">
-        <v>307.1216186749138</v>
+        <v>307.0616194092684</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -34800,28 +35026,28 @@
         <v>0.031</v>
       </c>
       <c r="I24" t="n">
-        <v>1.133957319956632</v>
+        <v>1.138723320864778</v>
       </c>
       <c r="J24" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K24" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L24" t="n">
-        <v>0.4736751635084248</v>
+        <v>0.4798390365193146</v>
       </c>
       <c r="M24" t="n">
-        <v>6.82047775126014</v>
+        <v>6.791741288014697</v>
       </c>
       <c r="N24" t="n">
-        <v>74.88201802221231</v>
+        <v>74.45704626063407</v>
       </c>
       <c r="O24" t="n">
-        <v>8.653439664215167</v>
+        <v>8.628849648744268</v>
       </c>
       <c r="P24" t="n">
-        <v>304.3297280995336</v>
+        <v>304.2822420737974</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -34878,28 +35104,28 @@
         <v>0.0313</v>
       </c>
       <c r="I25" t="n">
-        <v>1.067842985848173</v>
+        <v>1.07143009070172</v>
       </c>
       <c r="J25" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K25" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L25" t="n">
-        <v>0.4408211249550034</v>
+        <v>0.4464920391341233</v>
       </c>
       <c r="M25" t="n">
-        <v>6.890242814737549</v>
+        <v>6.867815445894485</v>
       </c>
       <c r="N25" t="n">
-        <v>75.57459368126722</v>
+        <v>75.17833860515178</v>
       </c>
       <c r="O25" t="n">
-        <v>8.693364922817127</v>
+        <v>8.670544308470593</v>
       </c>
       <c r="P25" t="n">
-        <v>305.2324918693494</v>
+        <v>305.1968896896792</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -34956,28 +35182,28 @@
         <v>0.0318</v>
       </c>
       <c r="I26" t="n">
-        <v>1.077357853805246</v>
+        <v>1.086258143125818</v>
       </c>
       <c r="J26" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K26" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L26" t="n">
-        <v>0.4177353856562162</v>
+        <v>0.425046093664139</v>
       </c>
       <c r="M26" t="n">
-        <v>7.381373832184646</v>
+        <v>7.371072313236426</v>
       </c>
       <c r="N26" t="n">
-        <v>85.55317255910232</v>
+        <v>85.29350313935375</v>
       </c>
       <c r="O26" t="n">
-        <v>9.249495800264052</v>
+        <v>9.235448182917478</v>
       </c>
       <c r="P26" t="n">
-        <v>306.4431091550134</v>
+        <v>306.3549509693345</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -35034,28 +35260,28 @@
         <v>0.0315</v>
       </c>
       <c r="I27" t="n">
-        <v>1.060233697098807</v>
+        <v>1.068780310907393</v>
       </c>
       <c r="J27" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K27" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L27" t="n">
-        <v>0.4129193331036474</v>
+        <v>0.4199585372858726</v>
       </c>
       <c r="M27" t="n">
-        <v>7.222234081161514</v>
+        <v>7.211654781557476</v>
       </c>
       <c r="N27" t="n">
-        <v>84.55760451365671</v>
+        <v>84.35443369970089</v>
       </c>
       <c r="O27" t="n">
-        <v>9.195520894090595</v>
+        <v>9.184466979618408</v>
       </c>
       <c r="P27" t="n">
-        <v>304.1420930562224</v>
+        <v>304.0575135181871</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -35112,28 +35338,28 @@
         <v>0.0315</v>
       </c>
       <c r="I28" t="n">
-        <v>0.960747484996926</v>
+        <v>0.9694681095711747</v>
       </c>
       <c r="J28" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K28" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L28" t="n">
-        <v>0.3459615901676185</v>
+        <v>0.3529237923592141</v>
       </c>
       <c r="M28" t="n">
-        <v>7.61769664052172</v>
+        <v>7.607858431790779</v>
       </c>
       <c r="N28" t="n">
-        <v>93.81795518856718</v>
+        <v>93.58729943299086</v>
       </c>
       <c r="O28" t="n">
-        <v>9.685966920683097</v>
+        <v>9.674052895916523</v>
       </c>
       <c r="P28" t="n">
-        <v>304.3486593959582</v>
+        <v>304.2628784743604</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -35190,28 +35416,28 @@
         <v>0.0316</v>
       </c>
       <c r="I29" t="n">
-        <v>0.8700073206880403</v>
+        <v>0.8837960765584368</v>
       </c>
       <c r="J29" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K29" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L29" t="n">
-        <v>0.2842142966608548</v>
+        <v>0.2928974237090386</v>
       </c>
       <c r="M29" t="n">
-        <v>8.145799289008812</v>
+        <v>8.151758929302899</v>
       </c>
       <c r="N29" t="n">
-        <v>102.6634409839011</v>
+        <v>102.5978842470054</v>
       </c>
       <c r="O29" t="n">
-        <v>10.13229692537191</v>
+        <v>10.12906137048273</v>
       </c>
       <c r="P29" t="n">
-        <v>305.9668283438494</v>
+        <v>305.8314575519301</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -35268,28 +35494,28 @@
         <v>0.0311</v>
       </c>
       <c r="I30" t="n">
-        <v>0.9147940300227111</v>
+        <v>0.9246210026746319</v>
       </c>
       <c r="J30" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K30" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L30" t="n">
-        <v>0.3005956635787377</v>
+        <v>0.307997336863447</v>
       </c>
       <c r="M30" t="n">
-        <v>8.006062757592264</v>
+        <v>7.993090850671282</v>
       </c>
       <c r="N30" t="n">
-        <v>104.3659981502298</v>
+        <v>103.9972933797421</v>
       </c>
       <c r="O30" t="n">
-        <v>10.21596780291666</v>
+        <v>10.19790632334609</v>
       </c>
       <c r="P30" t="n">
-        <v>298.6616925397611</v>
+        <v>298.5645312453498</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -35346,28 +35572,28 @@
         <v>0.0306</v>
       </c>
       <c r="I31" t="n">
-        <v>0.8065120445420287</v>
+        <v>0.8138456194736176</v>
       </c>
       <c r="J31" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K31" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L31" t="n">
-        <v>0.2202439178929435</v>
+        <v>0.2261587785376685</v>
       </c>
       <c r="M31" t="n">
-        <v>8.605202407303388</v>
+        <v>8.576354558303562</v>
       </c>
       <c r="N31" t="n">
-        <v>123.2409758393764</v>
+        <v>122.5724450462311</v>
       </c>
       <c r="O31" t="n">
-        <v>11.10139522039354</v>
+        <v>11.07124406045821</v>
       </c>
       <c r="P31" t="n">
-        <v>293.8421038641778</v>
+        <v>293.7695450959008</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -35405,7 +35631,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF313"/>
+  <dimension ref="A1:AF315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80640,7 +80866,11 @@
           <t>-37.57044158135571,178.29450818470926</t>
         </is>
       </c>
-      <c r="C313" t="inlineStr"/>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>-37.571131879791764,178.29428319873475</t>
+        </is>
+      </c>
       <c r="D313" t="inlineStr">
         <is>
           <t>-37.571819918776924,178.29404339483372</t>
@@ -80778,6 +81008,330 @@
         </is>
       </c>
       <c r="AF313" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-12 21:53:43+00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>-37.57047514615746,178.29472893739197</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>-37.571156196171415,178.29444312573028</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>-37.571831795551766,178.2941215075379</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>-37.57252088508824,178.29388865551073</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>-37.57320868460337,178.29364736125927</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>-37.57393669477683,178.2934233270706</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>-37.574690571343936,178.2931435417958</t>
+        </is>
+      </c>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>-37.575434704745796,178.29160632696664</t>
+        </is>
+      </c>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>-37.57611551820152,178.2931503486437</t>
+        </is>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>-37.57682675317762,178.29330132156824</t>
+        </is>
+      </c>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>-37.57754067914148,178.2935276328343</t>
+        </is>
+      </c>
+      <c r="M314" t="inlineStr">
+        <is>
+          <t>-37.57825795726372,178.29357763931367</t>
+        </is>
+      </c>
+      <c r="N314" t="inlineStr">
+        <is>
+          <t>-37.57896618725054,178.2936627993749</t>
+        </is>
+      </c>
+      <c r="O314" t="inlineStr">
+        <is>
+          <t>-37.57967076357156,178.29382808452596</t>
+        </is>
+      </c>
+      <c r="P314" t="inlineStr">
+        <is>
+          <t>-37.58037989726547,178.29396788977277</t>
+        </is>
+      </c>
+      <c r="Q314" t="inlineStr">
+        <is>
+          <t>-37.581057549176165,178.29426701904853</t>
+        </is>
+      </c>
+      <c r="R314" t="inlineStr">
+        <is>
+          <t>-37.581758112967265,178.2944549098524</t>
+        </is>
+      </c>
+      <c r="S314" t="inlineStr">
+        <is>
+          <t>-37.582448476005226,178.29468091650904</t>
+        </is>
+      </c>
+      <c r="T314" t="inlineStr">
+        <is>
+          <t>-37.58314539348878,178.29488239322745</t>
+        </is>
+      </c>
+      <c r="U314" t="inlineStr">
+        <is>
+          <t>-37.58383228225526,178.2951370330154</t>
+        </is>
+      </c>
+      <c r="V314" t="inlineStr">
+        <is>
+          <t>-37.58449411858201,178.2954890904335</t>
+        </is>
+      </c>
+      <c r="W314" t="inlineStr">
+        <is>
+          <t>-37.58516673649326,178.2958060526365</t>
+        </is>
+      </c>
+      <c r="X314" t="inlineStr">
+        <is>
+          <t>-37.58583289653357,178.29612865225093</t>
+        </is>
+      </c>
+      <c r="Y314" t="inlineStr">
+        <is>
+          <t>-37.58648614224094,178.29648556106113</t>
+        </is>
+      </c>
+      <c r="Z314" t="inlineStr">
+        <is>
+          <t>-37.587125066282574,178.2968941031744</t>
+        </is>
+      </c>
+      <c r="AA314" t="inlineStr">
+        <is>
+          <t>-37.58776917972264,178.29729250841763</t>
+        </is>
+      </c>
+      <c r="AB314" t="inlineStr">
+        <is>
+          <t>-37.588409608889215,178.29768715007953</t>
+        </is>
+      </c>
+      <c r="AC314" t="inlineStr">
+        <is>
+          <t>-37.5890504883572,178.29810736671794</t>
+        </is>
+      </c>
+      <c r="AD314" t="inlineStr">
+        <is>
+          <t>-37.58969753939459,178.29855142797257</t>
+        </is>
+      </c>
+      <c r="AE314" t="inlineStr">
+        <is>
+          <t>-37.59030723489819,178.2990599531054</t>
+        </is>
+      </c>
+      <c r="AF314" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-28 21:53:47+00:00</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>-37.57046387922676,178.29465483546954</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>-37.571146413423854,178.29437878514912</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>-37.57182691135813,178.29408938449822</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>-37.57251044436086,178.29381998732256</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>-37.57319805827176,178.29357747214843</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>-37.57393107685171,178.29334032369053</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>-37.574691231213585,178.29310610217112</t>
+        </is>
+      </c>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>-37.57543265376818,178.29170889678684</t>
+        </is>
+      </c>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>-37.57611521772475,178.2931653656577</t>
+        </is>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>-37.57682778813218,178.29325989055982</t>
+        </is>
+      </c>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>-37.57754664400251,178.29341312298183</t>
+        </is>
+      </c>
+      <c r="M315" t="inlineStr">
+        <is>
+          <t>-37.578260917939105,178.29353779106518</t>
+        </is>
+      </c>
+      <c r="N315" t="inlineStr">
+        <is>
+          <t>-37.578967941468,178.2936391892175</t>
+        </is>
+      </c>
+      <c r="O315" t="inlineStr">
+        <is>
+          <t>-37.57967357474415,178.29379711084056</t>
+        </is>
+      </c>
+      <c r="P315" t="inlineStr">
+        <is>
+          <t>-37.58039821397295,178.2938692978557</t>
+        </is>
+      </c>
+      <c r="Q315" t="inlineStr">
+        <is>
+          <t>-37.5810863861076,178.29415920120587</t>
+        </is>
+      </c>
+      <c r="R315" t="inlineStr">
+        <is>
+          <t>-37.58179373690982,178.29432171564414</t>
+        </is>
+      </c>
+      <c r="S315" t="inlineStr">
+        <is>
+          <t>-37.58246648856182,178.29461356937728</t>
+        </is>
+      </c>
+      <c r="T315" t="inlineStr">
+        <is>
+          <t>-37.583168118964835,178.2947974246761</t>
+        </is>
+      </c>
+      <c r="U315" t="inlineStr">
+        <is>
+          <t>-37.58385453833192,178.29506023402422</t>
+        </is>
+      </c>
+      <c r="V315" t="inlineStr">
+        <is>
+          <t>-37.584528787690104,178.2953884837547</t>
+        </is>
+      </c>
+      <c r="W315" t="inlineStr">
+        <is>
+          <t>-37.58518507639106,178.2957574734163</t>
+        </is>
+      </c>
+      <c r="X315" t="inlineStr">
+        <is>
+          <t>-37.585846882711365,178.29609160522477</t>
+        </is>
+      </c>
+      <c r="Y315" t="inlineStr">
+        <is>
+          <t>-37.58651408950217,178.29641157645347</t>
+        </is>
+      </c>
+      <c r="Z315" t="inlineStr">
+        <is>
+          <t>-37.58715390500041,178.29682433190882</t>
+        </is>
+      </c>
+      <c r="AA315" t="inlineStr">
+        <is>
+          <t>-37.58781073156081,178.29720017851966</t>
+        </is>
+      </c>
+      <c r="AB315" t="inlineStr">
+        <is>
+          <t>-37.58845297525999,178.29759078812614</t>
+        </is>
+      </c>
+      <c r="AC315" t="inlineStr">
+        <is>
+          <t>-37.58907303742221,178.29806394386907</t>
+        </is>
+      </c>
+      <c r="AD315" t="inlineStr">
+        <is>
+          <t>-37.58972471764723,178.29850989628798</t>
+        </is>
+      </c>
+      <c r="AE315" t="inlineStr">
+        <is>
+          <t>-37.59034053863412,178.29901357478522</t>
+        </is>
+      </c>
+      <c r="AF315" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0209/nzd0209.xlsx
+++ b/data/nzd0209/nzd0209.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF315"/>
+  <dimension ref="A1:AF317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29960,6 +29960,210 @@
         </is>
       </c>
     </row>
+    <row r="316">
+      <c r="A316" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-29 21:53:57+00:00</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>347.08</v>
+      </c>
+      <c r="C316" t="n">
+        <v>343.2433333333333</v>
+      </c>
+      <c r="D316" t="n">
+        <v>341.2285714285715</v>
+      </c>
+      <c r="E316" t="n">
+        <v>331.5233333333333</v>
+      </c>
+      <c r="F316" t="n">
+        <v>324.6133333333333</v>
+      </c>
+      <c r="G316" t="n">
+        <v>329.0785714285714</v>
+      </c>
+      <c r="H316" t="n">
+        <v>314.7085714285714</v>
+      </c>
+      <c r="I316" t="n">
+        <v>282.3685714285714</v>
+      </c>
+      <c r="J316" t="n">
+        <v>312.83</v>
+      </c>
+      <c r="K316" t="n">
+        <v>319.03</v>
+      </c>
+      <c r="L316" t="n">
+        <v>325.42</v>
+      </c>
+      <c r="M316" t="n">
+        <v>333.0422222222222</v>
+      </c>
+      <c r="N316" t="n">
+        <v>340.3205882352942</v>
+      </c>
+      <c r="O316" t="n">
+        <v>345.38</v>
+      </c>
+      <c r="P316" t="n">
+        <v>355.5022222222222</v>
+      </c>
+      <c r="Q316" t="n">
+        <v>346.0333333333333</v>
+      </c>
+      <c r="R316" t="n">
+        <v>348.4633333333333</v>
+      </c>
+      <c r="S316" t="n">
+        <v>339.4833333333333</v>
+      </c>
+      <c r="T316" t="n">
+        <v>340.0085714285714</v>
+      </c>
+      <c r="U316" t="n">
+        <v>345.1885714285714</v>
+      </c>
+      <c r="V316" t="n">
+        <v>347.7885714285715</v>
+      </c>
+      <c r="W316" t="n">
+        <v>341.8133333333333</v>
+      </c>
+      <c r="X316" t="n">
+        <v>343.9333333333333</v>
+      </c>
+      <c r="Y316" t="n">
+        <v>337.2433333333333</v>
+      </c>
+      <c r="Z316" t="n">
+        <v>343.1533333333333</v>
+      </c>
+      <c r="AA316" t="n">
+        <v>343.6133333333333</v>
+      </c>
+      <c r="AB316" t="n">
+        <v>339.4633333333333</v>
+      </c>
+      <c r="AC316" t="n">
+        <v>341.2233333333333</v>
+      </c>
+      <c r="AD316" t="n">
+        <v>334.3033333333333</v>
+      </c>
+      <c r="AE316" t="n">
+        <v>327.0233333333333</v>
+      </c>
+      <c r="AF316" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-15 21:54:03+00:00</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>351.02</v>
+      </c>
+      <c r="C317" t="n">
+        <v>345.9633333333333</v>
+      </c>
+      <c r="D317" t="n">
+        <v>337.46</v>
+      </c>
+      <c r="E317" t="n">
+        <v>324.7033333333333</v>
+      </c>
+      <c r="F317" t="n">
+        <v>328.8333333333333</v>
+      </c>
+      <c r="G317" t="n">
+        <v>328.04</v>
+      </c>
+      <c r="H317" t="n">
+        <v>314.17</v>
+      </c>
+      <c r="I317" t="n">
+        <v>297.12</v>
+      </c>
+      <c r="J317" t="n">
+        <v>300.1</v>
+      </c>
+      <c r="K317" t="n">
+        <v>306.8</v>
+      </c>
+      <c r="L317" t="n">
+        <v>322.67</v>
+      </c>
+      <c r="M317" t="n">
+        <v>330.7422222222222</v>
+      </c>
+      <c r="N317" t="n">
+        <v>331.2947058823529</v>
+      </c>
+      <c r="O317" t="n">
+        <v>338.02</v>
+      </c>
+      <c r="P317" t="n">
+        <v>350.1822222222222</v>
+      </c>
+      <c r="Q317" t="n">
+        <v>336.0733333333333</v>
+      </c>
+      <c r="R317" t="n">
+        <v>333.7733333333333</v>
+      </c>
+      <c r="S317" t="n">
+        <v>332.8733333333333</v>
+      </c>
+      <c r="T317" t="n">
+        <v>330.43</v>
+      </c>
+      <c r="U317" t="n">
+        <v>339.62</v>
+      </c>
+      <c r="V317" t="n">
+        <v>339.67</v>
+      </c>
+      <c r="W317" t="n">
+        <v>337.0133333333333</v>
+      </c>
+      <c r="X317" t="n">
+        <v>336.2533333333333</v>
+      </c>
+      <c r="Y317" t="n">
+        <v>334.8633333333333</v>
+      </c>
+      <c r="Z317" t="n">
+        <v>338.7933333333333</v>
+      </c>
+      <c r="AA317" t="n">
+        <v>337.1033333333333</v>
+      </c>
+      <c r="AB317" t="n">
+        <v>335.8833333333333</v>
+      </c>
+      <c r="AC317" t="n">
+        <v>342.3233333333333</v>
+      </c>
+      <c r="AD317" t="n">
+        <v>339.2633333333333</v>
+      </c>
+      <c r="AE317" t="n">
+        <v>327.9633333333333</v>
+      </c>
+      <c r="AF317" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -29971,7 +30175,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B317"/>
+  <dimension ref="A1:B319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33149,6 +33353,26 @@
       </c>
       <c r="B317" t="n">
         <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>2025-09-29 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>2025-10-15 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>-0.35</v>
       </c>
     </row>
   </sheetData>
@@ -35631,7 +35855,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF315"/>
+  <dimension ref="A1:AF317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81337,6 +81561,330 @@
         </is>
       </c>
     </row>
+    <row r="316">
+      <c r="A316" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-29 21:53:57+00:00</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>-37.570477844816324,178.29474668635797</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>-37.57116528172492,178.29450288113216</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>-37.57185578507512,178.2942792860667</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>-37.57253331045534,178.29397037696003</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>-37.57321554390562,178.29369247487327</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>-37.57394415369629,178.29353353203183</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>-37.57468690076197,178.29335179059657</t>
+        </is>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>-37.57540730833988,178.2929760577403</t>
+        </is>
+      </c>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>-37.57611233485801,178.29330943864633</t>
+        </is>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>-37.57682506676277,178.2933688303986</t>
+        </is>
+      </c>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>-37.57754516453939,178.29344152503478</t>
+        </is>
+      </c>
+      <c r="M316" t="inlineStr">
+        <is>
+          <t>-37.578257928483175,178.2935780266751</t>
+        </is>
+      </c>
+      <c r="N316" t="inlineStr">
+        <is>
+          <t>-37.578962648819,178.29371042322066</t>
+        </is>
+      </c>
+      <c r="O316" t="inlineStr">
+        <is>
+          <t>-37.57967170062998,178.29381775996453</t>
+        </is>
+      </c>
+      <c r="P316" t="inlineStr">
+        <is>
+          <t>-37.58037081494656,178.29401677628513</t>
+        </is>
+      </c>
+      <c r="Q316" t="inlineStr">
+        <is>
+          <t>-37.58108361791894,178.2941695511518</t>
+        </is>
+      </c>
+      <c r="R316" t="inlineStr">
+        <is>
+          <t>-37.58175929661608,178.29445048432368</t>
+        </is>
+      </c>
+      <c r="S316" t="inlineStr">
+        <is>
+          <t>-37.58246764357879,178.2946092508795</t>
+        </is>
+      </c>
+      <c r="T316" t="inlineStr">
+        <is>
+          <t>-37.58314876447213,178.2948697894352</t>
+        </is>
+      </c>
+      <c r="U316" t="inlineStr">
+        <is>
+          <t>-37.58381953936698,178.2951810047741</t>
+        </is>
+      </c>
+      <c r="V316" t="inlineStr">
+        <is>
+          <t>-37.58448775015318,178.2955075710134</t>
+        </is>
+      </c>
+      <c r="W316" t="inlineStr">
+        <is>
+          <t>-37.585167866683555,178.2958030589598</t>
+        </is>
+      </c>
+      <c r="X316" t="inlineStr">
+        <is>
+          <t>-37.58581352906314,178.29617995334223</t>
+        </is>
+      </c>
+      <c r="Y316" t="inlineStr">
+        <is>
+          <t>-37.586493170820525,178.29646695436313</t>
+        </is>
+      </c>
+      <c r="Z316" t="inlineStr">
+        <is>
+          <t>-37.587128767805936,178.29688514786196</t>
+        </is>
+      </c>
+      <c r="AA316" t="inlineStr">
+        <is>
+          <t>-37.58776326481246,178.29730565157138</t>
+        </is>
+      </c>
+      <c r="AB316" t="inlineStr">
+        <is>
+          <t>-37.58841356201709,178.29767836606965</t>
+        </is>
+      </c>
+      <c r="AC316" t="inlineStr">
+        <is>
+          <t>-37.58904662373754,178.2981148088302</t>
+        </is>
+      </c>
+      <c r="AD316" t="inlineStr">
+        <is>
+          <t>-37.58968254186608,178.29857434600376</t>
+        </is>
+      </c>
+      <c r="AE316" t="inlineStr">
+        <is>
+          <t>-37.5902797327057,178.29909825222904</t>
+        </is>
+      </c>
+      <c r="AF316" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-15 21:54:03+00:00</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>-37.57048449025186,178.2947903931909</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>-37.57116986946769,178.2945330546561</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>-37.57184942869208,178.29423748013724</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>-37.57252180715369,178.29389471990717</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>-37.57322266181832,178.2937392894991</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>-37.57394336265321,178.29352184435714</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>-37.57468700795613,178.29334570928083</t>
+        </is>
+      </c>
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>-37.575403975900976,178.29314261437767</t>
+        </is>
+      </c>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>-37.57611521094706,178.29316570438735</t>
+        </is>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>-37.57682851569371,178.29323076467207</t>
+        </is>
+      </c>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>-37.57754677903253,178.29341053073085</t>
+        </is>
+      </c>
+      <c r="M317" t="inlineStr">
+        <is>
+          <t>-37.578259850277824,178.29355216092642</t>
+        </is>
+      </c>
+      <c r="N317" t="inlineStr">
+        <is>
+          <t>-37.57897019063436,178.29360891740765</t>
+        </is>
+      </c>
+      <c r="O317" t="inlineStr">
+        <is>
+          <t>-37.57967919706532,178.29373516345987</t>
+        </is>
+      </c>
+      <c r="P317" t="inlineStr">
+        <is>
+          <t>-37.58038168648001,178.29395825912817</t>
+        </is>
+      </c>
+      <c r="Q317" t="inlineStr">
+        <is>
+          <t>-37.58111213976669,178.29406291097752</t>
+        </is>
+      </c>
+      <c r="R317" t="inlineStr">
+        <is>
+          <t>-37.58180136377514,178.29429319950214</t>
+        </is>
+      </c>
+      <c r="S317" t="inlineStr">
+        <is>
+          <t>-37.58248657247203,178.29453847746052</t>
+        </is>
+      </c>
+      <c r="T317" t="inlineStr">
+        <is>
+          <t>-37.58317619457468,178.29476723061694</t>
+        </is>
+      </c>
+      <c r="U317" t="inlineStr">
+        <is>
+          <t>-37.58383666756291,178.29512190066146</t>
+        </is>
+      </c>
+      <c r="V317" t="inlineStr">
+        <is>
+          <t>-37.58451674995608,178.2954234162295</t>
+        </is>
+      </c>
+      <c r="W317" t="inlineStr">
+        <is>
+          <t>-37.58518636069694,178.29575407150915</t>
+        </is>
+      </c>
+      <c r="X317" t="inlineStr">
+        <is>
+          <t>-37.58584311967285,178.29610157288343</t>
+        </is>
+      </c>
+      <c r="Y317" t="inlineStr">
+        <is>
+          <t>-37.58650234523297,178.29644266700396</t>
+        </is>
+      </c>
+      <c r="Z317" t="inlineStr">
+        <is>
+          <t>-37.58714683344089,178.296841440577</t>
+        </is>
+      </c>
+      <c r="AA317" t="inlineStr">
+        <is>
+          <t>-37.587792072330195,178.29724164013092</t>
+        </is>
+      </c>
+      <c r="AB317" t="inlineStr">
+        <is>
+          <t>-37.58842940402371,178.29764316446793</t>
+        </is>
+      </c>
+      <c r="AC317" t="inlineStr">
+        <is>
+          <t>-37.58904121981951,178.2981252151722</t>
+        </is>
+      </c>
+      <c r="AD317" t="inlineStr">
+        <is>
+          <t>-37.58965422164962,178.2986176226664</t>
+        </is>
+      </c>
+      <c r="AE317" t="inlineStr">
+        <is>
+          <t>-37.59027407166917,178.29910613569476</t>
+        </is>
+      </c>
+      <c r="AF317" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0209/nzd0209.xlsx
+++ b/data/nzd0209/nzd0209.xlsx
@@ -33546,28 +33546,28 @@
         <v>0.0306</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.233898816165972</v>
+        <v>-2.213001044002137</v>
       </c>
       <c r="J2" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K2" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5410918070938138</v>
+        <v>0.5393850930493371</v>
       </c>
       <c r="M2" t="n">
-        <v>11.76728116811648</v>
+        <v>11.76634816562691</v>
       </c>
       <c r="N2" t="n">
-        <v>228.2951421437672</v>
+        <v>227.8621787943351</v>
       </c>
       <c r="O2" t="n">
-        <v>15.10943884278193</v>
+        <v>15.09510446450554</v>
       </c>
       <c r="P2" t="n">
-        <v>394.4571067094574</v>
+        <v>394.2433858510778</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33624,28 +33624,28 @@
         <v>0.0347</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.959981201719062</v>
+        <v>-1.938855551127599</v>
       </c>
       <c r="J3" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K3" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5320194148853283</v>
+        <v>0.5292905997431461</v>
       </c>
       <c r="M3" t="n">
-        <v>10.75720981918881</v>
+        <v>10.763227731837</v>
       </c>
       <c r="N3" t="n">
-        <v>186.0520246561155</v>
+        <v>185.959313687957</v>
       </c>
       <c r="O3" t="n">
-        <v>13.64008888006656</v>
+        <v>13.63668998283517</v>
       </c>
       <c r="P3" t="n">
-        <v>382.6907739207086</v>
+        <v>382.4786479110117</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33702,28 +33702,28 @@
         <v>0.0392</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.497045919255789</v>
+        <v>-1.476525460822508</v>
       </c>
       <c r="J4" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K4" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4409399144111453</v>
+        <v>0.437046326153435</v>
       </c>
       <c r="M4" t="n">
-        <v>9.39717562427057</v>
+        <v>9.416240504688151</v>
       </c>
       <c r="N4" t="n">
-        <v>153.8979882086837</v>
+        <v>153.8050988992364</v>
       </c>
       <c r="O4" t="n">
-        <v>12.40556279290398</v>
+        <v>12.40181837067599</v>
       </c>
       <c r="P4" t="n">
-        <v>366.6214795415092</v>
+        <v>366.4139436853959</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33780,28 +33780,28 @@
         <v>0.0351</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.082219844321949</v>
+        <v>-1.075682034921825</v>
       </c>
       <c r="J5" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K5" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2395093371766742</v>
+        <v>0.2406969122154596</v>
       </c>
       <c r="M5" t="n">
-        <v>10.31840334745477</v>
+        <v>10.26042341102393</v>
       </c>
       <c r="N5" t="n">
-        <v>197.4268556117704</v>
+        <v>195.9929234678388</v>
       </c>
       <c r="O5" t="n">
-        <v>14.05086672101655</v>
+        <v>13.99974726442727</v>
       </c>
       <c r="P5" t="n">
-        <v>352.7073951822788</v>
+        <v>352.6404848647309</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33858,28 +33858,28 @@
         <v>0.034</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.7290403892474592</v>
+        <v>-0.7246272484121151</v>
       </c>
       <c r="J6" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K6" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1629159966505354</v>
+        <v>0.1639145652465271</v>
       </c>
       <c r="M6" t="n">
-        <v>9.027271794580139</v>
+        <v>8.971006431535672</v>
       </c>
       <c r="N6" t="n">
-        <v>144.7648741595041</v>
+        <v>143.6475236943152</v>
       </c>
       <c r="O6" t="n">
-        <v>12.03182754861056</v>
+        <v>11.98530448901133</v>
       </c>
       <c r="P6" t="n">
-        <v>343.3188781601086</v>
+        <v>343.2738557404812</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33936,28 +33936,28 @@
         <v>0.0375</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.525474883347166</v>
+        <v>-0.5210685679709657</v>
       </c>
       <c r="J7" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K7" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1201176594899639</v>
+        <v>0.1204377752260803</v>
       </c>
       <c r="M7" t="n">
-        <v>8.070340843558016</v>
+        <v>8.025516572366259</v>
       </c>
       <c r="N7" t="n">
-        <v>108.7844841222091</v>
+        <v>107.9352629636558</v>
       </c>
       <c r="O7" t="n">
-        <v>10.42998006336585</v>
+        <v>10.38918971641464</v>
       </c>
       <c r="P7" t="n">
-        <v>339.8109801153332</v>
+        <v>339.7668669806174</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34014,28 +34014,28 @@
         <v>0.0363</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3335792612269644</v>
+        <v>-0.3302480730351269</v>
       </c>
       <c r="J8" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K8" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04123741188230001</v>
+        <v>0.0412533522038383</v>
       </c>
       <c r="M8" t="n">
-        <v>8.644344586989787</v>
+        <v>8.590102663359206</v>
       </c>
       <c r="N8" t="n">
-        <v>140.3014901706092</v>
+        <v>139.1858961617778</v>
       </c>
       <c r="O8" t="n">
-        <v>11.84489299954243</v>
+        <v>11.79770724173887</v>
       </c>
       <c r="P8" t="n">
-        <v>321.2673360863286</v>
+        <v>321.234590365761</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34092,28 +34092,28 @@
         <v>0.0362</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.606587983010888</v>
+        <v>-1.588843206886571</v>
       </c>
       <c r="J9" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K9" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L9" t="n">
-        <v>0.167026464447584</v>
+        <v>0.1668320479523628</v>
       </c>
       <c r="M9" t="n">
-        <v>15.28590026528268</v>
+        <v>15.17922498455942</v>
       </c>
       <c r="N9" t="n">
-        <v>704.1518675775479</v>
+        <v>699.3175327312117</v>
       </c>
       <c r="O9" t="n">
-        <v>26.53586003086291</v>
+        <v>26.44461254643773</v>
       </c>
       <c r="P9" t="n">
-        <v>322.3122331848259</v>
+        <v>322.1411474259951</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34170,28 +34170,28 @@
         <v>0.0436</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.930858213111232</v>
+        <v>-0.8938653446955946</v>
       </c>
       <c r="J10" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K10" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1526638387611241</v>
+        <v>0.1433720717555368</v>
       </c>
       <c r="M10" t="n">
-        <v>11.57458958198779</v>
+        <v>11.62000976378637</v>
       </c>
       <c r="N10" t="n">
-        <v>260.9157636232405</v>
+        <v>262.486229923884</v>
       </c>
       <c r="O10" t="n">
-        <v>16.15288716060508</v>
+        <v>16.20142678667172</v>
       </c>
       <c r="P10" t="n">
-        <v>310.3553981142697</v>
+        <v>309.9957576438943</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34242,28 +34242,28 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>-0.3798693306648098</v>
+        <v>-0.3511359437635758</v>
       </c>
       <c r="J11" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K11" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02989047156469848</v>
+        <v>0.02602905187087168</v>
       </c>
       <c r="M11" t="n">
-        <v>11.41750436408239</v>
+        <v>11.41746956515693</v>
       </c>
       <c r="N11" t="n">
-        <v>254.3786687607131</v>
+        <v>254.3774833669852</v>
       </c>
       <c r="O11" t="n">
-        <v>15.94925292171119</v>
+        <v>15.94921576024932</v>
       </c>
       <c r="P11" t="n">
-        <v>307.9036141896952</v>
+        <v>307.6294565259507</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -34320,28 +34320,28 @@
         <v>0.0446</v>
       </c>
       <c r="I12" t="n">
-        <v>0.07913980952175584</v>
+        <v>0.1012667539668363</v>
       </c>
       <c r="J12" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K12" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002619506679090944</v>
+        <v>0.004328067455776741</v>
       </c>
       <c r="M12" t="n">
-        <v>8.733425610521707</v>
+        <v>8.746653686046287</v>
       </c>
       <c r="N12" t="n">
-        <v>132.6796715185697</v>
+        <v>132.9157424632748</v>
       </c>
       <c r="O12" t="n">
-        <v>11.51866622133699</v>
+        <v>11.52890898842014</v>
       </c>
       <c r="P12" t="n">
-        <v>309.1572713406049</v>
+        <v>308.9442356125769</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -34398,28 +34398,28 @@
         <v>0.051</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4764612793573527</v>
+        <v>0.495547069257723</v>
       </c>
       <c r="J13" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K13" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1203592332256607</v>
+        <v>0.1300178135369693</v>
       </c>
       <c r="M13" t="n">
-        <v>7.508086522759367</v>
+        <v>7.536886776575433</v>
       </c>
       <c r="N13" t="n">
-        <v>91.65733717853428</v>
+        <v>91.91999224403891</v>
       </c>
       <c r="O13" t="n">
-        <v>9.573783848538376</v>
+        <v>9.587491446882177</v>
       </c>
       <c r="P13" t="n">
-        <v>308.1381066313314</v>
+        <v>307.9545781218623</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -34470,28 +34470,28 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>0.6160680912633663</v>
+        <v>0.6276125005409228</v>
       </c>
       <c r="J14" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K14" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2557844764488737</v>
+        <v>0.2650604544785655</v>
       </c>
       <c r="M14" t="n">
-        <v>6.096357774924321</v>
+        <v>6.106280291283653</v>
       </c>
       <c r="N14" t="n">
-        <v>61.56641358726736</v>
+        <v>61.63879756547101</v>
       </c>
       <c r="O14" t="n">
-        <v>7.846426803792116</v>
+        <v>7.851037992868905</v>
       </c>
       <c r="P14" t="n">
-        <v>312.432591655015</v>
+        <v>312.323522207212</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -34548,28 +34548,28 @@
         <v>0.0405</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7768053046338755</v>
+        <v>0.7816794019114365</v>
       </c>
       <c r="J15" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K15" t="n">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3290553893615662</v>
+        <v>0.3354313895475244</v>
       </c>
       <c r="M15" t="n">
-        <v>6.563233947436915</v>
+        <v>6.545775554160894</v>
       </c>
       <c r="N15" t="n">
-        <v>68.55440713875183</v>
+        <v>68.22781621821464</v>
       </c>
       <c r="O15" t="n">
-        <v>8.279758881679577</v>
+        <v>8.260013088259281</v>
       </c>
       <c r="P15" t="n">
-        <v>318.1599129009717</v>
+        <v>318.1134631939707</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -34626,28 +34626,28 @@
         <v>0.0471</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8751250375817068</v>
+        <v>0.8846490444516133</v>
       </c>
       <c r="J16" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K16" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L16" t="n">
-        <v>0.4397688816680864</v>
+        <v>0.44821041571614</v>
       </c>
       <c r="M16" t="n">
-        <v>5.668713363709992</v>
+        <v>5.678490245421052</v>
       </c>
       <c r="N16" t="n">
-        <v>52.81634791513449</v>
+        <v>52.7617344399946</v>
       </c>
       <c r="O16" t="n">
-        <v>7.267485666661785</v>
+        <v>7.263727310409897</v>
       </c>
       <c r="P16" t="n">
-        <v>323.6666088055115</v>
+        <v>323.5743186903879</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -34704,28 +34704,28 @@
         <v>0.0308</v>
       </c>
       <c r="I17" t="n">
-        <v>0.933644529481094</v>
+        <v>0.9327413402417568</v>
       </c>
       <c r="J17" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K17" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3268961145641915</v>
+        <v>0.3299426845016005</v>
       </c>
       <c r="M17" t="n">
-        <v>8.046922997766583</v>
+        <v>8.026051824157447</v>
       </c>
       <c r="N17" t="n">
-        <v>97.92995815615852</v>
+        <v>97.436334774947</v>
       </c>
       <c r="O17" t="n">
-        <v>9.895956656946236</v>
+        <v>9.87098448863876</v>
       </c>
       <c r="P17" t="n">
-        <v>317.1852527305688</v>
+        <v>317.1941025849521</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -34782,28 +34782,28 @@
         <v>0.0319</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9344395532690098</v>
+        <v>0.9393002137063083</v>
       </c>
       <c r="J18" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K18" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3341273372600363</v>
+        <v>0.3391736450611894</v>
       </c>
       <c r="M18" t="n">
-        <v>7.926054681504472</v>
+        <v>7.924780677744923</v>
       </c>
       <c r="N18" t="n">
-        <v>95.37905428680861</v>
+        <v>95.18053687329514</v>
       </c>
       <c r="O18" t="n">
-        <v>9.766220061354783</v>
+        <v>9.756051295134478</v>
       </c>
       <c r="P18" t="n">
-        <v>313.1808920952247</v>
+        <v>313.1334477590908</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -34860,28 +34860,28 @@
         <v>0.0353</v>
       </c>
       <c r="I19" t="n">
-        <v>1.025344114985374</v>
+        <v>1.023366346666961</v>
       </c>
       <c r="J19" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K19" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3598559992447643</v>
+        <v>0.3625659675889303</v>
       </c>
       <c r="M19" t="n">
-        <v>8.03426636546758</v>
+        <v>8.002803150863215</v>
       </c>
       <c r="N19" t="n">
-        <v>102.1726880649377</v>
+        <v>101.5741538143597</v>
       </c>
       <c r="O19" t="n">
-        <v>10.10805065603342</v>
+        <v>10.07840035989639</v>
       </c>
       <c r="P19" t="n">
-        <v>310.6977973907651</v>
+        <v>310.7174062513129</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -34938,28 +34938,28 @@
         <v>0.0365</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9982807036938486</v>
+        <v>0.9960931103228753</v>
       </c>
       <c r="J20" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K20" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L20" t="n">
-        <v>0.4484678648851652</v>
+        <v>0.4509306532804571</v>
       </c>
       <c r="M20" t="n">
-        <v>6.509024519347612</v>
+        <v>6.497773217081374</v>
       </c>
       <c r="N20" t="n">
-        <v>65.50406744895389</v>
+        <v>65.22983172323148</v>
       </c>
       <c r="O20" t="n">
-        <v>8.093458312053871</v>
+        <v>8.076498729228618</v>
       </c>
       <c r="P20" t="n">
-        <v>310.5415156284151</v>
+        <v>310.5634970523644</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -35016,28 +35016,28 @@
         <v>0.0375</v>
       </c>
       <c r="I21" t="n">
-        <v>1.051020003357749</v>
+        <v>1.055645798667831</v>
       </c>
       <c r="J21" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K21" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L21" t="n">
-        <v>0.4770394825789424</v>
+        <v>0.482993215648162</v>
       </c>
       <c r="M21" t="n">
-        <v>6.325697975739955</v>
+        <v>6.304390809337222</v>
       </c>
       <c r="N21" t="n">
-        <v>64.62821118580693</v>
+        <v>64.31379169113254</v>
       </c>
       <c r="O21" t="n">
-        <v>8.039167319182189</v>
+        <v>8.019588000086571</v>
       </c>
       <c r="P21" t="n">
-        <v>311.640168692179</v>
+        <v>311.5939786893886</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -35094,28 +35094,28 @@
         <v>0.0363</v>
       </c>
       <c r="I22" t="n">
-        <v>1.046141938081525</v>
+        <v>1.053365115189228</v>
       </c>
       <c r="J22" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K22" t="n">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L22" t="n">
-        <v>0.4505045885789535</v>
+        <v>0.457105857250263</v>
       </c>
       <c r="M22" t="n">
-        <v>6.467545651619592</v>
+        <v>6.451285308734342</v>
       </c>
       <c r="N22" t="n">
-        <v>71.22781986577034</v>
+        <v>71.02942182757171</v>
       </c>
       <c r="O22" t="n">
-        <v>8.439657568039733</v>
+        <v>8.427895456611438</v>
       </c>
       <c r="P22" t="n">
-        <v>311.2527437855435</v>
+        <v>311.1805352963469</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -35172,28 +35172,28 @@
         <v>0.032</v>
       </c>
       <c r="I23" t="n">
-        <v>1.096688260130941</v>
+        <v>1.10186877969962</v>
       </c>
       <c r="J23" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K23" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L23" t="n">
-        <v>0.4591615750217466</v>
+        <v>0.4653051602193228</v>
       </c>
       <c r="M23" t="n">
-        <v>6.864447132192801</v>
+        <v>6.838180196737734</v>
       </c>
       <c r="N23" t="n">
-        <v>75.8705314911619</v>
+        <v>75.48437739076232</v>
       </c>
       <c r="O23" t="n">
-        <v>8.710369193734666</v>
+        <v>8.688174571839721</v>
       </c>
       <c r="P23" t="n">
-        <v>307.0616194092684</v>
+        <v>307.0100221988988</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -35250,28 +35250,28 @@
         <v>0.031</v>
       </c>
       <c r="I24" t="n">
-        <v>1.138723320864778</v>
+        <v>1.147531194524521</v>
       </c>
       <c r="J24" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K24" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L24" t="n">
-        <v>0.4798390365193146</v>
+        <v>0.4868884864770472</v>
       </c>
       <c r="M24" t="n">
-        <v>6.791741288014697</v>
+        <v>6.779858860412636</v>
       </c>
       <c r="N24" t="n">
-        <v>74.45704626063407</v>
+        <v>74.28657011592301</v>
       </c>
       <c r="O24" t="n">
-        <v>8.628849648744268</v>
+        <v>8.618965721936885</v>
       </c>
       <c r="P24" t="n">
-        <v>304.2822420737974</v>
+        <v>304.1940335545189</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -35328,28 +35328,28 @@
         <v>0.0313</v>
       </c>
       <c r="I25" t="n">
-        <v>1.07143009070172</v>
+        <v>1.075598807573805</v>
       </c>
       <c r="J25" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K25" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L25" t="n">
-        <v>0.4464920391341233</v>
+        <v>0.4526229639039101</v>
       </c>
       <c r="M25" t="n">
-        <v>6.867815445894485</v>
+        <v>6.839158374283643</v>
       </c>
       <c r="N25" t="n">
-        <v>75.17833860515178</v>
+        <v>74.71991760509067</v>
       </c>
       <c r="O25" t="n">
-        <v>8.670544308470593</v>
+        <v>8.644068348011292</v>
       </c>
       <c r="P25" t="n">
-        <v>305.1968896896792</v>
+        <v>305.1552619064594</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -35406,28 +35406,28 @@
         <v>0.0318</v>
       </c>
       <c r="I26" t="n">
-        <v>1.086258143125818</v>
+        <v>1.095224716373912</v>
       </c>
       <c r="J26" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K26" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L26" t="n">
-        <v>0.425046093664139</v>
+        <v>0.4324722215751021</v>
       </c>
       <c r="M26" t="n">
-        <v>7.371072313236426</v>
+        <v>7.362203420196461</v>
       </c>
       <c r="N26" t="n">
-        <v>85.29350313935375</v>
+        <v>84.99662461176391</v>
       </c>
       <c r="O26" t="n">
-        <v>9.235448182917478</v>
+        <v>9.219361399346697</v>
       </c>
       <c r="P26" t="n">
-        <v>306.3549509693345</v>
+        <v>306.2656518879098</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -35484,28 +35484,28 @@
         <v>0.0315</v>
       </c>
       <c r="I27" t="n">
-        <v>1.068780310907393</v>
+        <v>1.080873681908874</v>
       </c>
       <c r="J27" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K27" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L27" t="n">
-        <v>0.4199585372858726</v>
+        <v>0.4281270717847057</v>
       </c>
       <c r="M27" t="n">
-        <v>7.211654781557476</v>
+        <v>7.217203031080926</v>
       </c>
       <c r="N27" t="n">
-        <v>84.35443369970089</v>
+        <v>84.30900828158786</v>
       </c>
       <c r="O27" t="n">
-        <v>9.184466979618408</v>
+        <v>9.181993698624927</v>
       </c>
       <c r="P27" t="n">
-        <v>304.0575135181871</v>
+        <v>303.9371606296992</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -35562,28 +35562,28 @@
         <v>0.0315</v>
       </c>
       <c r="I28" t="n">
-        <v>0.9694681095711747</v>
+        <v>0.980870491270492</v>
       </c>
       <c r="J28" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K28" t="n">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L28" t="n">
-        <v>0.3529237923592141</v>
+        <v>0.361051779656296</v>
       </c>
       <c r="M28" t="n">
-        <v>7.607858431790779</v>
+        <v>7.61160012777679</v>
       </c>
       <c r="N28" t="n">
-        <v>93.58729943299086</v>
+        <v>93.39877508554889</v>
       </c>
       <c r="O28" t="n">
-        <v>9.674052895916523</v>
+        <v>9.66430416975526</v>
       </c>
       <c r="P28" t="n">
-        <v>304.2628784743604</v>
+        <v>304.1500534258785</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -35640,28 +35640,28 @@
         <v>0.0316</v>
       </c>
       <c r="I29" t="n">
-        <v>0.8837960765584368</v>
+        <v>0.9021518698605289</v>
       </c>
       <c r="J29" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K29" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L29" t="n">
-        <v>0.2928974237090386</v>
+        <v>0.302823373934308</v>
       </c>
       <c r="M29" t="n">
-        <v>8.151758929302899</v>
+        <v>8.179547396219871</v>
       </c>
       <c r="N29" t="n">
-        <v>102.5978842470054</v>
+        <v>102.9852693176208</v>
       </c>
       <c r="O29" t="n">
-        <v>10.12906137048273</v>
+        <v>10.14816581051082</v>
       </c>
       <c r="P29" t="n">
-        <v>305.8314575519301</v>
+        <v>305.6502320781324</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -35718,28 +35718,28 @@
         <v>0.0311</v>
       </c>
       <c r="I30" t="n">
-        <v>0.9246210026746319</v>
+        <v>0.9446790588704698</v>
       </c>
       <c r="J30" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K30" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L30" t="n">
-        <v>0.307997336863447</v>
+        <v>0.3180688203646723</v>
       </c>
       <c r="M30" t="n">
-        <v>7.993090850671282</v>
+        <v>8.025324254542793</v>
       </c>
       <c r="N30" t="n">
-        <v>103.9972933797421</v>
+        <v>104.6289784890984</v>
       </c>
       <c r="O30" t="n">
-        <v>10.19790632334609</v>
+        <v>10.22883074887342</v>
       </c>
       <c r="P30" t="n">
-        <v>298.5645312453498</v>
+        <v>298.3650465758276</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -35796,28 +35796,28 @@
         <v>0.0306</v>
       </c>
       <c r="I31" t="n">
-        <v>0.8138456194736176</v>
+        <v>0.832498655472752</v>
       </c>
       <c r="J31" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K31" t="n">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L31" t="n">
-        <v>0.2261587785376685</v>
+        <v>0.235783400996423</v>
       </c>
       <c r="M31" t="n">
-        <v>8.576354558303562</v>
+        <v>8.597538764858873</v>
       </c>
       <c r="N31" t="n">
-        <v>122.5724450462311</v>
+        <v>122.7674684169976</v>
       </c>
       <c r="O31" t="n">
-        <v>11.07124406045821</v>
+        <v>11.08004821365853</v>
       </c>
       <c r="P31" t="n">
-        <v>293.7695450959008</v>
+        <v>293.5838918383</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">

--- a/data/nzd0209/nzd0209.xlsx
+++ b/data/nzd0209/nzd0209.xlsx
@@ -33537,13 +33537,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.025</v>
+        <v>0.035</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0238</v>
+        <v>0.0273</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0306</v>
+        <v>0.0419</v>
       </c>
       <c r="I2" t="n">
         <v>-2.213001044002137</v>
@@ -33615,13 +33615,13 @@
         <v>0.03449761509656266</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0242</v>
+        <v>0.033</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0347</v>
+        <v>0.0463</v>
       </c>
       <c r="I3" t="n">
         <v>-1.93885167009646</v>
@@ -33693,13 +33693,13 @@
         <v>0.06899523019315053</v>
       </c>
       <c r="F4" t="n">
-        <v>0.035</v>
+        <v>0.03</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0317</v>
+        <v>0.0281</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0392</v>
+        <v>0.0362</v>
       </c>
       <c r="I4" t="n">
         <v>-1.476520829938769</v>
@@ -33774,10 +33774,10 @@
         <v>0.03</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0292</v>
+        <v>0.026</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0351</v>
+        <v>0.0317</v>
       </c>
       <c r="I5" t="n">
         <v>-1.075685713009228</v>
@@ -33849,13 +33849,13 @@
         <v>0.1379904603862759</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0294</v>
+        <v>0.0327</v>
       </c>
       <c r="H6" t="n">
-        <v>0.034</v>
+        <v>0.0415</v>
       </c>
       <c r="I6" t="n">
         <v>-0.7246193858933895</v>
@@ -33927,13 +33927,13 @@
         <v>0.1724880754828385</v>
       </c>
       <c r="F7" t="n">
-        <v>0.035</v>
+        <v>0.05</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0336</v>
+        <v>0.0398</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0375</v>
+        <v>0.0698</v>
       </c>
       <c r="I7" t="n">
         <v>-0.5210600044045224</v>
@@ -34005,13 +34005,13 @@
         <v>0.2069640878417341</v>
       </c>
       <c r="F8" t="n">
-        <v>0.035</v>
+        <v>0.055</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0338</v>
+        <v>0.0414</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0363</v>
+        <v>0.09</v>
       </c>
       <c r="I8" t="n">
         <v>-0.3302328397806244</v>
@@ -34086,10 +34086,10 @@
         <v>0.035</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0344</v>
+        <v>0.0249</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0362</v>
+        <v>0.058</v>
       </c>
       <c r="I9" t="n">
         <v>-1.588833379447321</v>
@@ -34161,13 +34161,13 @@
         <v>0.2759593180348608</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0345</v>
+        <v>0.0321</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0436</v>
+        <v>0.0378</v>
       </c>
       <c r="I10" t="n">
         <v>-0.8938653446955946</v>
@@ -34238,9 +34238,15 @@
       <c r="E11" t="n">
         <v>0.3104569331314393</v>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0323</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0424</v>
+      </c>
       <c r="I11" t="n">
         <v>-0.3511359437635758</v>
       </c>
@@ -34311,13 +34317,13 @@
         <v>0.344942572487916</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04</v>
+        <v>0.055</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0357</v>
+        <v>0.0476</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0446</v>
+        <v>0.0605</v>
       </c>
       <c r="I12" t="n">
         <v>0.1012667539668363</v>
@@ -34389,13 +34395,13 @@
         <v>0.3794401875844864</v>
       </c>
       <c r="F13" t="n">
-        <v>0.045</v>
+        <v>0.055</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0436</v>
+        <v>0.0509</v>
       </c>
       <c r="H13" t="n">
-        <v>0.051</v>
+        <v>0.06619999999999999</v>
       </c>
       <c r="I13" t="n">
         <v>0.4954946599453824</v>
@@ -34466,9 +34472,15 @@
       <c r="E14" t="n">
         <v>0.4139378026810566</v>
       </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.055</v>
+      </c>
       <c r="I14" t="n">
         <v>0.6276400574870979</v>
       </c>
@@ -34539,13 +34551,13 @@
         <v>0.4484354177776269</v>
       </c>
       <c r="F15" t="n">
-        <v>0.04</v>
+        <v>0.055</v>
       </c>
       <c r="G15" t="n">
-        <v>0.035</v>
+        <v>0.049</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0405</v>
+        <v>0.0606</v>
       </c>
       <c r="I15" t="n">
         <v>0.7816794019114365</v>
@@ -34617,13 +34629,13 @@
         <v>0.4827980401470591</v>
       </c>
       <c r="F16" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0394</v>
+        <v>0.0477</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0471</v>
+        <v>0.0563</v>
       </c>
       <c r="I16" t="n">
         <v>0.8846054754726849</v>
@@ -34695,13 +34707,13 @@
         <v>0.5172956552434003</v>
       </c>
       <c r="F17" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0297</v>
+        <v>0.0448</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0308</v>
+        <v>0.0525</v>
       </c>
       <c r="I17" t="n">
         <v>0.9327591621620368</v>
@@ -34773,13 +34785,13 @@
         <v>0.5517932703400494</v>
       </c>
       <c r="F18" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0298</v>
+        <v>0.0442</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0319</v>
+        <v>0.0524</v>
       </c>
       <c r="I18" t="n">
         <v>0.9393170297136896</v>
@@ -34851,13 +34863,13 @@
         <v>0.5862908854363906</v>
       </c>
       <c r="F19" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0298</v>
+        <v>0.0466</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0353</v>
+        <v>0.055</v>
       </c>
       <c r="I19" t="n">
         <v>1.023385933387021</v>
@@ -34929,13 +34941,13 @@
         <v>0.6207885005330398</v>
       </c>
       <c r="F20" t="n">
-        <v>0.035</v>
+        <v>0.05</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0342</v>
+        <v>0.0446</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0365</v>
+        <v>0.0534</v>
       </c>
       <c r="I20" t="n">
         <v>0.9960826221844077</v>
@@ -35007,13 +35019,13 @@
         <v>0.655286115629381</v>
       </c>
       <c r="F21" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0342</v>
+        <v>0.0379</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0375</v>
+        <v>0.0438</v>
       </c>
       <c r="I21" t="n">
         <v>1.055631031145529</v>
@@ -35085,13 +35097,13 @@
         <v>0.6897243233121205</v>
       </c>
       <c r="F22" t="n">
-        <v>0.035</v>
+        <v>0.045</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0341</v>
+        <v>0.04</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0363</v>
+        <v>0.0486</v>
       </c>
       <c r="I22" t="n">
         <v>1.053348432688181</v>
@@ -35163,13 +35175,13 @@
         <v>0.7242219384086491</v>
       </c>
       <c r="F23" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0296</v>
+        <v>0.0393</v>
       </c>
       <c r="H23" t="n">
-        <v>0.032</v>
+        <v>0.0457</v>
       </c>
       <c r="I23" t="n">
         <v>1.101893597295934</v>
@@ -35241,13 +35253,13 @@
         <v>0.7587195535056858</v>
       </c>
       <c r="F24" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0296</v>
+        <v>0.0385</v>
       </c>
       <c r="H24" t="n">
-        <v>0.031</v>
+        <v>0.0458</v>
       </c>
       <c r="I24" t="n">
         <v>1.147561299701819</v>
@@ -35319,13 +35331,13 @@
         <v>0.7932171686022143</v>
       </c>
       <c r="F25" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0294</v>
+        <v>0.0374</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0313</v>
+        <v>0.0454</v>
       </c>
       <c r="I25" t="n">
         <v>1.075629553062668</v>
@@ -35397,13 +35409,13 @@
         <v>0.8277142282653003</v>
       </c>
       <c r="F26" t="n">
-        <v>0.03</v>
+        <v>0.045</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0296</v>
+        <v>0.0389</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0318</v>
+        <v>0.0525</v>
       </c>
       <c r="I26" t="n">
         <v>1.095254453977918</v>
@@ -35475,13 +35487,13 @@
         <v>0.8622118433623747</v>
       </c>
       <c r="F27" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0295</v>
+        <v>0.0423</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0315</v>
+        <v>0.0696</v>
       </c>
       <c r="I27" t="n">
         <v>1.080901401554845</v>
@@ -35553,13 +35565,13 @@
         <v>0.8967094584588576</v>
       </c>
       <c r="F28" t="n">
-        <v>0.03</v>
+        <v>0.055</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0297</v>
+        <v>0.0443</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0315</v>
+        <v>0.0658</v>
       </c>
       <c r="I28" t="n">
         <v>0.9808912972275248</v>
@@ -35631,13 +35643,13 @@
         <v>0.9312070735553405</v>
       </c>
       <c r="F29" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0296</v>
+        <v>0.0379</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0316</v>
+        <v>0.0431</v>
       </c>
       <c r="I29" t="n">
         <v>0.9021708105238049</v>
@@ -35709,13 +35721,13 @@
         <v>0.9655023849033262</v>
       </c>
       <c r="F30" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0294</v>
+        <v>0.0374</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0311</v>
+        <v>0.0417</v>
       </c>
       <c r="I30" t="n">
         <v>0.9446958214664872</v>
@@ -35790,10 +35802,10 @@
         <v>0.03</v>
       </c>
       <c r="G31" t="n">
-        <v>0.025</v>
+        <v>0.0294</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0306</v>
+        <v>0.032</v>
       </c>
       <c r="I31" t="n">
         <v>0.8325188557974293</v>
